--- a/jeffrey/201512/performance_evaluation-jeffrey.xlsx
+++ b/jeffrey/201512/performance_evaluation-jeffrey.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
   <si>
     <t>Category</t>
   </si>
@@ -1566,20 +1566,188 @@
     <t>Test Skill</t>
   </si>
   <si>
-    <t>Others (list the items which you are familiar with, scor above 7, scoring from 1-10)</t>
-  </si>
-  <si>
     <t>[Section 3] Achievement</t>
   </si>
   <si>
     <t>[Section 4] To be improved</t>
+  </si>
+  <si>
+    <t>80
+B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+自告奮勇接了 ZyXEL 的 firewall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+自己對技術很龜毛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+龜毛起來文件會寫得像上癮一樣
+勉強接受的文書工作就表現平平</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>86
+面對人以及工作, 自己都是很 open mind
+會站在對方立場替人著想</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>86
+持續地追求成就感正是自己的存在意義</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>82
+會提出小挑戰讓工讀生表現, 隨後請他們喝飲料順便聊天攏絡感情</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+相信自己專注地在自己的領域並保持熱情, 一定會是公司的資產的一部分
+公司的資產也是世界的資產, 自己自然佔有該部分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+ACE Solution
+接到客戶來電立馬騎車到竹北排除問題</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>82
+ZyXEL project</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>84
+事出必有因, 自己夠細心, 技術面認識的也廣, 不會愛面子而受限於自身目前會的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>86
+深入淺出的介紹 IEEE 802.1ag OAM 獲得 Jim 肯定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node.js</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angular.js</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月底與 Jim 至 Rayson 利用 Ameba 平台展示控制燈光及隨著溫度控制市售風扇三段轉速變化</t>
+  </si>
+  <si>
+    <t>自主決定並購買 WS2812B 搭配 Ameba 來實作控制燈串的企劃</t>
+  </si>
+  <si>
+    <t>獨自突破 Ameba 的 GPIO API 速度限制直接利用 CPU 暫存器控制 GPIO 驅動 WS2812b</t>
+  </si>
+  <si>
+    <t>EFM Bridge CPU 從 ARM9 換成 ARM7 完成第一階段 - compile PASS</t>
+  </si>
+  <si>
+    <t>ACE Solution 對於 EFM Bridge 的客製化小量需求, 完全沒麻煩到之前負責但離職的同事(Coji)</t>
+  </si>
+  <si>
+    <t>ameba 上的 smart lighting 成果配合教學文件讓 Jammy 接手並很快的上手</t>
+  </si>
+  <si>
+    <t>firewall backup and restore 不到半天做完, 方法直覺又簡單</t>
+  </si>
+  <si>
+    <t>openHAB presentation - 快速讓學生們入門</t>
+  </si>
+  <si>
+    <t>Linux Device Driver Programming</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openWrt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>系統架構</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">86
+A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好奇心驅使自己學習的範圍極廣
+工作本身並不感覺到有技術的困難</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">86
+A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對感興趣的事物自主學習性及成長性極佳</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>86
+1. 自行解決 Ameba GPIO API 反應速度不夠快的問題
+2. 接手離職同事的案子並完成 ACE Solution 對於 EFM Bridge 的客製化需求</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微軟正黑體"/>
@@ -1670,6 +1838,31 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1697,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1766,16 +1959,8 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1788,6 +1973,63 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2162,21 +2404,21 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AMK84"/>
+  <dimension ref="A1:AMK90"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D7"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.125" style="5"/>
-    <col min="2" max="2" width="65.125" style="5"/>
-    <col min="3" max="3" width="49.25" style="5"/>
-    <col min="4" max="4" width="25.125" style="5"/>
+    <col min="1" max="1" width="24.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="5"/>
     <col min="6" max="1025" width="11" style="5"/>
   </cols>
@@ -2207,7 +2449,9 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2215,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -2223,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2231,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2239,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2251,7 +2495,9 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -2295,7 +2541,9 @@
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -2339,7 +2587,9 @@
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2347,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -2355,7 +2605,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -2363,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -2371,7 +2621,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -2389,13 +2639,16 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="27" t="s">
         <v>32</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
@@ -2403,8 +2656,11 @@
       <c r="B27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="27" t="s">
         <v>34</v>
+      </c>
+      <c r="D27" s="5">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
@@ -2412,22 +2668,31 @@
       <c r="B28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="39" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="28" t="s">
         <v>38</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -2435,386 +2700,6688 @@
         <v>39</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="55.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="14"/>
+      <c r="D32" s="39" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="14"/>
+      <c r="D33" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="14"/>
+      <c r="D34" s="39" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="14"/>
+      <c r="D35" s="39" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="19"/>
+      <c r="D36" s="39">
+        <v>80</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="69" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="19"/>
+      <c r="D37" s="39" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="14"/>
+      <c r="D39" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="31" t="s">
         <v>49</v>
       </c>
+      <c r="D40" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" ht="35.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="30" t="s">
         <v>51</v>
       </c>
+      <c r="D41" s="39" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="53.25" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="30" t="s">
         <v>53</v>
       </c>
+      <c r="D42" s="39" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="39" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="30"/>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="55.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="31" t="s">
         <v>58</v>
       </c>
+      <c r="D46" s="39" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="17"/>
+      <c r="D47" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="17"/>
+      <c r="D48" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="17"/>
+      <c r="D49" s="39" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="17"/>
+      <c r="D51" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="17"/>
+      <c r="D52" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="17"/>
+      <c r="D53" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="17"/>
+      <c r="D54" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="17"/>
+      <c r="D55" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="17"/>
+      <c r="D56" s="5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="17"/>
+      <c r="D57" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="17"/>
+      <c r="D58" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="17"/>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="17"/>
+      <c r="D60" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="17"/>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="17"/>
+      <c r="D62" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="17"/>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="17"/>
+      <c r="D64" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1025" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="17"/>
+      <c r="D65" s="5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="22" t="s">
+    <row r="66" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="34"/>
+      <c r="B66" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="33">
+        <v>8</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33"/>
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33"/>
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="33"/>
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33"/>
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33"/>
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BB66" s="33"/>
+      <c r="BC66" s="33"/>
+      <c r="BD66" s="33"/>
+      <c r="BE66" s="33"/>
+      <c r="BF66" s="33"/>
+      <c r="BG66" s="33"/>
+      <c r="BH66" s="33"/>
+      <c r="BI66" s="33"/>
+      <c r="BJ66" s="33"/>
+      <c r="BK66" s="33"/>
+      <c r="BL66" s="33"/>
+      <c r="BM66" s="33"/>
+      <c r="BN66" s="33"/>
+      <c r="BO66" s="33"/>
+      <c r="BP66" s="33"/>
+      <c r="BQ66" s="33"/>
+      <c r="BR66" s="33"/>
+      <c r="BS66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BV66" s="33"/>
+      <c r="BW66" s="33"/>
+      <c r="BX66" s="33"/>
+      <c r="BY66" s="33"/>
+      <c r="BZ66" s="33"/>
+      <c r="CA66" s="33"/>
+      <c r="CB66" s="33"/>
+      <c r="CC66" s="33"/>
+      <c r="CD66" s="33"/>
+      <c r="CE66" s="33"/>
+      <c r="CF66" s="33"/>
+      <c r="CG66" s="33"/>
+      <c r="CH66" s="33"/>
+      <c r="CI66" s="33"/>
+      <c r="CJ66" s="33"/>
+      <c r="CK66" s="33"/>
+      <c r="CL66" s="33"/>
+      <c r="CM66" s="33"/>
+      <c r="CN66" s="33"/>
+      <c r="CO66" s="33"/>
+      <c r="CP66" s="33"/>
+      <c r="CQ66" s="33"/>
+      <c r="CR66" s="33"/>
+      <c r="CS66" s="33"/>
+      <c r="CT66" s="33"/>
+      <c r="CU66" s="33"/>
+      <c r="CV66" s="33"/>
+      <c r="CW66" s="33"/>
+      <c r="CX66" s="33"/>
+      <c r="CY66" s="33"/>
+      <c r="CZ66" s="33"/>
+      <c r="DA66" s="33"/>
+      <c r="DB66" s="33"/>
+      <c r="DC66" s="33"/>
+      <c r="DD66" s="33"/>
+      <c r="DE66" s="33"/>
+      <c r="DF66" s="33"/>
+      <c r="DG66" s="33"/>
+      <c r="DH66" s="33"/>
+      <c r="DI66" s="33"/>
+      <c r="DJ66" s="33"/>
+      <c r="DK66" s="33"/>
+      <c r="DL66" s="33"/>
+      <c r="DM66" s="33"/>
+      <c r="DN66" s="33"/>
+      <c r="DO66" s="33"/>
+      <c r="DP66" s="33"/>
+      <c r="DQ66" s="33"/>
+      <c r="DR66" s="33"/>
+      <c r="DS66" s="33"/>
+      <c r="DT66" s="33"/>
+      <c r="DU66" s="33"/>
+      <c r="DV66" s="33"/>
+      <c r="DW66" s="33"/>
+      <c r="DX66" s="33"/>
+      <c r="DY66" s="33"/>
+      <c r="DZ66" s="33"/>
+      <c r="EA66" s="33"/>
+      <c r="EB66" s="33"/>
+      <c r="EC66" s="33"/>
+      <c r="ED66" s="33"/>
+      <c r="EE66" s="33"/>
+      <c r="EF66" s="33"/>
+      <c r="EG66" s="33"/>
+      <c r="EH66" s="33"/>
+      <c r="EI66" s="33"/>
+      <c r="EJ66" s="33"/>
+      <c r="EK66" s="33"/>
+      <c r="EL66" s="33"/>
+      <c r="EM66" s="33"/>
+      <c r="EN66" s="33"/>
+      <c r="EO66" s="33"/>
+      <c r="EP66" s="33"/>
+      <c r="EQ66" s="33"/>
+      <c r="ER66" s="33"/>
+      <c r="ES66" s="33"/>
+      <c r="ET66" s="33"/>
+      <c r="EU66" s="33"/>
+      <c r="EV66" s="33"/>
+      <c r="EW66" s="33"/>
+      <c r="EX66" s="33"/>
+      <c r="EY66" s="33"/>
+      <c r="EZ66" s="33"/>
+      <c r="FA66" s="33"/>
+      <c r="FB66" s="33"/>
+      <c r="FC66" s="33"/>
+      <c r="FD66" s="33"/>
+      <c r="FE66" s="33"/>
+      <c r="FF66" s="33"/>
+      <c r="FG66" s="33"/>
+      <c r="FH66" s="33"/>
+      <c r="FI66" s="33"/>
+      <c r="FJ66" s="33"/>
+      <c r="FK66" s="33"/>
+      <c r="FL66" s="33"/>
+      <c r="FM66" s="33"/>
+      <c r="FN66" s="33"/>
+      <c r="FO66" s="33"/>
+      <c r="FP66" s="33"/>
+      <c r="FQ66" s="33"/>
+      <c r="FR66" s="33"/>
+      <c r="FS66" s="33"/>
+      <c r="FT66" s="33"/>
+      <c r="FU66" s="33"/>
+      <c r="FV66" s="33"/>
+      <c r="FW66" s="33"/>
+      <c r="FX66" s="33"/>
+      <c r="FY66" s="33"/>
+      <c r="FZ66" s="33"/>
+      <c r="GA66" s="33"/>
+      <c r="GB66" s="33"/>
+      <c r="GC66" s="33"/>
+      <c r="GD66" s="33"/>
+      <c r="GE66" s="33"/>
+      <c r="GF66" s="33"/>
+      <c r="GG66" s="33"/>
+      <c r="GH66" s="33"/>
+      <c r="GI66" s="33"/>
+      <c r="GJ66" s="33"/>
+      <c r="GK66" s="33"/>
+      <c r="GL66" s="33"/>
+      <c r="GM66" s="33"/>
+      <c r="GN66" s="33"/>
+      <c r="GO66" s="33"/>
+      <c r="GP66" s="33"/>
+      <c r="GQ66" s="33"/>
+      <c r="GR66" s="33"/>
+      <c r="GS66" s="33"/>
+      <c r="GT66" s="33"/>
+      <c r="GU66" s="33"/>
+      <c r="GV66" s="33"/>
+      <c r="GW66" s="33"/>
+      <c r="GX66" s="33"/>
+      <c r="GY66" s="33"/>
+      <c r="GZ66" s="33"/>
+      <c r="HA66" s="33"/>
+      <c r="HB66" s="33"/>
+      <c r="HC66" s="33"/>
+      <c r="HD66" s="33"/>
+      <c r="HE66" s="33"/>
+      <c r="HF66" s="33"/>
+      <c r="HG66" s="33"/>
+      <c r="HH66" s="33"/>
+      <c r="HI66" s="33"/>
+      <c r="HJ66" s="33"/>
+      <c r="HK66" s="33"/>
+      <c r="HL66" s="33"/>
+      <c r="HM66" s="33"/>
+      <c r="HN66" s="33"/>
+      <c r="HO66" s="33"/>
+      <c r="HP66" s="33"/>
+      <c r="HQ66" s="33"/>
+      <c r="HR66" s="33"/>
+      <c r="HS66" s="33"/>
+      <c r="HT66" s="33"/>
+      <c r="HU66" s="33"/>
+      <c r="HV66" s="33"/>
+      <c r="HW66" s="33"/>
+      <c r="HX66" s="33"/>
+      <c r="HY66" s="33"/>
+      <c r="HZ66" s="33"/>
+      <c r="IA66" s="33"/>
+      <c r="IB66" s="33"/>
+      <c r="IC66" s="33"/>
+      <c r="ID66" s="33"/>
+      <c r="IE66" s="33"/>
+      <c r="IF66" s="33"/>
+      <c r="IG66" s="33"/>
+      <c r="IH66" s="33"/>
+      <c r="II66" s="33"/>
+      <c r="IJ66" s="33"/>
+      <c r="IK66" s="33"/>
+      <c r="IL66" s="33"/>
+      <c r="IM66" s="33"/>
+      <c r="IN66" s="33"/>
+      <c r="IO66" s="33"/>
+      <c r="IP66" s="33"/>
+      <c r="IQ66" s="33"/>
+      <c r="IR66" s="33"/>
+      <c r="IS66" s="33"/>
+      <c r="IT66" s="33"/>
+      <c r="IU66" s="33"/>
+      <c r="IV66" s="33"/>
+      <c r="IW66" s="33"/>
+      <c r="IX66" s="33"/>
+      <c r="IY66" s="33"/>
+      <c r="IZ66" s="33"/>
+      <c r="JA66" s="33"/>
+      <c r="JB66" s="33"/>
+      <c r="JC66" s="33"/>
+      <c r="JD66" s="33"/>
+      <c r="JE66" s="33"/>
+      <c r="JF66" s="33"/>
+      <c r="JG66" s="33"/>
+      <c r="JH66" s="33"/>
+      <c r="JI66" s="33"/>
+      <c r="JJ66" s="33"/>
+      <c r="JK66" s="33"/>
+      <c r="JL66" s="33"/>
+      <c r="JM66" s="33"/>
+      <c r="JN66" s="33"/>
+      <c r="JO66" s="33"/>
+      <c r="JP66" s="33"/>
+      <c r="JQ66" s="33"/>
+      <c r="JR66" s="33"/>
+      <c r="JS66" s="33"/>
+      <c r="JT66" s="33"/>
+      <c r="JU66" s="33"/>
+      <c r="JV66" s="33"/>
+      <c r="JW66" s="33"/>
+      <c r="JX66" s="33"/>
+      <c r="JY66" s="33"/>
+      <c r="JZ66" s="33"/>
+      <c r="KA66" s="33"/>
+      <c r="KB66" s="33"/>
+      <c r="KC66" s="33"/>
+      <c r="KD66" s="33"/>
+      <c r="KE66" s="33"/>
+      <c r="KF66" s="33"/>
+      <c r="KG66" s="33"/>
+      <c r="KH66" s="33"/>
+      <c r="KI66" s="33"/>
+      <c r="KJ66" s="33"/>
+      <c r="KK66" s="33"/>
+      <c r="KL66" s="33"/>
+      <c r="KM66" s="33"/>
+      <c r="KN66" s="33"/>
+      <c r="KO66" s="33"/>
+      <c r="KP66" s="33"/>
+      <c r="KQ66" s="33"/>
+      <c r="KR66" s="33"/>
+      <c r="KS66" s="33"/>
+      <c r="KT66" s="33"/>
+      <c r="KU66" s="33"/>
+      <c r="KV66" s="33"/>
+      <c r="KW66" s="33"/>
+      <c r="KX66" s="33"/>
+      <c r="KY66" s="33"/>
+      <c r="KZ66" s="33"/>
+      <c r="LA66" s="33"/>
+      <c r="LB66" s="33"/>
+      <c r="LC66" s="33"/>
+      <c r="LD66" s="33"/>
+      <c r="LE66" s="33"/>
+      <c r="LF66" s="33"/>
+      <c r="LG66" s="33"/>
+      <c r="LH66" s="33"/>
+      <c r="LI66" s="33"/>
+      <c r="LJ66" s="33"/>
+      <c r="LK66" s="33"/>
+      <c r="LL66" s="33"/>
+      <c r="LM66" s="33"/>
+      <c r="LN66" s="33"/>
+      <c r="LO66" s="33"/>
+      <c r="LP66" s="33"/>
+      <c r="LQ66" s="33"/>
+      <c r="LR66" s="33"/>
+      <c r="LS66" s="33"/>
+      <c r="LT66" s="33"/>
+      <c r="LU66" s="33"/>
+      <c r="LV66" s="33"/>
+      <c r="LW66" s="33"/>
+      <c r="LX66" s="33"/>
+      <c r="LY66" s="33"/>
+      <c r="LZ66" s="33"/>
+      <c r="MA66" s="33"/>
+      <c r="MB66" s="33"/>
+      <c r="MC66" s="33"/>
+      <c r="MD66" s="33"/>
+      <c r="ME66" s="33"/>
+      <c r="MF66" s="33"/>
+      <c r="MG66" s="33"/>
+      <c r="MH66" s="33"/>
+      <c r="MI66" s="33"/>
+      <c r="MJ66" s="33"/>
+      <c r="MK66" s="33"/>
+      <c r="ML66" s="33"/>
+      <c r="MM66" s="33"/>
+      <c r="MN66" s="33"/>
+      <c r="MO66" s="33"/>
+      <c r="MP66" s="33"/>
+      <c r="MQ66" s="33"/>
+      <c r="MR66" s="33"/>
+      <c r="MS66" s="33"/>
+      <c r="MT66" s="33"/>
+      <c r="MU66" s="33"/>
+      <c r="MV66" s="33"/>
+      <c r="MW66" s="33"/>
+      <c r="MX66" s="33"/>
+      <c r="MY66" s="33"/>
+      <c r="MZ66" s="33"/>
+      <c r="NA66" s="33"/>
+      <c r="NB66" s="33"/>
+      <c r="NC66" s="33"/>
+      <c r="ND66" s="33"/>
+      <c r="NE66" s="33"/>
+      <c r="NF66" s="33"/>
+      <c r="NG66" s="33"/>
+      <c r="NH66" s="33"/>
+      <c r="NI66" s="33"/>
+      <c r="NJ66" s="33"/>
+      <c r="NK66" s="33"/>
+      <c r="NL66" s="33"/>
+      <c r="NM66" s="33"/>
+      <c r="NN66" s="33"/>
+      <c r="NO66" s="33"/>
+      <c r="NP66" s="33"/>
+      <c r="NQ66" s="33"/>
+      <c r="NR66" s="33"/>
+      <c r="NS66" s="33"/>
+      <c r="NT66" s="33"/>
+      <c r="NU66" s="33"/>
+      <c r="NV66" s="33"/>
+      <c r="NW66" s="33"/>
+      <c r="NX66" s="33"/>
+      <c r="NY66" s="33"/>
+      <c r="NZ66" s="33"/>
+      <c r="OA66" s="33"/>
+      <c r="OB66" s="33"/>
+      <c r="OC66" s="33"/>
+      <c r="OD66" s="33"/>
+      <c r="OE66" s="33"/>
+      <c r="OF66" s="33"/>
+      <c r="OG66" s="33"/>
+      <c r="OH66" s="33"/>
+      <c r="OI66" s="33"/>
+      <c r="OJ66" s="33"/>
+      <c r="OK66" s="33"/>
+      <c r="OL66" s="33"/>
+      <c r="OM66" s="33"/>
+      <c r="ON66" s="33"/>
+      <c r="OO66" s="33"/>
+      <c r="OP66" s="33"/>
+      <c r="OQ66" s="33"/>
+      <c r="OR66" s="33"/>
+      <c r="OS66" s="33"/>
+      <c r="OT66" s="33"/>
+      <c r="OU66" s="33"/>
+      <c r="OV66" s="33"/>
+      <c r="OW66" s="33"/>
+      <c r="OX66" s="33"/>
+      <c r="OY66" s="33"/>
+      <c r="OZ66" s="33"/>
+      <c r="PA66" s="33"/>
+      <c r="PB66" s="33"/>
+      <c r="PC66" s="33"/>
+      <c r="PD66" s="33"/>
+      <c r="PE66" s="33"/>
+      <c r="PF66" s="33"/>
+      <c r="PG66" s="33"/>
+      <c r="PH66" s="33"/>
+      <c r="PI66" s="33"/>
+      <c r="PJ66" s="33"/>
+      <c r="PK66" s="33"/>
+      <c r="PL66" s="33"/>
+      <c r="PM66" s="33"/>
+      <c r="PN66" s="33"/>
+      <c r="PO66" s="33"/>
+      <c r="PP66" s="33"/>
+      <c r="PQ66" s="33"/>
+      <c r="PR66" s="33"/>
+      <c r="PS66" s="33"/>
+      <c r="PT66" s="33"/>
+      <c r="PU66" s="33"/>
+      <c r="PV66" s="33"/>
+      <c r="PW66" s="33"/>
+      <c r="PX66" s="33"/>
+      <c r="PY66" s="33"/>
+      <c r="PZ66" s="33"/>
+      <c r="QA66" s="33"/>
+      <c r="QB66" s="33"/>
+      <c r="QC66" s="33"/>
+      <c r="QD66" s="33"/>
+      <c r="QE66" s="33"/>
+      <c r="QF66" s="33"/>
+      <c r="QG66" s="33"/>
+      <c r="QH66" s="33"/>
+      <c r="QI66" s="33"/>
+      <c r="QJ66" s="33"/>
+      <c r="QK66" s="33"/>
+      <c r="QL66" s="33"/>
+      <c r="QM66" s="33"/>
+      <c r="QN66" s="33"/>
+      <c r="QO66" s="33"/>
+      <c r="QP66" s="33"/>
+      <c r="QQ66" s="33"/>
+      <c r="QR66" s="33"/>
+      <c r="QS66" s="33"/>
+      <c r="QT66" s="33"/>
+      <c r="QU66" s="33"/>
+      <c r="QV66" s="33"/>
+      <c r="QW66" s="33"/>
+      <c r="QX66" s="33"/>
+      <c r="QY66" s="33"/>
+      <c r="QZ66" s="33"/>
+      <c r="RA66" s="33"/>
+      <c r="RB66" s="33"/>
+      <c r="RC66" s="33"/>
+      <c r="RD66" s="33"/>
+      <c r="RE66" s="33"/>
+      <c r="RF66" s="33"/>
+      <c r="RG66" s="33"/>
+      <c r="RH66" s="33"/>
+      <c r="RI66" s="33"/>
+      <c r="RJ66" s="33"/>
+      <c r="RK66" s="33"/>
+      <c r="RL66" s="33"/>
+      <c r="RM66" s="33"/>
+      <c r="RN66" s="33"/>
+      <c r="RO66" s="33"/>
+      <c r="RP66" s="33"/>
+      <c r="RQ66" s="33"/>
+      <c r="RR66" s="33"/>
+      <c r="RS66" s="33"/>
+      <c r="RT66" s="33"/>
+      <c r="RU66" s="33"/>
+      <c r="RV66" s="33"/>
+      <c r="RW66" s="33"/>
+      <c r="RX66" s="33"/>
+      <c r="RY66" s="33"/>
+      <c r="RZ66" s="33"/>
+      <c r="SA66" s="33"/>
+      <c r="SB66" s="33"/>
+      <c r="SC66" s="33"/>
+      <c r="SD66" s="33"/>
+      <c r="SE66" s="33"/>
+      <c r="SF66" s="33"/>
+      <c r="SG66" s="33"/>
+      <c r="SH66" s="33"/>
+      <c r="SI66" s="33"/>
+      <c r="SJ66" s="33"/>
+      <c r="SK66" s="33"/>
+      <c r="SL66" s="33"/>
+      <c r="SM66" s="33"/>
+      <c r="SN66" s="33"/>
+      <c r="SO66" s="33"/>
+      <c r="SP66" s="33"/>
+      <c r="SQ66" s="33"/>
+      <c r="SR66" s="33"/>
+      <c r="SS66" s="33"/>
+      <c r="ST66" s="33"/>
+      <c r="SU66" s="33"/>
+      <c r="SV66" s="33"/>
+      <c r="SW66" s="33"/>
+      <c r="SX66" s="33"/>
+      <c r="SY66" s="33"/>
+      <c r="SZ66" s="33"/>
+      <c r="TA66" s="33"/>
+      <c r="TB66" s="33"/>
+      <c r="TC66" s="33"/>
+      <c r="TD66" s="33"/>
+      <c r="TE66" s="33"/>
+      <c r="TF66" s="33"/>
+      <c r="TG66" s="33"/>
+      <c r="TH66" s="33"/>
+      <c r="TI66" s="33"/>
+      <c r="TJ66" s="33"/>
+      <c r="TK66" s="33"/>
+      <c r="TL66" s="33"/>
+      <c r="TM66" s="33"/>
+      <c r="TN66" s="33"/>
+      <c r="TO66" s="33"/>
+      <c r="TP66" s="33"/>
+      <c r="TQ66" s="33"/>
+      <c r="TR66" s="33"/>
+      <c r="TS66" s="33"/>
+      <c r="TT66" s="33"/>
+      <c r="TU66" s="33"/>
+      <c r="TV66" s="33"/>
+      <c r="TW66" s="33"/>
+      <c r="TX66" s="33"/>
+      <c r="TY66" s="33"/>
+      <c r="TZ66" s="33"/>
+      <c r="UA66" s="33"/>
+      <c r="UB66" s="33"/>
+      <c r="UC66" s="33"/>
+      <c r="UD66" s="33"/>
+      <c r="UE66" s="33"/>
+      <c r="UF66" s="33"/>
+      <c r="UG66" s="33"/>
+      <c r="UH66" s="33"/>
+      <c r="UI66" s="33"/>
+      <c r="UJ66" s="33"/>
+      <c r="UK66" s="33"/>
+      <c r="UL66" s="33"/>
+      <c r="UM66" s="33"/>
+      <c r="UN66" s="33"/>
+      <c r="UO66" s="33"/>
+      <c r="UP66" s="33"/>
+      <c r="UQ66" s="33"/>
+      <c r="UR66" s="33"/>
+      <c r="US66" s="33"/>
+      <c r="UT66" s="33"/>
+      <c r="UU66" s="33"/>
+      <c r="UV66" s="33"/>
+      <c r="UW66" s="33"/>
+      <c r="UX66" s="33"/>
+      <c r="UY66" s="33"/>
+      <c r="UZ66" s="33"/>
+      <c r="VA66" s="33"/>
+      <c r="VB66" s="33"/>
+      <c r="VC66" s="33"/>
+      <c r="VD66" s="33"/>
+      <c r="VE66" s="33"/>
+      <c r="VF66" s="33"/>
+      <c r="VG66" s="33"/>
+      <c r="VH66" s="33"/>
+      <c r="VI66" s="33"/>
+      <c r="VJ66" s="33"/>
+      <c r="VK66" s="33"/>
+      <c r="VL66" s="33"/>
+      <c r="VM66" s="33"/>
+      <c r="VN66" s="33"/>
+      <c r="VO66" s="33"/>
+      <c r="VP66" s="33"/>
+      <c r="VQ66" s="33"/>
+      <c r="VR66" s="33"/>
+      <c r="VS66" s="33"/>
+      <c r="VT66" s="33"/>
+      <c r="VU66" s="33"/>
+      <c r="VV66" s="33"/>
+      <c r="VW66" s="33"/>
+      <c r="VX66" s="33"/>
+      <c r="VY66" s="33"/>
+      <c r="VZ66" s="33"/>
+      <c r="WA66" s="33"/>
+      <c r="WB66" s="33"/>
+      <c r="WC66" s="33"/>
+      <c r="WD66" s="33"/>
+      <c r="WE66" s="33"/>
+      <c r="WF66" s="33"/>
+      <c r="WG66" s="33"/>
+      <c r="WH66" s="33"/>
+      <c r="WI66" s="33"/>
+      <c r="WJ66" s="33"/>
+      <c r="WK66" s="33"/>
+      <c r="WL66" s="33"/>
+      <c r="WM66" s="33"/>
+      <c r="WN66" s="33"/>
+      <c r="WO66" s="33"/>
+      <c r="WP66" s="33"/>
+      <c r="WQ66" s="33"/>
+      <c r="WR66" s="33"/>
+      <c r="WS66" s="33"/>
+      <c r="WT66" s="33"/>
+      <c r="WU66" s="33"/>
+      <c r="WV66" s="33"/>
+      <c r="WW66" s="33"/>
+      <c r="WX66" s="33"/>
+      <c r="WY66" s="33"/>
+      <c r="WZ66" s="33"/>
+      <c r="XA66" s="33"/>
+      <c r="XB66" s="33"/>
+      <c r="XC66" s="33"/>
+      <c r="XD66" s="33"/>
+      <c r="XE66" s="33"/>
+      <c r="XF66" s="33"/>
+      <c r="XG66" s="33"/>
+      <c r="XH66" s="33"/>
+      <c r="XI66" s="33"/>
+      <c r="XJ66" s="33"/>
+      <c r="XK66" s="33"/>
+      <c r="XL66" s="33"/>
+      <c r="XM66" s="33"/>
+      <c r="XN66" s="33"/>
+      <c r="XO66" s="33"/>
+      <c r="XP66" s="33"/>
+      <c r="XQ66" s="33"/>
+      <c r="XR66" s="33"/>
+      <c r="XS66" s="33"/>
+      <c r="XT66" s="33"/>
+      <c r="XU66" s="33"/>
+      <c r="XV66" s="33"/>
+      <c r="XW66" s="33"/>
+      <c r="XX66" s="33"/>
+      <c r="XY66" s="33"/>
+      <c r="XZ66" s="33"/>
+      <c r="YA66" s="33"/>
+      <c r="YB66" s="33"/>
+      <c r="YC66" s="33"/>
+      <c r="YD66" s="33"/>
+      <c r="YE66" s="33"/>
+      <c r="YF66" s="33"/>
+      <c r="YG66" s="33"/>
+      <c r="YH66" s="33"/>
+      <c r="YI66" s="33"/>
+      <c r="YJ66" s="33"/>
+      <c r="YK66" s="33"/>
+      <c r="YL66" s="33"/>
+      <c r="YM66" s="33"/>
+      <c r="YN66" s="33"/>
+      <c r="YO66" s="33"/>
+      <c r="YP66" s="33"/>
+      <c r="YQ66" s="33"/>
+      <c r="YR66" s="33"/>
+      <c r="YS66" s="33"/>
+      <c r="YT66" s="33"/>
+      <c r="YU66" s="33"/>
+      <c r="YV66" s="33"/>
+      <c r="YW66" s="33"/>
+      <c r="YX66" s="33"/>
+      <c r="YY66" s="33"/>
+      <c r="YZ66" s="33"/>
+      <c r="ZA66" s="33"/>
+      <c r="ZB66" s="33"/>
+      <c r="ZC66" s="33"/>
+      <c r="ZD66" s="33"/>
+      <c r="ZE66" s="33"/>
+      <c r="ZF66" s="33"/>
+      <c r="ZG66" s="33"/>
+      <c r="ZH66" s="33"/>
+      <c r="ZI66" s="33"/>
+      <c r="ZJ66" s="33"/>
+      <c r="ZK66" s="33"/>
+      <c r="ZL66" s="33"/>
+      <c r="ZM66" s="33"/>
+      <c r="ZN66" s="33"/>
+      <c r="ZO66" s="33"/>
+      <c r="ZP66" s="33"/>
+      <c r="ZQ66" s="33"/>
+      <c r="ZR66" s="33"/>
+      <c r="ZS66" s="33"/>
+      <c r="ZT66" s="33"/>
+      <c r="ZU66" s="33"/>
+      <c r="ZV66" s="33"/>
+      <c r="ZW66" s="33"/>
+      <c r="ZX66" s="33"/>
+      <c r="ZY66" s="33"/>
+      <c r="ZZ66" s="33"/>
+      <c r="AAA66" s="33"/>
+      <c r="AAB66" s="33"/>
+      <c r="AAC66" s="33"/>
+      <c r="AAD66" s="33"/>
+      <c r="AAE66" s="33"/>
+      <c r="AAF66" s="33"/>
+      <c r="AAG66" s="33"/>
+      <c r="AAH66" s="33"/>
+      <c r="AAI66" s="33"/>
+      <c r="AAJ66" s="33"/>
+      <c r="AAK66" s="33"/>
+      <c r="AAL66" s="33"/>
+      <c r="AAM66" s="33"/>
+      <c r="AAN66" s="33"/>
+      <c r="AAO66" s="33"/>
+      <c r="AAP66" s="33"/>
+      <c r="AAQ66" s="33"/>
+      <c r="AAR66" s="33"/>
+      <c r="AAS66" s="33"/>
+      <c r="AAT66" s="33"/>
+      <c r="AAU66" s="33"/>
+      <c r="AAV66" s="33"/>
+      <c r="AAW66" s="33"/>
+      <c r="AAX66" s="33"/>
+      <c r="AAY66" s="33"/>
+      <c r="AAZ66" s="33"/>
+      <c r="ABA66" s="33"/>
+      <c r="ABB66" s="33"/>
+      <c r="ABC66" s="33"/>
+      <c r="ABD66" s="33"/>
+      <c r="ABE66" s="33"/>
+      <c r="ABF66" s="33"/>
+      <c r="ABG66" s="33"/>
+      <c r="ABH66" s="33"/>
+      <c r="ABI66" s="33"/>
+      <c r="ABJ66" s="33"/>
+      <c r="ABK66" s="33"/>
+      <c r="ABL66" s="33"/>
+      <c r="ABM66" s="33"/>
+      <c r="ABN66" s="33"/>
+      <c r="ABO66" s="33"/>
+      <c r="ABP66" s="33"/>
+      <c r="ABQ66" s="33"/>
+      <c r="ABR66" s="33"/>
+      <c r="ABS66" s="33"/>
+      <c r="ABT66" s="33"/>
+      <c r="ABU66" s="33"/>
+      <c r="ABV66" s="33"/>
+      <c r="ABW66" s="33"/>
+      <c r="ABX66" s="33"/>
+      <c r="ABY66" s="33"/>
+      <c r="ABZ66" s="33"/>
+      <c r="ACA66" s="33"/>
+      <c r="ACB66" s="33"/>
+      <c r="ACC66" s="33"/>
+      <c r="ACD66" s="33"/>
+      <c r="ACE66" s="33"/>
+      <c r="ACF66" s="33"/>
+      <c r="ACG66" s="33"/>
+      <c r="ACH66" s="33"/>
+      <c r="ACI66" s="33"/>
+      <c r="ACJ66" s="33"/>
+      <c r="ACK66" s="33"/>
+      <c r="ACL66" s="33"/>
+      <c r="ACM66" s="33"/>
+      <c r="ACN66" s="33"/>
+      <c r="ACO66" s="33"/>
+      <c r="ACP66" s="33"/>
+      <c r="ACQ66" s="33"/>
+      <c r="ACR66" s="33"/>
+      <c r="ACS66" s="33"/>
+      <c r="ACT66" s="33"/>
+      <c r="ACU66" s="33"/>
+      <c r="ACV66" s="33"/>
+      <c r="ACW66" s="33"/>
+      <c r="ACX66" s="33"/>
+      <c r="ACY66" s="33"/>
+      <c r="ACZ66" s="33"/>
+      <c r="ADA66" s="33"/>
+      <c r="ADB66" s="33"/>
+      <c r="ADC66" s="33"/>
+      <c r="ADD66" s="33"/>
+      <c r="ADE66" s="33"/>
+      <c r="ADF66" s="33"/>
+      <c r="ADG66" s="33"/>
+      <c r="ADH66" s="33"/>
+      <c r="ADI66" s="33"/>
+      <c r="ADJ66" s="33"/>
+      <c r="ADK66" s="33"/>
+      <c r="ADL66" s="33"/>
+      <c r="ADM66" s="33"/>
+      <c r="ADN66" s="33"/>
+      <c r="ADO66" s="33"/>
+      <c r="ADP66" s="33"/>
+      <c r="ADQ66" s="33"/>
+      <c r="ADR66" s="33"/>
+      <c r="ADS66" s="33"/>
+      <c r="ADT66" s="33"/>
+      <c r="ADU66" s="33"/>
+      <c r="ADV66" s="33"/>
+      <c r="ADW66" s="33"/>
+      <c r="ADX66" s="33"/>
+      <c r="ADY66" s="33"/>
+      <c r="ADZ66" s="33"/>
+      <c r="AEA66" s="33"/>
+      <c r="AEB66" s="33"/>
+      <c r="AEC66" s="33"/>
+      <c r="AED66" s="33"/>
+      <c r="AEE66" s="33"/>
+      <c r="AEF66" s="33"/>
+      <c r="AEG66" s="33"/>
+      <c r="AEH66" s="33"/>
+      <c r="AEI66" s="33"/>
+      <c r="AEJ66" s="33"/>
+      <c r="AEK66" s="33"/>
+      <c r="AEL66" s="33"/>
+      <c r="AEM66" s="33"/>
+      <c r="AEN66" s="33"/>
+      <c r="AEO66" s="33"/>
+      <c r="AEP66" s="33"/>
+      <c r="AEQ66" s="33"/>
+      <c r="AER66" s="33"/>
+      <c r="AES66" s="33"/>
+      <c r="AET66" s="33"/>
+      <c r="AEU66" s="33"/>
+      <c r="AEV66" s="33"/>
+      <c r="AEW66" s="33"/>
+      <c r="AEX66" s="33"/>
+      <c r="AEY66" s="33"/>
+      <c r="AEZ66" s="33"/>
+      <c r="AFA66" s="33"/>
+      <c r="AFB66" s="33"/>
+      <c r="AFC66" s="33"/>
+      <c r="AFD66" s="33"/>
+      <c r="AFE66" s="33"/>
+      <c r="AFF66" s="33"/>
+      <c r="AFG66" s="33"/>
+      <c r="AFH66" s="33"/>
+      <c r="AFI66" s="33"/>
+      <c r="AFJ66" s="33"/>
+      <c r="AFK66" s="33"/>
+      <c r="AFL66" s="33"/>
+      <c r="AFM66" s="33"/>
+      <c r="AFN66" s="33"/>
+      <c r="AFO66" s="33"/>
+      <c r="AFP66" s="33"/>
+      <c r="AFQ66" s="33"/>
+      <c r="AFR66" s="33"/>
+      <c r="AFS66" s="33"/>
+      <c r="AFT66" s="33"/>
+      <c r="AFU66" s="33"/>
+      <c r="AFV66" s="33"/>
+      <c r="AFW66" s="33"/>
+      <c r="AFX66" s="33"/>
+      <c r="AFY66" s="33"/>
+      <c r="AFZ66" s="33"/>
+      <c r="AGA66" s="33"/>
+      <c r="AGB66" s="33"/>
+      <c r="AGC66" s="33"/>
+      <c r="AGD66" s="33"/>
+      <c r="AGE66" s="33"/>
+      <c r="AGF66" s="33"/>
+      <c r="AGG66" s="33"/>
+      <c r="AGH66" s="33"/>
+      <c r="AGI66" s="33"/>
+      <c r="AGJ66" s="33"/>
+      <c r="AGK66" s="33"/>
+      <c r="AGL66" s="33"/>
+      <c r="AGM66" s="33"/>
+      <c r="AGN66" s="33"/>
+      <c r="AGO66" s="33"/>
+      <c r="AGP66" s="33"/>
+      <c r="AGQ66" s="33"/>
+      <c r="AGR66" s="33"/>
+      <c r="AGS66" s="33"/>
+      <c r="AGT66" s="33"/>
+      <c r="AGU66" s="33"/>
+      <c r="AGV66" s="33"/>
+      <c r="AGW66" s="33"/>
+      <c r="AGX66" s="33"/>
+      <c r="AGY66" s="33"/>
+      <c r="AGZ66" s="33"/>
+      <c r="AHA66" s="33"/>
+      <c r="AHB66" s="33"/>
+      <c r="AHC66" s="33"/>
+      <c r="AHD66" s="33"/>
+      <c r="AHE66" s="33"/>
+      <c r="AHF66" s="33"/>
+      <c r="AHG66" s="33"/>
+      <c r="AHH66" s="33"/>
+      <c r="AHI66" s="33"/>
+      <c r="AHJ66" s="33"/>
+      <c r="AHK66" s="33"/>
+      <c r="AHL66" s="33"/>
+      <c r="AHM66" s="33"/>
+      <c r="AHN66" s="33"/>
+      <c r="AHO66" s="33"/>
+      <c r="AHP66" s="33"/>
+      <c r="AHQ66" s="33"/>
+      <c r="AHR66" s="33"/>
+      <c r="AHS66" s="33"/>
+      <c r="AHT66" s="33"/>
+      <c r="AHU66" s="33"/>
+      <c r="AHV66" s="33"/>
+      <c r="AHW66" s="33"/>
+      <c r="AHX66" s="33"/>
+      <c r="AHY66" s="33"/>
+      <c r="AHZ66" s="33"/>
+      <c r="AIA66" s="33"/>
+      <c r="AIB66" s="33"/>
+      <c r="AIC66" s="33"/>
+      <c r="AID66" s="33"/>
+      <c r="AIE66" s="33"/>
+      <c r="AIF66" s="33"/>
+      <c r="AIG66" s="33"/>
+      <c r="AIH66" s="33"/>
+      <c r="AII66" s="33"/>
+      <c r="AIJ66" s="33"/>
+      <c r="AIK66" s="33"/>
+      <c r="AIL66" s="33"/>
+      <c r="AIM66" s="33"/>
+      <c r="AIN66" s="33"/>
+      <c r="AIO66" s="33"/>
+      <c r="AIP66" s="33"/>
+      <c r="AIQ66" s="33"/>
+      <c r="AIR66" s="33"/>
+      <c r="AIS66" s="33"/>
+      <c r="AIT66" s="33"/>
+      <c r="AIU66" s="33"/>
+      <c r="AIV66" s="33"/>
+      <c r="AIW66" s="33"/>
+      <c r="AIX66" s="33"/>
+      <c r="AIY66" s="33"/>
+      <c r="AIZ66" s="33"/>
+      <c r="AJA66" s="33"/>
+      <c r="AJB66" s="33"/>
+      <c r="AJC66" s="33"/>
+      <c r="AJD66" s="33"/>
+      <c r="AJE66" s="33"/>
+      <c r="AJF66" s="33"/>
+      <c r="AJG66" s="33"/>
+      <c r="AJH66" s="33"/>
+      <c r="AJI66" s="33"/>
+      <c r="AJJ66" s="33"/>
+      <c r="AJK66" s="33"/>
+      <c r="AJL66" s="33"/>
+      <c r="AJM66" s="33"/>
+      <c r="AJN66" s="33"/>
+      <c r="AJO66" s="33"/>
+      <c r="AJP66" s="33"/>
+      <c r="AJQ66" s="33"/>
+      <c r="AJR66" s="33"/>
+      <c r="AJS66" s="33"/>
+      <c r="AJT66" s="33"/>
+      <c r="AJU66" s="33"/>
+      <c r="AJV66" s="33"/>
+      <c r="AJW66" s="33"/>
+      <c r="AJX66" s="33"/>
+      <c r="AJY66" s="33"/>
+      <c r="AJZ66" s="33"/>
+      <c r="AKA66" s="33"/>
+      <c r="AKB66" s="33"/>
+      <c r="AKC66" s="33"/>
+      <c r="AKD66" s="33"/>
+      <c r="AKE66" s="33"/>
+      <c r="AKF66" s="33"/>
+      <c r="AKG66" s="33"/>
+      <c r="AKH66" s="33"/>
+      <c r="AKI66" s="33"/>
+      <c r="AKJ66" s="33"/>
+      <c r="AKK66" s="33"/>
+      <c r="AKL66" s="33"/>
+      <c r="AKM66" s="33"/>
+      <c r="AKN66" s="33"/>
+      <c r="AKO66" s="33"/>
+      <c r="AKP66" s="33"/>
+      <c r="AKQ66" s="33"/>
+      <c r="AKR66" s="33"/>
+      <c r="AKS66" s="33"/>
+      <c r="AKT66" s="33"/>
+      <c r="AKU66" s="33"/>
+      <c r="AKV66" s="33"/>
+      <c r="AKW66" s="33"/>
+      <c r="AKX66" s="33"/>
+      <c r="AKY66" s="33"/>
+      <c r="AKZ66" s="33"/>
+      <c r="ALA66" s="33"/>
+      <c r="ALB66" s="33"/>
+      <c r="ALC66" s="33"/>
+      <c r="ALD66" s="33"/>
+      <c r="ALE66" s="33"/>
+      <c r="ALF66" s="33"/>
+      <c r="ALG66" s="33"/>
+      <c r="ALH66" s="33"/>
+      <c r="ALI66" s="33"/>
+      <c r="ALJ66" s="33"/>
+      <c r="ALK66" s="33"/>
+      <c r="ALL66" s="33"/>
+      <c r="ALM66" s="33"/>
+      <c r="ALN66" s="33"/>
+      <c r="ALO66" s="33"/>
+      <c r="ALP66" s="33"/>
+      <c r="ALQ66" s="33"/>
+      <c r="ALR66" s="33"/>
+      <c r="ALS66" s="33"/>
+      <c r="ALT66" s="33"/>
+      <c r="ALU66" s="33"/>
+      <c r="ALV66" s="33"/>
+      <c r="ALW66" s="33"/>
+      <c r="ALX66" s="33"/>
+      <c r="ALY66" s="33"/>
+      <c r="ALZ66" s="33"/>
+      <c r="AMA66" s="33"/>
+      <c r="AMB66" s="33"/>
+      <c r="AMC66" s="33"/>
+      <c r="AMD66" s="33"/>
+      <c r="AME66" s="33"/>
+      <c r="AMF66" s="33"/>
+      <c r="AMG66" s="33"/>
+      <c r="AMH66" s="33"/>
+      <c r="AMI66" s="33"/>
+      <c r="AMJ66" s="33"/>
+      <c r="AMK66" s="33"/>
+    </row>
+    <row r="67" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="34"/>
+      <c r="B67" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="33">
+        <v>8</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33"/>
+      <c r="AI67" s="33"/>
+      <c r="AJ67" s="33"/>
+      <c r="AK67" s="33"/>
+      <c r="AL67" s="33"/>
+      <c r="AM67" s="33"/>
+      <c r="AN67" s="33"/>
+      <c r="AO67" s="33"/>
+      <c r="AP67" s="33"/>
+      <c r="AQ67" s="33"/>
+      <c r="AR67" s="33"/>
+      <c r="AS67" s="33"/>
+      <c r="AT67" s="33"/>
+      <c r="AU67" s="33"/>
+      <c r="AV67" s="33"/>
+      <c r="AW67" s="33"/>
+      <c r="AX67" s="33"/>
+      <c r="AY67" s="33"/>
+      <c r="AZ67" s="33"/>
+      <c r="BA67" s="33"/>
+      <c r="BB67" s="33"/>
+      <c r="BC67" s="33"/>
+      <c r="BD67" s="33"/>
+      <c r="BE67" s="33"/>
+      <c r="BF67" s="33"/>
+      <c r="BG67" s="33"/>
+      <c r="BH67" s="33"/>
+      <c r="BI67" s="33"/>
+      <c r="BJ67" s="33"/>
+      <c r="BK67" s="33"/>
+      <c r="BL67" s="33"/>
+      <c r="BM67" s="33"/>
+      <c r="BN67" s="33"/>
+      <c r="BO67" s="33"/>
+      <c r="BP67" s="33"/>
+      <c r="BQ67" s="33"/>
+      <c r="BR67" s="33"/>
+      <c r="BS67" s="33"/>
+      <c r="BT67" s="33"/>
+      <c r="BU67" s="33"/>
+      <c r="BV67" s="33"/>
+      <c r="BW67" s="33"/>
+      <c r="BX67" s="33"/>
+      <c r="BY67" s="33"/>
+      <c r="BZ67" s="33"/>
+      <c r="CA67" s="33"/>
+      <c r="CB67" s="33"/>
+      <c r="CC67" s="33"/>
+      <c r="CD67" s="33"/>
+      <c r="CE67" s="33"/>
+      <c r="CF67" s="33"/>
+      <c r="CG67" s="33"/>
+      <c r="CH67" s="33"/>
+      <c r="CI67" s="33"/>
+      <c r="CJ67" s="33"/>
+      <c r="CK67" s="33"/>
+      <c r="CL67" s="33"/>
+      <c r="CM67" s="33"/>
+      <c r="CN67" s="33"/>
+      <c r="CO67" s="33"/>
+      <c r="CP67" s="33"/>
+      <c r="CQ67" s="33"/>
+      <c r="CR67" s="33"/>
+      <c r="CS67" s="33"/>
+      <c r="CT67" s="33"/>
+      <c r="CU67" s="33"/>
+      <c r="CV67" s="33"/>
+      <c r="CW67" s="33"/>
+      <c r="CX67" s="33"/>
+      <c r="CY67" s="33"/>
+      <c r="CZ67" s="33"/>
+      <c r="DA67" s="33"/>
+      <c r="DB67" s="33"/>
+      <c r="DC67" s="33"/>
+      <c r="DD67" s="33"/>
+      <c r="DE67" s="33"/>
+      <c r="DF67" s="33"/>
+      <c r="DG67" s="33"/>
+      <c r="DH67" s="33"/>
+      <c r="DI67" s="33"/>
+      <c r="DJ67" s="33"/>
+      <c r="DK67" s="33"/>
+      <c r="DL67" s="33"/>
+      <c r="DM67" s="33"/>
+      <c r="DN67" s="33"/>
+      <c r="DO67" s="33"/>
+      <c r="DP67" s="33"/>
+      <c r="DQ67" s="33"/>
+      <c r="DR67" s="33"/>
+      <c r="DS67" s="33"/>
+      <c r="DT67" s="33"/>
+      <c r="DU67" s="33"/>
+      <c r="DV67" s="33"/>
+      <c r="DW67" s="33"/>
+      <c r="DX67" s="33"/>
+      <c r="DY67" s="33"/>
+      <c r="DZ67" s="33"/>
+      <c r="EA67" s="33"/>
+      <c r="EB67" s="33"/>
+      <c r="EC67" s="33"/>
+      <c r="ED67" s="33"/>
+      <c r="EE67" s="33"/>
+      <c r="EF67" s="33"/>
+      <c r="EG67" s="33"/>
+      <c r="EH67" s="33"/>
+      <c r="EI67" s="33"/>
+      <c r="EJ67" s="33"/>
+      <c r="EK67" s="33"/>
+      <c r="EL67" s="33"/>
+      <c r="EM67" s="33"/>
+      <c r="EN67" s="33"/>
+      <c r="EO67" s="33"/>
+      <c r="EP67" s="33"/>
+      <c r="EQ67" s="33"/>
+      <c r="ER67" s="33"/>
+      <c r="ES67" s="33"/>
+      <c r="ET67" s="33"/>
+      <c r="EU67" s="33"/>
+      <c r="EV67" s="33"/>
+      <c r="EW67" s="33"/>
+      <c r="EX67" s="33"/>
+      <c r="EY67" s="33"/>
+      <c r="EZ67" s="33"/>
+      <c r="FA67" s="33"/>
+      <c r="FB67" s="33"/>
+      <c r="FC67" s="33"/>
+      <c r="FD67" s="33"/>
+      <c r="FE67" s="33"/>
+      <c r="FF67" s="33"/>
+      <c r="FG67" s="33"/>
+      <c r="FH67" s="33"/>
+      <c r="FI67" s="33"/>
+      <c r="FJ67" s="33"/>
+      <c r="FK67" s="33"/>
+      <c r="FL67" s="33"/>
+      <c r="FM67" s="33"/>
+      <c r="FN67" s="33"/>
+      <c r="FO67" s="33"/>
+      <c r="FP67" s="33"/>
+      <c r="FQ67" s="33"/>
+      <c r="FR67" s="33"/>
+      <c r="FS67" s="33"/>
+      <c r="FT67" s="33"/>
+      <c r="FU67" s="33"/>
+      <c r="FV67" s="33"/>
+      <c r="FW67" s="33"/>
+      <c r="FX67" s="33"/>
+      <c r="FY67" s="33"/>
+      <c r="FZ67" s="33"/>
+      <c r="GA67" s="33"/>
+      <c r="GB67" s="33"/>
+      <c r="GC67" s="33"/>
+      <c r="GD67" s="33"/>
+      <c r="GE67" s="33"/>
+      <c r="GF67" s="33"/>
+      <c r="GG67" s="33"/>
+      <c r="GH67" s="33"/>
+      <c r="GI67" s="33"/>
+      <c r="GJ67" s="33"/>
+      <c r="GK67" s="33"/>
+      <c r="GL67" s="33"/>
+      <c r="GM67" s="33"/>
+      <c r="GN67" s="33"/>
+      <c r="GO67" s="33"/>
+      <c r="GP67" s="33"/>
+      <c r="GQ67" s="33"/>
+      <c r="GR67" s="33"/>
+      <c r="GS67" s="33"/>
+      <c r="GT67" s="33"/>
+      <c r="GU67" s="33"/>
+      <c r="GV67" s="33"/>
+      <c r="GW67" s="33"/>
+      <c r="GX67" s="33"/>
+      <c r="GY67" s="33"/>
+      <c r="GZ67" s="33"/>
+      <c r="HA67" s="33"/>
+      <c r="HB67" s="33"/>
+      <c r="HC67" s="33"/>
+      <c r="HD67" s="33"/>
+      <c r="HE67" s="33"/>
+      <c r="HF67" s="33"/>
+      <c r="HG67" s="33"/>
+      <c r="HH67" s="33"/>
+      <c r="HI67" s="33"/>
+      <c r="HJ67" s="33"/>
+      <c r="HK67" s="33"/>
+      <c r="HL67" s="33"/>
+      <c r="HM67" s="33"/>
+      <c r="HN67" s="33"/>
+      <c r="HO67" s="33"/>
+      <c r="HP67" s="33"/>
+      <c r="HQ67" s="33"/>
+      <c r="HR67" s="33"/>
+      <c r="HS67" s="33"/>
+      <c r="HT67" s="33"/>
+      <c r="HU67" s="33"/>
+      <c r="HV67" s="33"/>
+      <c r="HW67" s="33"/>
+      <c r="HX67" s="33"/>
+      <c r="HY67" s="33"/>
+      <c r="HZ67" s="33"/>
+      <c r="IA67" s="33"/>
+      <c r="IB67" s="33"/>
+      <c r="IC67" s="33"/>
+      <c r="ID67" s="33"/>
+      <c r="IE67" s="33"/>
+      <c r="IF67" s="33"/>
+      <c r="IG67" s="33"/>
+      <c r="IH67" s="33"/>
+      <c r="II67" s="33"/>
+      <c r="IJ67" s="33"/>
+      <c r="IK67" s="33"/>
+      <c r="IL67" s="33"/>
+      <c r="IM67" s="33"/>
+      <c r="IN67" s="33"/>
+      <c r="IO67" s="33"/>
+      <c r="IP67" s="33"/>
+      <c r="IQ67" s="33"/>
+      <c r="IR67" s="33"/>
+      <c r="IS67" s="33"/>
+      <c r="IT67" s="33"/>
+      <c r="IU67" s="33"/>
+      <c r="IV67" s="33"/>
+      <c r="IW67" s="33"/>
+      <c r="IX67" s="33"/>
+      <c r="IY67" s="33"/>
+      <c r="IZ67" s="33"/>
+      <c r="JA67" s="33"/>
+      <c r="JB67" s="33"/>
+      <c r="JC67" s="33"/>
+      <c r="JD67" s="33"/>
+      <c r="JE67" s="33"/>
+      <c r="JF67" s="33"/>
+      <c r="JG67" s="33"/>
+      <c r="JH67" s="33"/>
+      <c r="JI67" s="33"/>
+      <c r="JJ67" s="33"/>
+      <c r="JK67" s="33"/>
+      <c r="JL67" s="33"/>
+      <c r="JM67" s="33"/>
+      <c r="JN67" s="33"/>
+      <c r="JO67" s="33"/>
+      <c r="JP67" s="33"/>
+      <c r="JQ67" s="33"/>
+      <c r="JR67" s="33"/>
+      <c r="JS67" s="33"/>
+      <c r="JT67" s="33"/>
+      <c r="JU67" s="33"/>
+      <c r="JV67" s="33"/>
+      <c r="JW67" s="33"/>
+      <c r="JX67" s="33"/>
+      <c r="JY67" s="33"/>
+      <c r="JZ67" s="33"/>
+      <c r="KA67" s="33"/>
+      <c r="KB67" s="33"/>
+      <c r="KC67" s="33"/>
+      <c r="KD67" s="33"/>
+      <c r="KE67" s="33"/>
+      <c r="KF67" s="33"/>
+      <c r="KG67" s="33"/>
+      <c r="KH67" s="33"/>
+      <c r="KI67" s="33"/>
+      <c r="KJ67" s="33"/>
+      <c r="KK67" s="33"/>
+      <c r="KL67" s="33"/>
+      <c r="KM67" s="33"/>
+      <c r="KN67" s="33"/>
+      <c r="KO67" s="33"/>
+      <c r="KP67" s="33"/>
+      <c r="KQ67" s="33"/>
+      <c r="KR67" s="33"/>
+      <c r="KS67" s="33"/>
+      <c r="KT67" s="33"/>
+      <c r="KU67" s="33"/>
+      <c r="KV67" s="33"/>
+      <c r="KW67" s="33"/>
+      <c r="KX67" s="33"/>
+      <c r="KY67" s="33"/>
+      <c r="KZ67" s="33"/>
+      <c r="LA67" s="33"/>
+      <c r="LB67" s="33"/>
+      <c r="LC67" s="33"/>
+      <c r="LD67" s="33"/>
+      <c r="LE67" s="33"/>
+      <c r="LF67" s="33"/>
+      <c r="LG67" s="33"/>
+      <c r="LH67" s="33"/>
+      <c r="LI67" s="33"/>
+      <c r="LJ67" s="33"/>
+      <c r="LK67" s="33"/>
+      <c r="LL67" s="33"/>
+      <c r="LM67" s="33"/>
+      <c r="LN67" s="33"/>
+      <c r="LO67" s="33"/>
+      <c r="LP67" s="33"/>
+      <c r="LQ67" s="33"/>
+      <c r="LR67" s="33"/>
+      <c r="LS67" s="33"/>
+      <c r="LT67" s="33"/>
+      <c r="LU67" s="33"/>
+      <c r="LV67" s="33"/>
+      <c r="LW67" s="33"/>
+      <c r="LX67" s="33"/>
+      <c r="LY67" s="33"/>
+      <c r="LZ67" s="33"/>
+      <c r="MA67" s="33"/>
+      <c r="MB67" s="33"/>
+      <c r="MC67" s="33"/>
+      <c r="MD67" s="33"/>
+      <c r="ME67" s="33"/>
+      <c r="MF67" s="33"/>
+      <c r="MG67" s="33"/>
+      <c r="MH67" s="33"/>
+      <c r="MI67" s="33"/>
+      <c r="MJ67" s="33"/>
+      <c r="MK67" s="33"/>
+      <c r="ML67" s="33"/>
+      <c r="MM67" s="33"/>
+      <c r="MN67" s="33"/>
+      <c r="MO67" s="33"/>
+      <c r="MP67" s="33"/>
+      <c r="MQ67" s="33"/>
+      <c r="MR67" s="33"/>
+      <c r="MS67" s="33"/>
+      <c r="MT67" s="33"/>
+      <c r="MU67" s="33"/>
+      <c r="MV67" s="33"/>
+      <c r="MW67" s="33"/>
+      <c r="MX67" s="33"/>
+      <c r="MY67" s="33"/>
+      <c r="MZ67" s="33"/>
+      <c r="NA67" s="33"/>
+      <c r="NB67" s="33"/>
+      <c r="NC67" s="33"/>
+      <c r="ND67" s="33"/>
+      <c r="NE67" s="33"/>
+      <c r="NF67" s="33"/>
+      <c r="NG67" s="33"/>
+      <c r="NH67" s="33"/>
+      <c r="NI67" s="33"/>
+      <c r="NJ67" s="33"/>
+      <c r="NK67" s="33"/>
+      <c r="NL67" s="33"/>
+      <c r="NM67" s="33"/>
+      <c r="NN67" s="33"/>
+      <c r="NO67" s="33"/>
+      <c r="NP67" s="33"/>
+      <c r="NQ67" s="33"/>
+      <c r="NR67" s="33"/>
+      <c r="NS67" s="33"/>
+      <c r="NT67" s="33"/>
+      <c r="NU67" s="33"/>
+      <c r="NV67" s="33"/>
+      <c r="NW67" s="33"/>
+      <c r="NX67" s="33"/>
+      <c r="NY67" s="33"/>
+      <c r="NZ67" s="33"/>
+      <c r="OA67" s="33"/>
+      <c r="OB67" s="33"/>
+      <c r="OC67" s="33"/>
+      <c r="OD67" s="33"/>
+      <c r="OE67" s="33"/>
+      <c r="OF67" s="33"/>
+      <c r="OG67" s="33"/>
+      <c r="OH67" s="33"/>
+      <c r="OI67" s="33"/>
+      <c r="OJ67" s="33"/>
+      <c r="OK67" s="33"/>
+      <c r="OL67" s="33"/>
+      <c r="OM67" s="33"/>
+      <c r="ON67" s="33"/>
+      <c r="OO67" s="33"/>
+      <c r="OP67" s="33"/>
+      <c r="OQ67" s="33"/>
+      <c r="OR67" s="33"/>
+      <c r="OS67" s="33"/>
+      <c r="OT67" s="33"/>
+      <c r="OU67" s="33"/>
+      <c r="OV67" s="33"/>
+      <c r="OW67" s="33"/>
+      <c r="OX67" s="33"/>
+      <c r="OY67" s="33"/>
+      <c r="OZ67" s="33"/>
+      <c r="PA67" s="33"/>
+      <c r="PB67" s="33"/>
+      <c r="PC67" s="33"/>
+      <c r="PD67" s="33"/>
+      <c r="PE67" s="33"/>
+      <c r="PF67" s="33"/>
+      <c r="PG67" s="33"/>
+      <c r="PH67" s="33"/>
+      <c r="PI67" s="33"/>
+      <c r="PJ67" s="33"/>
+      <c r="PK67" s="33"/>
+      <c r="PL67" s="33"/>
+      <c r="PM67" s="33"/>
+      <c r="PN67" s="33"/>
+      <c r="PO67" s="33"/>
+      <c r="PP67" s="33"/>
+      <c r="PQ67" s="33"/>
+      <c r="PR67" s="33"/>
+      <c r="PS67" s="33"/>
+      <c r="PT67" s="33"/>
+      <c r="PU67" s="33"/>
+      <c r="PV67" s="33"/>
+      <c r="PW67" s="33"/>
+      <c r="PX67" s="33"/>
+      <c r="PY67" s="33"/>
+      <c r="PZ67" s="33"/>
+      <c r="QA67" s="33"/>
+      <c r="QB67" s="33"/>
+      <c r="QC67" s="33"/>
+      <c r="QD67" s="33"/>
+      <c r="QE67" s="33"/>
+      <c r="QF67" s="33"/>
+      <c r="QG67" s="33"/>
+      <c r="QH67" s="33"/>
+      <c r="QI67" s="33"/>
+      <c r="QJ67" s="33"/>
+      <c r="QK67" s="33"/>
+      <c r="QL67" s="33"/>
+      <c r="QM67" s="33"/>
+      <c r="QN67" s="33"/>
+      <c r="QO67" s="33"/>
+      <c r="QP67" s="33"/>
+      <c r="QQ67" s="33"/>
+      <c r="QR67" s="33"/>
+      <c r="QS67" s="33"/>
+      <c r="QT67" s="33"/>
+      <c r="QU67" s="33"/>
+      <c r="QV67" s="33"/>
+      <c r="QW67" s="33"/>
+      <c r="QX67" s="33"/>
+      <c r="QY67" s="33"/>
+      <c r="QZ67" s="33"/>
+      <c r="RA67" s="33"/>
+      <c r="RB67" s="33"/>
+      <c r="RC67" s="33"/>
+      <c r="RD67" s="33"/>
+      <c r="RE67" s="33"/>
+      <c r="RF67" s="33"/>
+      <c r="RG67" s="33"/>
+      <c r="RH67" s="33"/>
+      <c r="RI67" s="33"/>
+      <c r="RJ67" s="33"/>
+      <c r="RK67" s="33"/>
+      <c r="RL67" s="33"/>
+      <c r="RM67" s="33"/>
+      <c r="RN67" s="33"/>
+      <c r="RO67" s="33"/>
+      <c r="RP67" s="33"/>
+      <c r="RQ67" s="33"/>
+      <c r="RR67" s="33"/>
+      <c r="RS67" s="33"/>
+      <c r="RT67" s="33"/>
+      <c r="RU67" s="33"/>
+      <c r="RV67" s="33"/>
+      <c r="RW67" s="33"/>
+      <c r="RX67" s="33"/>
+      <c r="RY67" s="33"/>
+      <c r="RZ67" s="33"/>
+      <c r="SA67" s="33"/>
+      <c r="SB67" s="33"/>
+      <c r="SC67" s="33"/>
+      <c r="SD67" s="33"/>
+      <c r="SE67" s="33"/>
+      <c r="SF67" s="33"/>
+      <c r="SG67" s="33"/>
+      <c r="SH67" s="33"/>
+      <c r="SI67" s="33"/>
+      <c r="SJ67" s="33"/>
+      <c r="SK67" s="33"/>
+      <c r="SL67" s="33"/>
+      <c r="SM67" s="33"/>
+      <c r="SN67" s="33"/>
+      <c r="SO67" s="33"/>
+      <c r="SP67" s="33"/>
+      <c r="SQ67" s="33"/>
+      <c r="SR67" s="33"/>
+      <c r="SS67" s="33"/>
+      <c r="ST67" s="33"/>
+      <c r="SU67" s="33"/>
+      <c r="SV67" s="33"/>
+      <c r="SW67" s="33"/>
+      <c r="SX67" s="33"/>
+      <c r="SY67" s="33"/>
+      <c r="SZ67" s="33"/>
+      <c r="TA67" s="33"/>
+      <c r="TB67" s="33"/>
+      <c r="TC67" s="33"/>
+      <c r="TD67" s="33"/>
+      <c r="TE67" s="33"/>
+      <c r="TF67" s="33"/>
+      <c r="TG67" s="33"/>
+      <c r="TH67" s="33"/>
+      <c r="TI67" s="33"/>
+      <c r="TJ67" s="33"/>
+      <c r="TK67" s="33"/>
+      <c r="TL67" s="33"/>
+      <c r="TM67" s="33"/>
+      <c r="TN67" s="33"/>
+      <c r="TO67" s="33"/>
+      <c r="TP67" s="33"/>
+      <c r="TQ67" s="33"/>
+      <c r="TR67" s="33"/>
+      <c r="TS67" s="33"/>
+      <c r="TT67" s="33"/>
+      <c r="TU67" s="33"/>
+      <c r="TV67" s="33"/>
+      <c r="TW67" s="33"/>
+      <c r="TX67" s="33"/>
+      <c r="TY67" s="33"/>
+      <c r="TZ67" s="33"/>
+      <c r="UA67" s="33"/>
+      <c r="UB67" s="33"/>
+      <c r="UC67" s="33"/>
+      <c r="UD67" s="33"/>
+      <c r="UE67" s="33"/>
+      <c r="UF67" s="33"/>
+      <c r="UG67" s="33"/>
+      <c r="UH67" s="33"/>
+      <c r="UI67" s="33"/>
+      <c r="UJ67" s="33"/>
+      <c r="UK67" s="33"/>
+      <c r="UL67" s="33"/>
+      <c r="UM67" s="33"/>
+      <c r="UN67" s="33"/>
+      <c r="UO67" s="33"/>
+      <c r="UP67" s="33"/>
+      <c r="UQ67" s="33"/>
+      <c r="UR67" s="33"/>
+      <c r="US67" s="33"/>
+      <c r="UT67" s="33"/>
+      <c r="UU67" s="33"/>
+      <c r="UV67" s="33"/>
+      <c r="UW67" s="33"/>
+      <c r="UX67" s="33"/>
+      <c r="UY67" s="33"/>
+      <c r="UZ67" s="33"/>
+      <c r="VA67" s="33"/>
+      <c r="VB67" s="33"/>
+      <c r="VC67" s="33"/>
+      <c r="VD67" s="33"/>
+      <c r="VE67" s="33"/>
+      <c r="VF67" s="33"/>
+      <c r="VG67" s="33"/>
+      <c r="VH67" s="33"/>
+      <c r="VI67" s="33"/>
+      <c r="VJ67" s="33"/>
+      <c r="VK67" s="33"/>
+      <c r="VL67" s="33"/>
+      <c r="VM67" s="33"/>
+      <c r="VN67" s="33"/>
+      <c r="VO67" s="33"/>
+      <c r="VP67" s="33"/>
+      <c r="VQ67" s="33"/>
+      <c r="VR67" s="33"/>
+      <c r="VS67" s="33"/>
+      <c r="VT67" s="33"/>
+      <c r="VU67" s="33"/>
+      <c r="VV67" s="33"/>
+      <c r="VW67" s="33"/>
+      <c r="VX67" s="33"/>
+      <c r="VY67" s="33"/>
+      <c r="VZ67" s="33"/>
+      <c r="WA67" s="33"/>
+      <c r="WB67" s="33"/>
+      <c r="WC67" s="33"/>
+      <c r="WD67" s="33"/>
+      <c r="WE67" s="33"/>
+      <c r="WF67" s="33"/>
+      <c r="WG67" s="33"/>
+      <c r="WH67" s="33"/>
+      <c r="WI67" s="33"/>
+      <c r="WJ67" s="33"/>
+      <c r="WK67" s="33"/>
+      <c r="WL67" s="33"/>
+      <c r="WM67" s="33"/>
+      <c r="WN67" s="33"/>
+      <c r="WO67" s="33"/>
+      <c r="WP67" s="33"/>
+      <c r="WQ67" s="33"/>
+      <c r="WR67" s="33"/>
+      <c r="WS67" s="33"/>
+      <c r="WT67" s="33"/>
+      <c r="WU67" s="33"/>
+      <c r="WV67" s="33"/>
+      <c r="WW67" s="33"/>
+      <c r="WX67" s="33"/>
+      <c r="WY67" s="33"/>
+      <c r="WZ67" s="33"/>
+      <c r="XA67" s="33"/>
+      <c r="XB67" s="33"/>
+      <c r="XC67" s="33"/>
+      <c r="XD67" s="33"/>
+      <c r="XE67" s="33"/>
+      <c r="XF67" s="33"/>
+      <c r="XG67" s="33"/>
+      <c r="XH67" s="33"/>
+      <c r="XI67" s="33"/>
+      <c r="XJ67" s="33"/>
+      <c r="XK67" s="33"/>
+      <c r="XL67" s="33"/>
+      <c r="XM67" s="33"/>
+      <c r="XN67" s="33"/>
+      <c r="XO67" s="33"/>
+      <c r="XP67" s="33"/>
+      <c r="XQ67" s="33"/>
+      <c r="XR67" s="33"/>
+      <c r="XS67" s="33"/>
+      <c r="XT67" s="33"/>
+      <c r="XU67" s="33"/>
+      <c r="XV67" s="33"/>
+      <c r="XW67" s="33"/>
+      <c r="XX67" s="33"/>
+      <c r="XY67" s="33"/>
+      <c r="XZ67" s="33"/>
+      <c r="YA67" s="33"/>
+      <c r="YB67" s="33"/>
+      <c r="YC67" s="33"/>
+      <c r="YD67" s="33"/>
+      <c r="YE67" s="33"/>
+      <c r="YF67" s="33"/>
+      <c r="YG67" s="33"/>
+      <c r="YH67" s="33"/>
+      <c r="YI67" s="33"/>
+      <c r="YJ67" s="33"/>
+      <c r="YK67" s="33"/>
+      <c r="YL67" s="33"/>
+      <c r="YM67" s="33"/>
+      <c r="YN67" s="33"/>
+      <c r="YO67" s="33"/>
+      <c r="YP67" s="33"/>
+      <c r="YQ67" s="33"/>
+      <c r="YR67" s="33"/>
+      <c r="YS67" s="33"/>
+      <c r="YT67" s="33"/>
+      <c r="YU67" s="33"/>
+      <c r="YV67" s="33"/>
+      <c r="YW67" s="33"/>
+      <c r="YX67" s="33"/>
+      <c r="YY67" s="33"/>
+      <c r="YZ67" s="33"/>
+      <c r="ZA67" s="33"/>
+      <c r="ZB67" s="33"/>
+      <c r="ZC67" s="33"/>
+      <c r="ZD67" s="33"/>
+      <c r="ZE67" s="33"/>
+      <c r="ZF67" s="33"/>
+      <c r="ZG67" s="33"/>
+      <c r="ZH67" s="33"/>
+      <c r="ZI67" s="33"/>
+      <c r="ZJ67" s="33"/>
+      <c r="ZK67" s="33"/>
+      <c r="ZL67" s="33"/>
+      <c r="ZM67" s="33"/>
+      <c r="ZN67" s="33"/>
+      <c r="ZO67" s="33"/>
+      <c r="ZP67" s="33"/>
+      <c r="ZQ67" s="33"/>
+      <c r="ZR67" s="33"/>
+      <c r="ZS67" s="33"/>
+      <c r="ZT67" s="33"/>
+      <c r="ZU67" s="33"/>
+      <c r="ZV67" s="33"/>
+      <c r="ZW67" s="33"/>
+      <c r="ZX67" s="33"/>
+      <c r="ZY67" s="33"/>
+      <c r="ZZ67" s="33"/>
+      <c r="AAA67" s="33"/>
+      <c r="AAB67" s="33"/>
+      <c r="AAC67" s="33"/>
+      <c r="AAD67" s="33"/>
+      <c r="AAE67" s="33"/>
+      <c r="AAF67" s="33"/>
+      <c r="AAG67" s="33"/>
+      <c r="AAH67" s="33"/>
+      <c r="AAI67" s="33"/>
+      <c r="AAJ67" s="33"/>
+      <c r="AAK67" s="33"/>
+      <c r="AAL67" s="33"/>
+      <c r="AAM67" s="33"/>
+      <c r="AAN67" s="33"/>
+      <c r="AAO67" s="33"/>
+      <c r="AAP67" s="33"/>
+      <c r="AAQ67" s="33"/>
+      <c r="AAR67" s="33"/>
+      <c r="AAS67" s="33"/>
+      <c r="AAT67" s="33"/>
+      <c r="AAU67" s="33"/>
+      <c r="AAV67" s="33"/>
+      <c r="AAW67" s="33"/>
+      <c r="AAX67" s="33"/>
+      <c r="AAY67" s="33"/>
+      <c r="AAZ67" s="33"/>
+      <c r="ABA67" s="33"/>
+      <c r="ABB67" s="33"/>
+      <c r="ABC67" s="33"/>
+      <c r="ABD67" s="33"/>
+      <c r="ABE67" s="33"/>
+      <c r="ABF67" s="33"/>
+      <c r="ABG67" s="33"/>
+      <c r="ABH67" s="33"/>
+      <c r="ABI67" s="33"/>
+      <c r="ABJ67" s="33"/>
+      <c r="ABK67" s="33"/>
+      <c r="ABL67" s="33"/>
+      <c r="ABM67" s="33"/>
+      <c r="ABN67" s="33"/>
+      <c r="ABO67" s="33"/>
+      <c r="ABP67" s="33"/>
+      <c r="ABQ67" s="33"/>
+      <c r="ABR67" s="33"/>
+      <c r="ABS67" s="33"/>
+      <c r="ABT67" s="33"/>
+      <c r="ABU67" s="33"/>
+      <c r="ABV67" s="33"/>
+      <c r="ABW67" s="33"/>
+      <c r="ABX67" s="33"/>
+      <c r="ABY67" s="33"/>
+      <c r="ABZ67" s="33"/>
+      <c r="ACA67" s="33"/>
+      <c r="ACB67" s="33"/>
+      <c r="ACC67" s="33"/>
+      <c r="ACD67" s="33"/>
+      <c r="ACE67" s="33"/>
+      <c r="ACF67" s="33"/>
+      <c r="ACG67" s="33"/>
+      <c r="ACH67" s="33"/>
+      <c r="ACI67" s="33"/>
+      <c r="ACJ67" s="33"/>
+      <c r="ACK67" s="33"/>
+      <c r="ACL67" s="33"/>
+      <c r="ACM67" s="33"/>
+      <c r="ACN67" s="33"/>
+      <c r="ACO67" s="33"/>
+      <c r="ACP67" s="33"/>
+      <c r="ACQ67" s="33"/>
+      <c r="ACR67" s="33"/>
+      <c r="ACS67" s="33"/>
+      <c r="ACT67" s="33"/>
+      <c r="ACU67" s="33"/>
+      <c r="ACV67" s="33"/>
+      <c r="ACW67" s="33"/>
+      <c r="ACX67" s="33"/>
+      <c r="ACY67" s="33"/>
+      <c r="ACZ67" s="33"/>
+      <c r="ADA67" s="33"/>
+      <c r="ADB67" s="33"/>
+      <c r="ADC67" s="33"/>
+      <c r="ADD67" s="33"/>
+      <c r="ADE67" s="33"/>
+      <c r="ADF67" s="33"/>
+      <c r="ADG67" s="33"/>
+      <c r="ADH67" s="33"/>
+      <c r="ADI67" s="33"/>
+      <c r="ADJ67" s="33"/>
+      <c r="ADK67" s="33"/>
+      <c r="ADL67" s="33"/>
+      <c r="ADM67" s="33"/>
+      <c r="ADN67" s="33"/>
+      <c r="ADO67" s="33"/>
+      <c r="ADP67" s="33"/>
+      <c r="ADQ67" s="33"/>
+      <c r="ADR67" s="33"/>
+      <c r="ADS67" s="33"/>
+      <c r="ADT67" s="33"/>
+      <c r="ADU67" s="33"/>
+      <c r="ADV67" s="33"/>
+      <c r="ADW67" s="33"/>
+      <c r="ADX67" s="33"/>
+      <c r="ADY67" s="33"/>
+      <c r="ADZ67" s="33"/>
+      <c r="AEA67" s="33"/>
+      <c r="AEB67" s="33"/>
+      <c r="AEC67" s="33"/>
+      <c r="AED67" s="33"/>
+      <c r="AEE67" s="33"/>
+      <c r="AEF67" s="33"/>
+      <c r="AEG67" s="33"/>
+      <c r="AEH67" s="33"/>
+      <c r="AEI67" s="33"/>
+      <c r="AEJ67" s="33"/>
+      <c r="AEK67" s="33"/>
+      <c r="AEL67" s="33"/>
+      <c r="AEM67" s="33"/>
+      <c r="AEN67" s="33"/>
+      <c r="AEO67" s="33"/>
+      <c r="AEP67" s="33"/>
+      <c r="AEQ67" s="33"/>
+      <c r="AER67" s="33"/>
+      <c r="AES67" s="33"/>
+      <c r="AET67" s="33"/>
+      <c r="AEU67" s="33"/>
+      <c r="AEV67" s="33"/>
+      <c r="AEW67" s="33"/>
+      <c r="AEX67" s="33"/>
+      <c r="AEY67" s="33"/>
+      <c r="AEZ67" s="33"/>
+      <c r="AFA67" s="33"/>
+      <c r="AFB67" s="33"/>
+      <c r="AFC67" s="33"/>
+      <c r="AFD67" s="33"/>
+      <c r="AFE67" s="33"/>
+      <c r="AFF67" s="33"/>
+      <c r="AFG67" s="33"/>
+      <c r="AFH67" s="33"/>
+      <c r="AFI67" s="33"/>
+      <c r="AFJ67" s="33"/>
+      <c r="AFK67" s="33"/>
+      <c r="AFL67" s="33"/>
+      <c r="AFM67" s="33"/>
+      <c r="AFN67" s="33"/>
+      <c r="AFO67" s="33"/>
+      <c r="AFP67" s="33"/>
+      <c r="AFQ67" s="33"/>
+      <c r="AFR67" s="33"/>
+      <c r="AFS67" s="33"/>
+      <c r="AFT67" s="33"/>
+      <c r="AFU67" s="33"/>
+      <c r="AFV67" s="33"/>
+      <c r="AFW67" s="33"/>
+      <c r="AFX67" s="33"/>
+      <c r="AFY67" s="33"/>
+      <c r="AFZ67" s="33"/>
+      <c r="AGA67" s="33"/>
+      <c r="AGB67" s="33"/>
+      <c r="AGC67" s="33"/>
+      <c r="AGD67" s="33"/>
+      <c r="AGE67" s="33"/>
+      <c r="AGF67" s="33"/>
+      <c r="AGG67" s="33"/>
+      <c r="AGH67" s="33"/>
+      <c r="AGI67" s="33"/>
+      <c r="AGJ67" s="33"/>
+      <c r="AGK67" s="33"/>
+      <c r="AGL67" s="33"/>
+      <c r="AGM67" s="33"/>
+      <c r="AGN67" s="33"/>
+      <c r="AGO67" s="33"/>
+      <c r="AGP67" s="33"/>
+      <c r="AGQ67" s="33"/>
+      <c r="AGR67" s="33"/>
+      <c r="AGS67" s="33"/>
+      <c r="AGT67" s="33"/>
+      <c r="AGU67" s="33"/>
+      <c r="AGV67" s="33"/>
+      <c r="AGW67" s="33"/>
+      <c r="AGX67" s="33"/>
+      <c r="AGY67" s="33"/>
+      <c r="AGZ67" s="33"/>
+      <c r="AHA67" s="33"/>
+      <c r="AHB67" s="33"/>
+      <c r="AHC67" s="33"/>
+      <c r="AHD67" s="33"/>
+      <c r="AHE67" s="33"/>
+      <c r="AHF67" s="33"/>
+      <c r="AHG67" s="33"/>
+      <c r="AHH67" s="33"/>
+      <c r="AHI67" s="33"/>
+      <c r="AHJ67" s="33"/>
+      <c r="AHK67" s="33"/>
+      <c r="AHL67" s="33"/>
+      <c r="AHM67" s="33"/>
+      <c r="AHN67" s="33"/>
+      <c r="AHO67" s="33"/>
+      <c r="AHP67" s="33"/>
+      <c r="AHQ67" s="33"/>
+      <c r="AHR67" s="33"/>
+      <c r="AHS67" s="33"/>
+      <c r="AHT67" s="33"/>
+      <c r="AHU67" s="33"/>
+      <c r="AHV67" s="33"/>
+      <c r="AHW67" s="33"/>
+      <c r="AHX67" s="33"/>
+      <c r="AHY67" s="33"/>
+      <c r="AHZ67" s="33"/>
+      <c r="AIA67" s="33"/>
+      <c r="AIB67" s="33"/>
+      <c r="AIC67" s="33"/>
+      <c r="AID67" s="33"/>
+      <c r="AIE67" s="33"/>
+      <c r="AIF67" s="33"/>
+      <c r="AIG67" s="33"/>
+      <c r="AIH67" s="33"/>
+      <c r="AII67" s="33"/>
+      <c r="AIJ67" s="33"/>
+      <c r="AIK67" s="33"/>
+      <c r="AIL67" s="33"/>
+      <c r="AIM67" s="33"/>
+      <c r="AIN67" s="33"/>
+      <c r="AIO67" s="33"/>
+      <c r="AIP67" s="33"/>
+      <c r="AIQ67" s="33"/>
+      <c r="AIR67" s="33"/>
+      <c r="AIS67" s="33"/>
+      <c r="AIT67" s="33"/>
+      <c r="AIU67" s="33"/>
+      <c r="AIV67" s="33"/>
+      <c r="AIW67" s="33"/>
+      <c r="AIX67" s="33"/>
+      <c r="AIY67" s="33"/>
+      <c r="AIZ67" s="33"/>
+      <c r="AJA67" s="33"/>
+      <c r="AJB67" s="33"/>
+      <c r="AJC67" s="33"/>
+      <c r="AJD67" s="33"/>
+      <c r="AJE67" s="33"/>
+      <c r="AJF67" s="33"/>
+      <c r="AJG67" s="33"/>
+      <c r="AJH67" s="33"/>
+      <c r="AJI67" s="33"/>
+      <c r="AJJ67" s="33"/>
+      <c r="AJK67" s="33"/>
+      <c r="AJL67" s="33"/>
+      <c r="AJM67" s="33"/>
+      <c r="AJN67" s="33"/>
+      <c r="AJO67" s="33"/>
+      <c r="AJP67" s="33"/>
+      <c r="AJQ67" s="33"/>
+      <c r="AJR67" s="33"/>
+      <c r="AJS67" s="33"/>
+      <c r="AJT67" s="33"/>
+      <c r="AJU67" s="33"/>
+      <c r="AJV67" s="33"/>
+      <c r="AJW67" s="33"/>
+      <c r="AJX67" s="33"/>
+      <c r="AJY67" s="33"/>
+      <c r="AJZ67" s="33"/>
+      <c r="AKA67" s="33"/>
+      <c r="AKB67" s="33"/>
+      <c r="AKC67" s="33"/>
+      <c r="AKD67" s="33"/>
+      <c r="AKE67" s="33"/>
+      <c r="AKF67" s="33"/>
+      <c r="AKG67" s="33"/>
+      <c r="AKH67" s="33"/>
+      <c r="AKI67" s="33"/>
+      <c r="AKJ67" s="33"/>
+      <c r="AKK67" s="33"/>
+      <c r="AKL67" s="33"/>
+      <c r="AKM67" s="33"/>
+      <c r="AKN67" s="33"/>
+      <c r="AKO67" s="33"/>
+      <c r="AKP67" s="33"/>
+      <c r="AKQ67" s="33"/>
+      <c r="AKR67" s="33"/>
+      <c r="AKS67" s="33"/>
+      <c r="AKT67" s="33"/>
+      <c r="AKU67" s="33"/>
+      <c r="AKV67" s="33"/>
+      <c r="AKW67" s="33"/>
+      <c r="AKX67" s="33"/>
+      <c r="AKY67" s="33"/>
+      <c r="AKZ67" s="33"/>
+      <c r="ALA67" s="33"/>
+      <c r="ALB67" s="33"/>
+      <c r="ALC67" s="33"/>
+      <c r="ALD67" s="33"/>
+      <c r="ALE67" s="33"/>
+      <c r="ALF67" s="33"/>
+      <c r="ALG67" s="33"/>
+      <c r="ALH67" s="33"/>
+      <c r="ALI67" s="33"/>
+      <c r="ALJ67" s="33"/>
+      <c r="ALK67" s="33"/>
+      <c r="ALL67" s="33"/>
+      <c r="ALM67" s="33"/>
+      <c r="ALN67" s="33"/>
+      <c r="ALO67" s="33"/>
+      <c r="ALP67" s="33"/>
+      <c r="ALQ67" s="33"/>
+      <c r="ALR67" s="33"/>
+      <c r="ALS67" s="33"/>
+      <c r="ALT67" s="33"/>
+      <c r="ALU67" s="33"/>
+      <c r="ALV67" s="33"/>
+      <c r="ALW67" s="33"/>
+      <c r="ALX67" s="33"/>
+      <c r="ALY67" s="33"/>
+      <c r="ALZ67" s="33"/>
+      <c r="AMA67" s="33"/>
+      <c r="AMB67" s="33"/>
+      <c r="AMC67" s="33"/>
+      <c r="AMD67" s="33"/>
+      <c r="AME67" s="33"/>
+      <c r="AMF67" s="33"/>
+      <c r="AMG67" s="33"/>
+      <c r="AMH67" s="33"/>
+      <c r="AMI67" s="33"/>
+      <c r="AMJ67" s="33"/>
+      <c r="AMK67" s="33"/>
+    </row>
+    <row r="68" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="33">
+        <v>7</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="33"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="33"/>
+      <c r="AG68" s="33"/>
+      <c r="AH68" s="33"/>
+      <c r="AI68" s="33"/>
+      <c r="AJ68" s="33"/>
+      <c r="AK68" s="33"/>
+      <c r="AL68" s="33"/>
+      <c r="AM68" s="33"/>
+      <c r="AN68" s="33"/>
+      <c r="AO68" s="33"/>
+      <c r="AP68" s="33"/>
+      <c r="AQ68" s="33"/>
+      <c r="AR68" s="33"/>
+      <c r="AS68" s="33"/>
+      <c r="AT68" s="33"/>
+      <c r="AU68" s="33"/>
+      <c r="AV68" s="33"/>
+      <c r="AW68" s="33"/>
+      <c r="AX68" s="33"/>
+      <c r="AY68" s="33"/>
+      <c r="AZ68" s="33"/>
+      <c r="BA68" s="33"/>
+      <c r="BB68" s="33"/>
+      <c r="BC68" s="33"/>
+      <c r="BD68" s="33"/>
+      <c r="BE68" s="33"/>
+      <c r="BF68" s="33"/>
+      <c r="BG68" s="33"/>
+      <c r="BH68" s="33"/>
+      <c r="BI68" s="33"/>
+      <c r="BJ68" s="33"/>
+      <c r="BK68" s="33"/>
+      <c r="BL68" s="33"/>
+      <c r="BM68" s="33"/>
+      <c r="BN68" s="33"/>
+      <c r="BO68" s="33"/>
+      <c r="BP68" s="33"/>
+      <c r="BQ68" s="33"/>
+      <c r="BR68" s="33"/>
+      <c r="BS68" s="33"/>
+      <c r="BT68" s="33"/>
+      <c r="BU68" s="33"/>
+      <c r="BV68" s="33"/>
+      <c r="BW68" s="33"/>
+      <c r="BX68" s="33"/>
+      <c r="BY68" s="33"/>
+      <c r="BZ68" s="33"/>
+      <c r="CA68" s="33"/>
+      <c r="CB68" s="33"/>
+      <c r="CC68" s="33"/>
+      <c r="CD68" s="33"/>
+      <c r="CE68" s="33"/>
+      <c r="CF68" s="33"/>
+      <c r="CG68" s="33"/>
+      <c r="CH68" s="33"/>
+      <c r="CI68" s="33"/>
+      <c r="CJ68" s="33"/>
+      <c r="CK68" s="33"/>
+      <c r="CL68" s="33"/>
+      <c r="CM68" s="33"/>
+      <c r="CN68" s="33"/>
+      <c r="CO68" s="33"/>
+      <c r="CP68" s="33"/>
+      <c r="CQ68" s="33"/>
+      <c r="CR68" s="33"/>
+      <c r="CS68" s="33"/>
+      <c r="CT68" s="33"/>
+      <c r="CU68" s="33"/>
+      <c r="CV68" s="33"/>
+      <c r="CW68" s="33"/>
+      <c r="CX68" s="33"/>
+      <c r="CY68" s="33"/>
+      <c r="CZ68" s="33"/>
+      <c r="DA68" s="33"/>
+      <c r="DB68" s="33"/>
+      <c r="DC68" s="33"/>
+      <c r="DD68" s="33"/>
+      <c r="DE68" s="33"/>
+      <c r="DF68" s="33"/>
+      <c r="DG68" s="33"/>
+      <c r="DH68" s="33"/>
+      <c r="DI68" s="33"/>
+      <c r="DJ68" s="33"/>
+      <c r="DK68" s="33"/>
+      <c r="DL68" s="33"/>
+      <c r="DM68" s="33"/>
+      <c r="DN68" s="33"/>
+      <c r="DO68" s="33"/>
+      <c r="DP68" s="33"/>
+      <c r="DQ68" s="33"/>
+      <c r="DR68" s="33"/>
+      <c r="DS68" s="33"/>
+      <c r="DT68" s="33"/>
+      <c r="DU68" s="33"/>
+      <c r="DV68" s="33"/>
+      <c r="DW68" s="33"/>
+      <c r="DX68" s="33"/>
+      <c r="DY68" s="33"/>
+      <c r="DZ68" s="33"/>
+      <c r="EA68" s="33"/>
+      <c r="EB68" s="33"/>
+      <c r="EC68" s="33"/>
+      <c r="ED68" s="33"/>
+      <c r="EE68" s="33"/>
+      <c r="EF68" s="33"/>
+      <c r="EG68" s="33"/>
+      <c r="EH68" s="33"/>
+      <c r="EI68" s="33"/>
+      <c r="EJ68" s="33"/>
+      <c r="EK68" s="33"/>
+      <c r="EL68" s="33"/>
+      <c r="EM68" s="33"/>
+      <c r="EN68" s="33"/>
+      <c r="EO68" s="33"/>
+      <c r="EP68" s="33"/>
+      <c r="EQ68" s="33"/>
+      <c r="ER68" s="33"/>
+      <c r="ES68" s="33"/>
+      <c r="ET68" s="33"/>
+      <c r="EU68" s="33"/>
+      <c r="EV68" s="33"/>
+      <c r="EW68" s="33"/>
+      <c r="EX68" s="33"/>
+      <c r="EY68" s="33"/>
+      <c r="EZ68" s="33"/>
+      <c r="FA68" s="33"/>
+      <c r="FB68" s="33"/>
+      <c r="FC68" s="33"/>
+      <c r="FD68" s="33"/>
+      <c r="FE68" s="33"/>
+      <c r="FF68" s="33"/>
+      <c r="FG68" s="33"/>
+      <c r="FH68" s="33"/>
+      <c r="FI68" s="33"/>
+      <c r="FJ68" s="33"/>
+      <c r="FK68" s="33"/>
+      <c r="FL68" s="33"/>
+      <c r="FM68" s="33"/>
+      <c r="FN68" s="33"/>
+      <c r="FO68" s="33"/>
+      <c r="FP68" s="33"/>
+      <c r="FQ68" s="33"/>
+      <c r="FR68" s="33"/>
+      <c r="FS68" s="33"/>
+      <c r="FT68" s="33"/>
+      <c r="FU68" s="33"/>
+      <c r="FV68" s="33"/>
+      <c r="FW68" s="33"/>
+      <c r="FX68" s="33"/>
+      <c r="FY68" s="33"/>
+      <c r="FZ68" s="33"/>
+      <c r="GA68" s="33"/>
+      <c r="GB68" s="33"/>
+      <c r="GC68" s="33"/>
+      <c r="GD68" s="33"/>
+      <c r="GE68" s="33"/>
+      <c r="GF68" s="33"/>
+      <c r="GG68" s="33"/>
+      <c r="GH68" s="33"/>
+      <c r="GI68" s="33"/>
+      <c r="GJ68" s="33"/>
+      <c r="GK68" s="33"/>
+      <c r="GL68" s="33"/>
+      <c r="GM68" s="33"/>
+      <c r="GN68" s="33"/>
+      <c r="GO68" s="33"/>
+      <c r="GP68" s="33"/>
+      <c r="GQ68" s="33"/>
+      <c r="GR68" s="33"/>
+      <c r="GS68" s="33"/>
+      <c r="GT68" s="33"/>
+      <c r="GU68" s="33"/>
+      <c r="GV68" s="33"/>
+      <c r="GW68" s="33"/>
+      <c r="GX68" s="33"/>
+      <c r="GY68" s="33"/>
+      <c r="GZ68" s="33"/>
+      <c r="HA68" s="33"/>
+      <c r="HB68" s="33"/>
+      <c r="HC68" s="33"/>
+      <c r="HD68" s="33"/>
+      <c r="HE68" s="33"/>
+      <c r="HF68" s="33"/>
+      <c r="HG68" s="33"/>
+      <c r="HH68" s="33"/>
+      <c r="HI68" s="33"/>
+      <c r="HJ68" s="33"/>
+      <c r="HK68" s="33"/>
+      <c r="HL68" s="33"/>
+      <c r="HM68" s="33"/>
+      <c r="HN68" s="33"/>
+      <c r="HO68" s="33"/>
+      <c r="HP68" s="33"/>
+      <c r="HQ68" s="33"/>
+      <c r="HR68" s="33"/>
+      <c r="HS68" s="33"/>
+      <c r="HT68" s="33"/>
+      <c r="HU68" s="33"/>
+      <c r="HV68" s="33"/>
+      <c r="HW68" s="33"/>
+      <c r="HX68" s="33"/>
+      <c r="HY68" s="33"/>
+      <c r="HZ68" s="33"/>
+      <c r="IA68" s="33"/>
+      <c r="IB68" s="33"/>
+      <c r="IC68" s="33"/>
+      <c r="ID68" s="33"/>
+      <c r="IE68" s="33"/>
+      <c r="IF68" s="33"/>
+      <c r="IG68" s="33"/>
+      <c r="IH68" s="33"/>
+      <c r="II68" s="33"/>
+      <c r="IJ68" s="33"/>
+      <c r="IK68" s="33"/>
+      <c r="IL68" s="33"/>
+      <c r="IM68" s="33"/>
+      <c r="IN68" s="33"/>
+      <c r="IO68" s="33"/>
+      <c r="IP68" s="33"/>
+      <c r="IQ68" s="33"/>
+      <c r="IR68" s="33"/>
+      <c r="IS68" s="33"/>
+      <c r="IT68" s="33"/>
+      <c r="IU68" s="33"/>
+      <c r="IV68" s="33"/>
+      <c r="IW68" s="33"/>
+      <c r="IX68" s="33"/>
+      <c r="IY68" s="33"/>
+      <c r="IZ68" s="33"/>
+      <c r="JA68" s="33"/>
+      <c r="JB68" s="33"/>
+      <c r="JC68" s="33"/>
+      <c r="JD68" s="33"/>
+      <c r="JE68" s="33"/>
+      <c r="JF68" s="33"/>
+      <c r="JG68" s="33"/>
+      <c r="JH68" s="33"/>
+      <c r="JI68" s="33"/>
+      <c r="JJ68" s="33"/>
+      <c r="JK68" s="33"/>
+      <c r="JL68" s="33"/>
+      <c r="JM68" s="33"/>
+      <c r="JN68" s="33"/>
+      <c r="JO68" s="33"/>
+      <c r="JP68" s="33"/>
+      <c r="JQ68" s="33"/>
+      <c r="JR68" s="33"/>
+      <c r="JS68" s="33"/>
+      <c r="JT68" s="33"/>
+      <c r="JU68" s="33"/>
+      <c r="JV68" s="33"/>
+      <c r="JW68" s="33"/>
+      <c r="JX68" s="33"/>
+      <c r="JY68" s="33"/>
+      <c r="JZ68" s="33"/>
+      <c r="KA68" s="33"/>
+      <c r="KB68" s="33"/>
+      <c r="KC68" s="33"/>
+      <c r="KD68" s="33"/>
+      <c r="KE68" s="33"/>
+      <c r="KF68" s="33"/>
+      <c r="KG68" s="33"/>
+      <c r="KH68" s="33"/>
+      <c r="KI68" s="33"/>
+      <c r="KJ68" s="33"/>
+      <c r="KK68" s="33"/>
+      <c r="KL68" s="33"/>
+      <c r="KM68" s="33"/>
+      <c r="KN68" s="33"/>
+      <c r="KO68" s="33"/>
+      <c r="KP68" s="33"/>
+      <c r="KQ68" s="33"/>
+      <c r="KR68" s="33"/>
+      <c r="KS68" s="33"/>
+      <c r="KT68" s="33"/>
+      <c r="KU68" s="33"/>
+      <c r="KV68" s="33"/>
+      <c r="KW68" s="33"/>
+      <c r="KX68" s="33"/>
+      <c r="KY68" s="33"/>
+      <c r="KZ68" s="33"/>
+      <c r="LA68" s="33"/>
+      <c r="LB68" s="33"/>
+      <c r="LC68" s="33"/>
+      <c r="LD68" s="33"/>
+      <c r="LE68" s="33"/>
+      <c r="LF68" s="33"/>
+      <c r="LG68" s="33"/>
+      <c r="LH68" s="33"/>
+      <c r="LI68" s="33"/>
+      <c r="LJ68" s="33"/>
+      <c r="LK68" s="33"/>
+      <c r="LL68" s="33"/>
+      <c r="LM68" s="33"/>
+      <c r="LN68" s="33"/>
+      <c r="LO68" s="33"/>
+      <c r="LP68" s="33"/>
+      <c r="LQ68" s="33"/>
+      <c r="LR68" s="33"/>
+      <c r="LS68" s="33"/>
+      <c r="LT68" s="33"/>
+      <c r="LU68" s="33"/>
+      <c r="LV68" s="33"/>
+      <c r="LW68" s="33"/>
+      <c r="LX68" s="33"/>
+      <c r="LY68" s="33"/>
+      <c r="LZ68" s="33"/>
+      <c r="MA68" s="33"/>
+      <c r="MB68" s="33"/>
+      <c r="MC68" s="33"/>
+      <c r="MD68" s="33"/>
+      <c r="ME68" s="33"/>
+      <c r="MF68" s="33"/>
+      <c r="MG68" s="33"/>
+      <c r="MH68" s="33"/>
+      <c r="MI68" s="33"/>
+      <c r="MJ68" s="33"/>
+      <c r="MK68" s="33"/>
+      <c r="ML68" s="33"/>
+      <c r="MM68" s="33"/>
+      <c r="MN68" s="33"/>
+      <c r="MO68" s="33"/>
+      <c r="MP68" s="33"/>
+      <c r="MQ68" s="33"/>
+      <c r="MR68" s="33"/>
+      <c r="MS68" s="33"/>
+      <c r="MT68" s="33"/>
+      <c r="MU68" s="33"/>
+      <c r="MV68" s="33"/>
+      <c r="MW68" s="33"/>
+      <c r="MX68" s="33"/>
+      <c r="MY68" s="33"/>
+      <c r="MZ68" s="33"/>
+      <c r="NA68" s="33"/>
+      <c r="NB68" s="33"/>
+      <c r="NC68" s="33"/>
+      <c r="ND68" s="33"/>
+      <c r="NE68" s="33"/>
+      <c r="NF68" s="33"/>
+      <c r="NG68" s="33"/>
+      <c r="NH68" s="33"/>
+      <c r="NI68" s="33"/>
+      <c r="NJ68" s="33"/>
+      <c r="NK68" s="33"/>
+      <c r="NL68" s="33"/>
+      <c r="NM68" s="33"/>
+      <c r="NN68" s="33"/>
+      <c r="NO68" s="33"/>
+      <c r="NP68" s="33"/>
+      <c r="NQ68" s="33"/>
+      <c r="NR68" s="33"/>
+      <c r="NS68" s="33"/>
+      <c r="NT68" s="33"/>
+      <c r="NU68" s="33"/>
+      <c r="NV68" s="33"/>
+      <c r="NW68" s="33"/>
+      <c r="NX68" s="33"/>
+      <c r="NY68" s="33"/>
+      <c r="NZ68" s="33"/>
+      <c r="OA68" s="33"/>
+      <c r="OB68" s="33"/>
+      <c r="OC68" s="33"/>
+      <c r="OD68" s="33"/>
+      <c r="OE68" s="33"/>
+      <c r="OF68" s="33"/>
+      <c r="OG68" s="33"/>
+      <c r="OH68" s="33"/>
+      <c r="OI68" s="33"/>
+      <c r="OJ68" s="33"/>
+      <c r="OK68" s="33"/>
+      <c r="OL68" s="33"/>
+      <c r="OM68" s="33"/>
+      <c r="ON68" s="33"/>
+      <c r="OO68" s="33"/>
+      <c r="OP68" s="33"/>
+      <c r="OQ68" s="33"/>
+      <c r="OR68" s="33"/>
+      <c r="OS68" s="33"/>
+      <c r="OT68" s="33"/>
+      <c r="OU68" s="33"/>
+      <c r="OV68" s="33"/>
+      <c r="OW68" s="33"/>
+      <c r="OX68" s="33"/>
+      <c r="OY68" s="33"/>
+      <c r="OZ68" s="33"/>
+      <c r="PA68" s="33"/>
+      <c r="PB68" s="33"/>
+      <c r="PC68" s="33"/>
+      <c r="PD68" s="33"/>
+      <c r="PE68" s="33"/>
+      <c r="PF68" s="33"/>
+      <c r="PG68" s="33"/>
+      <c r="PH68" s="33"/>
+      <c r="PI68" s="33"/>
+      <c r="PJ68" s="33"/>
+      <c r="PK68" s="33"/>
+      <c r="PL68" s="33"/>
+      <c r="PM68" s="33"/>
+      <c r="PN68" s="33"/>
+      <c r="PO68" s="33"/>
+      <c r="PP68" s="33"/>
+      <c r="PQ68" s="33"/>
+      <c r="PR68" s="33"/>
+      <c r="PS68" s="33"/>
+      <c r="PT68" s="33"/>
+      <c r="PU68" s="33"/>
+      <c r="PV68" s="33"/>
+      <c r="PW68" s="33"/>
+      <c r="PX68" s="33"/>
+      <c r="PY68" s="33"/>
+      <c r="PZ68" s="33"/>
+      <c r="QA68" s="33"/>
+      <c r="QB68" s="33"/>
+      <c r="QC68" s="33"/>
+      <c r="QD68" s="33"/>
+      <c r="QE68" s="33"/>
+      <c r="QF68" s="33"/>
+      <c r="QG68" s="33"/>
+      <c r="QH68" s="33"/>
+      <c r="QI68" s="33"/>
+      <c r="QJ68" s="33"/>
+      <c r="QK68" s="33"/>
+      <c r="QL68" s="33"/>
+      <c r="QM68" s="33"/>
+      <c r="QN68" s="33"/>
+      <c r="QO68" s="33"/>
+      <c r="QP68" s="33"/>
+      <c r="QQ68" s="33"/>
+      <c r="QR68" s="33"/>
+      <c r="QS68" s="33"/>
+      <c r="QT68" s="33"/>
+      <c r="QU68" s="33"/>
+      <c r="QV68" s="33"/>
+      <c r="QW68" s="33"/>
+      <c r="QX68" s="33"/>
+      <c r="QY68" s="33"/>
+      <c r="QZ68" s="33"/>
+      <c r="RA68" s="33"/>
+      <c r="RB68" s="33"/>
+      <c r="RC68" s="33"/>
+      <c r="RD68" s="33"/>
+      <c r="RE68" s="33"/>
+      <c r="RF68" s="33"/>
+      <c r="RG68" s="33"/>
+      <c r="RH68" s="33"/>
+      <c r="RI68" s="33"/>
+      <c r="RJ68" s="33"/>
+      <c r="RK68" s="33"/>
+      <c r="RL68" s="33"/>
+      <c r="RM68" s="33"/>
+      <c r="RN68" s="33"/>
+      <c r="RO68" s="33"/>
+      <c r="RP68" s="33"/>
+      <c r="RQ68" s="33"/>
+      <c r="RR68" s="33"/>
+      <c r="RS68" s="33"/>
+      <c r="RT68" s="33"/>
+      <c r="RU68" s="33"/>
+      <c r="RV68" s="33"/>
+      <c r="RW68" s="33"/>
+      <c r="RX68" s="33"/>
+      <c r="RY68" s="33"/>
+      <c r="RZ68" s="33"/>
+      <c r="SA68" s="33"/>
+      <c r="SB68" s="33"/>
+      <c r="SC68" s="33"/>
+      <c r="SD68" s="33"/>
+      <c r="SE68" s="33"/>
+      <c r="SF68" s="33"/>
+      <c r="SG68" s="33"/>
+      <c r="SH68" s="33"/>
+      <c r="SI68" s="33"/>
+      <c r="SJ68" s="33"/>
+      <c r="SK68" s="33"/>
+      <c r="SL68" s="33"/>
+      <c r="SM68" s="33"/>
+      <c r="SN68" s="33"/>
+      <c r="SO68" s="33"/>
+      <c r="SP68" s="33"/>
+      <c r="SQ68" s="33"/>
+      <c r="SR68" s="33"/>
+      <c r="SS68" s="33"/>
+      <c r="ST68" s="33"/>
+      <c r="SU68" s="33"/>
+      <c r="SV68" s="33"/>
+      <c r="SW68" s="33"/>
+      <c r="SX68" s="33"/>
+      <c r="SY68" s="33"/>
+      <c r="SZ68" s="33"/>
+      <c r="TA68" s="33"/>
+      <c r="TB68" s="33"/>
+      <c r="TC68" s="33"/>
+      <c r="TD68" s="33"/>
+      <c r="TE68" s="33"/>
+      <c r="TF68" s="33"/>
+      <c r="TG68" s="33"/>
+      <c r="TH68" s="33"/>
+      <c r="TI68" s="33"/>
+      <c r="TJ68" s="33"/>
+      <c r="TK68" s="33"/>
+      <c r="TL68" s="33"/>
+      <c r="TM68" s="33"/>
+      <c r="TN68" s="33"/>
+      <c r="TO68" s="33"/>
+      <c r="TP68" s="33"/>
+      <c r="TQ68" s="33"/>
+      <c r="TR68" s="33"/>
+      <c r="TS68" s="33"/>
+      <c r="TT68" s="33"/>
+      <c r="TU68" s="33"/>
+      <c r="TV68" s="33"/>
+      <c r="TW68" s="33"/>
+      <c r="TX68" s="33"/>
+      <c r="TY68" s="33"/>
+      <c r="TZ68" s="33"/>
+      <c r="UA68" s="33"/>
+      <c r="UB68" s="33"/>
+      <c r="UC68" s="33"/>
+      <c r="UD68" s="33"/>
+      <c r="UE68" s="33"/>
+      <c r="UF68" s="33"/>
+      <c r="UG68" s="33"/>
+      <c r="UH68" s="33"/>
+      <c r="UI68" s="33"/>
+      <c r="UJ68" s="33"/>
+      <c r="UK68" s="33"/>
+      <c r="UL68" s="33"/>
+      <c r="UM68" s="33"/>
+      <c r="UN68" s="33"/>
+      <c r="UO68" s="33"/>
+      <c r="UP68" s="33"/>
+      <c r="UQ68" s="33"/>
+      <c r="UR68" s="33"/>
+      <c r="US68" s="33"/>
+      <c r="UT68" s="33"/>
+      <c r="UU68" s="33"/>
+      <c r="UV68" s="33"/>
+      <c r="UW68" s="33"/>
+      <c r="UX68" s="33"/>
+      <c r="UY68" s="33"/>
+      <c r="UZ68" s="33"/>
+      <c r="VA68" s="33"/>
+      <c r="VB68" s="33"/>
+      <c r="VC68" s="33"/>
+      <c r="VD68" s="33"/>
+      <c r="VE68" s="33"/>
+      <c r="VF68" s="33"/>
+      <c r="VG68" s="33"/>
+      <c r="VH68" s="33"/>
+      <c r="VI68" s="33"/>
+      <c r="VJ68" s="33"/>
+      <c r="VK68" s="33"/>
+      <c r="VL68" s="33"/>
+      <c r="VM68" s="33"/>
+      <c r="VN68" s="33"/>
+      <c r="VO68" s="33"/>
+      <c r="VP68" s="33"/>
+      <c r="VQ68" s="33"/>
+      <c r="VR68" s="33"/>
+      <c r="VS68" s="33"/>
+      <c r="VT68" s="33"/>
+      <c r="VU68" s="33"/>
+      <c r="VV68" s="33"/>
+      <c r="VW68" s="33"/>
+      <c r="VX68" s="33"/>
+      <c r="VY68" s="33"/>
+      <c r="VZ68" s="33"/>
+      <c r="WA68" s="33"/>
+      <c r="WB68" s="33"/>
+      <c r="WC68" s="33"/>
+      <c r="WD68" s="33"/>
+      <c r="WE68" s="33"/>
+      <c r="WF68" s="33"/>
+      <c r="WG68" s="33"/>
+      <c r="WH68" s="33"/>
+      <c r="WI68" s="33"/>
+      <c r="WJ68" s="33"/>
+      <c r="WK68" s="33"/>
+      <c r="WL68" s="33"/>
+      <c r="WM68" s="33"/>
+      <c r="WN68" s="33"/>
+      <c r="WO68" s="33"/>
+      <c r="WP68" s="33"/>
+      <c r="WQ68" s="33"/>
+      <c r="WR68" s="33"/>
+      <c r="WS68" s="33"/>
+      <c r="WT68" s="33"/>
+      <c r="WU68" s="33"/>
+      <c r="WV68" s="33"/>
+      <c r="WW68" s="33"/>
+      <c r="WX68" s="33"/>
+      <c r="WY68" s="33"/>
+      <c r="WZ68" s="33"/>
+      <c r="XA68" s="33"/>
+      <c r="XB68" s="33"/>
+      <c r="XC68" s="33"/>
+      <c r="XD68" s="33"/>
+      <c r="XE68" s="33"/>
+      <c r="XF68" s="33"/>
+      <c r="XG68" s="33"/>
+      <c r="XH68" s="33"/>
+      <c r="XI68" s="33"/>
+      <c r="XJ68" s="33"/>
+      <c r="XK68" s="33"/>
+      <c r="XL68" s="33"/>
+      <c r="XM68" s="33"/>
+      <c r="XN68" s="33"/>
+      <c r="XO68" s="33"/>
+      <c r="XP68" s="33"/>
+      <c r="XQ68" s="33"/>
+      <c r="XR68" s="33"/>
+      <c r="XS68" s="33"/>
+      <c r="XT68" s="33"/>
+      <c r="XU68" s="33"/>
+      <c r="XV68" s="33"/>
+      <c r="XW68" s="33"/>
+      <c r="XX68" s="33"/>
+      <c r="XY68" s="33"/>
+      <c r="XZ68" s="33"/>
+      <c r="YA68" s="33"/>
+      <c r="YB68" s="33"/>
+      <c r="YC68" s="33"/>
+      <c r="YD68" s="33"/>
+      <c r="YE68" s="33"/>
+      <c r="YF68" s="33"/>
+      <c r="YG68" s="33"/>
+      <c r="YH68" s="33"/>
+      <c r="YI68" s="33"/>
+      <c r="YJ68" s="33"/>
+      <c r="YK68" s="33"/>
+      <c r="YL68" s="33"/>
+      <c r="YM68" s="33"/>
+      <c r="YN68" s="33"/>
+      <c r="YO68" s="33"/>
+      <c r="YP68" s="33"/>
+      <c r="YQ68" s="33"/>
+      <c r="YR68" s="33"/>
+      <c r="YS68" s="33"/>
+      <c r="YT68" s="33"/>
+      <c r="YU68" s="33"/>
+      <c r="YV68" s="33"/>
+      <c r="YW68" s="33"/>
+      <c r="YX68" s="33"/>
+      <c r="YY68" s="33"/>
+      <c r="YZ68" s="33"/>
+      <c r="ZA68" s="33"/>
+      <c r="ZB68" s="33"/>
+      <c r="ZC68" s="33"/>
+      <c r="ZD68" s="33"/>
+      <c r="ZE68" s="33"/>
+      <c r="ZF68" s="33"/>
+      <c r="ZG68" s="33"/>
+      <c r="ZH68" s="33"/>
+      <c r="ZI68" s="33"/>
+      <c r="ZJ68" s="33"/>
+      <c r="ZK68" s="33"/>
+      <c r="ZL68" s="33"/>
+      <c r="ZM68" s="33"/>
+      <c r="ZN68" s="33"/>
+      <c r="ZO68" s="33"/>
+      <c r="ZP68" s="33"/>
+      <c r="ZQ68" s="33"/>
+      <c r="ZR68" s="33"/>
+      <c r="ZS68" s="33"/>
+      <c r="ZT68" s="33"/>
+      <c r="ZU68" s="33"/>
+      <c r="ZV68" s="33"/>
+      <c r="ZW68" s="33"/>
+      <c r="ZX68" s="33"/>
+      <c r="ZY68" s="33"/>
+      <c r="ZZ68" s="33"/>
+      <c r="AAA68" s="33"/>
+      <c r="AAB68" s="33"/>
+      <c r="AAC68" s="33"/>
+      <c r="AAD68" s="33"/>
+      <c r="AAE68" s="33"/>
+      <c r="AAF68" s="33"/>
+      <c r="AAG68" s="33"/>
+      <c r="AAH68" s="33"/>
+      <c r="AAI68" s="33"/>
+      <c r="AAJ68" s="33"/>
+      <c r="AAK68" s="33"/>
+      <c r="AAL68" s="33"/>
+      <c r="AAM68" s="33"/>
+      <c r="AAN68" s="33"/>
+      <c r="AAO68" s="33"/>
+      <c r="AAP68" s="33"/>
+      <c r="AAQ68" s="33"/>
+      <c r="AAR68" s="33"/>
+      <c r="AAS68" s="33"/>
+      <c r="AAT68" s="33"/>
+      <c r="AAU68" s="33"/>
+      <c r="AAV68" s="33"/>
+      <c r="AAW68" s="33"/>
+      <c r="AAX68" s="33"/>
+      <c r="AAY68" s="33"/>
+      <c r="AAZ68" s="33"/>
+      <c r="ABA68" s="33"/>
+      <c r="ABB68" s="33"/>
+      <c r="ABC68" s="33"/>
+      <c r="ABD68" s="33"/>
+      <c r="ABE68" s="33"/>
+      <c r="ABF68" s="33"/>
+      <c r="ABG68" s="33"/>
+      <c r="ABH68" s="33"/>
+      <c r="ABI68" s="33"/>
+      <c r="ABJ68" s="33"/>
+      <c r="ABK68" s="33"/>
+      <c r="ABL68" s="33"/>
+      <c r="ABM68" s="33"/>
+      <c r="ABN68" s="33"/>
+      <c r="ABO68" s="33"/>
+      <c r="ABP68" s="33"/>
+      <c r="ABQ68" s="33"/>
+      <c r="ABR68" s="33"/>
+      <c r="ABS68" s="33"/>
+      <c r="ABT68" s="33"/>
+      <c r="ABU68" s="33"/>
+      <c r="ABV68" s="33"/>
+      <c r="ABW68" s="33"/>
+      <c r="ABX68" s="33"/>
+      <c r="ABY68" s="33"/>
+      <c r="ABZ68" s="33"/>
+      <c r="ACA68" s="33"/>
+      <c r="ACB68" s="33"/>
+      <c r="ACC68" s="33"/>
+      <c r="ACD68" s="33"/>
+      <c r="ACE68" s="33"/>
+      <c r="ACF68" s="33"/>
+      <c r="ACG68" s="33"/>
+      <c r="ACH68" s="33"/>
+      <c r="ACI68" s="33"/>
+      <c r="ACJ68" s="33"/>
+      <c r="ACK68" s="33"/>
+      <c r="ACL68" s="33"/>
+      <c r="ACM68" s="33"/>
+      <c r="ACN68" s="33"/>
+      <c r="ACO68" s="33"/>
+      <c r="ACP68" s="33"/>
+      <c r="ACQ68" s="33"/>
+      <c r="ACR68" s="33"/>
+      <c r="ACS68" s="33"/>
+      <c r="ACT68" s="33"/>
+      <c r="ACU68" s="33"/>
+      <c r="ACV68" s="33"/>
+      <c r="ACW68" s="33"/>
+      <c r="ACX68" s="33"/>
+      <c r="ACY68" s="33"/>
+      <c r="ACZ68" s="33"/>
+      <c r="ADA68" s="33"/>
+      <c r="ADB68" s="33"/>
+      <c r="ADC68" s="33"/>
+      <c r="ADD68" s="33"/>
+      <c r="ADE68" s="33"/>
+      <c r="ADF68" s="33"/>
+      <c r="ADG68" s="33"/>
+      <c r="ADH68" s="33"/>
+      <c r="ADI68" s="33"/>
+      <c r="ADJ68" s="33"/>
+      <c r="ADK68" s="33"/>
+      <c r="ADL68" s="33"/>
+      <c r="ADM68" s="33"/>
+      <c r="ADN68" s="33"/>
+      <c r="ADO68" s="33"/>
+      <c r="ADP68" s="33"/>
+      <c r="ADQ68" s="33"/>
+      <c r="ADR68" s="33"/>
+      <c r="ADS68" s="33"/>
+      <c r="ADT68" s="33"/>
+      <c r="ADU68" s="33"/>
+      <c r="ADV68" s="33"/>
+      <c r="ADW68" s="33"/>
+      <c r="ADX68" s="33"/>
+      <c r="ADY68" s="33"/>
+      <c r="ADZ68" s="33"/>
+      <c r="AEA68" s="33"/>
+      <c r="AEB68" s="33"/>
+      <c r="AEC68" s="33"/>
+      <c r="AED68" s="33"/>
+      <c r="AEE68" s="33"/>
+      <c r="AEF68" s="33"/>
+      <c r="AEG68" s="33"/>
+      <c r="AEH68" s="33"/>
+      <c r="AEI68" s="33"/>
+      <c r="AEJ68" s="33"/>
+      <c r="AEK68" s="33"/>
+      <c r="AEL68" s="33"/>
+      <c r="AEM68" s="33"/>
+      <c r="AEN68" s="33"/>
+      <c r="AEO68" s="33"/>
+      <c r="AEP68" s="33"/>
+      <c r="AEQ68" s="33"/>
+      <c r="AER68" s="33"/>
+      <c r="AES68" s="33"/>
+      <c r="AET68" s="33"/>
+      <c r="AEU68" s="33"/>
+      <c r="AEV68" s="33"/>
+      <c r="AEW68" s="33"/>
+      <c r="AEX68" s="33"/>
+      <c r="AEY68" s="33"/>
+      <c r="AEZ68" s="33"/>
+      <c r="AFA68" s="33"/>
+      <c r="AFB68" s="33"/>
+      <c r="AFC68" s="33"/>
+      <c r="AFD68" s="33"/>
+      <c r="AFE68" s="33"/>
+      <c r="AFF68" s="33"/>
+      <c r="AFG68" s="33"/>
+      <c r="AFH68" s="33"/>
+      <c r="AFI68" s="33"/>
+      <c r="AFJ68" s="33"/>
+      <c r="AFK68" s="33"/>
+      <c r="AFL68" s="33"/>
+      <c r="AFM68" s="33"/>
+      <c r="AFN68" s="33"/>
+      <c r="AFO68" s="33"/>
+      <c r="AFP68" s="33"/>
+      <c r="AFQ68" s="33"/>
+      <c r="AFR68" s="33"/>
+      <c r="AFS68" s="33"/>
+      <c r="AFT68" s="33"/>
+      <c r="AFU68" s="33"/>
+      <c r="AFV68" s="33"/>
+      <c r="AFW68" s="33"/>
+      <c r="AFX68" s="33"/>
+      <c r="AFY68" s="33"/>
+      <c r="AFZ68" s="33"/>
+      <c r="AGA68" s="33"/>
+      <c r="AGB68" s="33"/>
+      <c r="AGC68" s="33"/>
+      <c r="AGD68" s="33"/>
+      <c r="AGE68" s="33"/>
+      <c r="AGF68" s="33"/>
+      <c r="AGG68" s="33"/>
+      <c r="AGH68" s="33"/>
+      <c r="AGI68" s="33"/>
+      <c r="AGJ68" s="33"/>
+      <c r="AGK68" s="33"/>
+      <c r="AGL68" s="33"/>
+      <c r="AGM68" s="33"/>
+      <c r="AGN68" s="33"/>
+      <c r="AGO68" s="33"/>
+      <c r="AGP68" s="33"/>
+      <c r="AGQ68" s="33"/>
+      <c r="AGR68" s="33"/>
+      <c r="AGS68" s="33"/>
+      <c r="AGT68" s="33"/>
+      <c r="AGU68" s="33"/>
+      <c r="AGV68" s="33"/>
+      <c r="AGW68" s="33"/>
+      <c r="AGX68" s="33"/>
+      <c r="AGY68" s="33"/>
+      <c r="AGZ68" s="33"/>
+      <c r="AHA68" s="33"/>
+      <c r="AHB68" s="33"/>
+      <c r="AHC68" s="33"/>
+      <c r="AHD68" s="33"/>
+      <c r="AHE68" s="33"/>
+      <c r="AHF68" s="33"/>
+      <c r="AHG68" s="33"/>
+      <c r="AHH68" s="33"/>
+      <c r="AHI68" s="33"/>
+      <c r="AHJ68" s="33"/>
+      <c r="AHK68" s="33"/>
+      <c r="AHL68" s="33"/>
+      <c r="AHM68" s="33"/>
+      <c r="AHN68" s="33"/>
+      <c r="AHO68" s="33"/>
+      <c r="AHP68" s="33"/>
+      <c r="AHQ68" s="33"/>
+      <c r="AHR68" s="33"/>
+      <c r="AHS68" s="33"/>
+      <c r="AHT68" s="33"/>
+      <c r="AHU68" s="33"/>
+      <c r="AHV68" s="33"/>
+      <c r="AHW68" s="33"/>
+      <c r="AHX68" s="33"/>
+      <c r="AHY68" s="33"/>
+      <c r="AHZ68" s="33"/>
+      <c r="AIA68" s="33"/>
+      <c r="AIB68" s="33"/>
+      <c r="AIC68" s="33"/>
+      <c r="AID68" s="33"/>
+      <c r="AIE68" s="33"/>
+      <c r="AIF68" s="33"/>
+      <c r="AIG68" s="33"/>
+      <c r="AIH68" s="33"/>
+      <c r="AII68" s="33"/>
+      <c r="AIJ68" s="33"/>
+      <c r="AIK68" s="33"/>
+      <c r="AIL68" s="33"/>
+      <c r="AIM68" s="33"/>
+      <c r="AIN68" s="33"/>
+      <c r="AIO68" s="33"/>
+      <c r="AIP68" s="33"/>
+      <c r="AIQ68" s="33"/>
+      <c r="AIR68" s="33"/>
+      <c r="AIS68" s="33"/>
+      <c r="AIT68" s="33"/>
+      <c r="AIU68" s="33"/>
+      <c r="AIV68" s="33"/>
+      <c r="AIW68" s="33"/>
+      <c r="AIX68" s="33"/>
+      <c r="AIY68" s="33"/>
+      <c r="AIZ68" s="33"/>
+      <c r="AJA68" s="33"/>
+      <c r="AJB68" s="33"/>
+      <c r="AJC68" s="33"/>
+      <c r="AJD68" s="33"/>
+      <c r="AJE68" s="33"/>
+      <c r="AJF68" s="33"/>
+      <c r="AJG68" s="33"/>
+      <c r="AJH68" s="33"/>
+      <c r="AJI68" s="33"/>
+      <c r="AJJ68" s="33"/>
+      <c r="AJK68" s="33"/>
+      <c r="AJL68" s="33"/>
+      <c r="AJM68" s="33"/>
+      <c r="AJN68" s="33"/>
+      <c r="AJO68" s="33"/>
+      <c r="AJP68" s="33"/>
+      <c r="AJQ68" s="33"/>
+      <c r="AJR68" s="33"/>
+      <c r="AJS68" s="33"/>
+      <c r="AJT68" s="33"/>
+      <c r="AJU68" s="33"/>
+      <c r="AJV68" s="33"/>
+      <c r="AJW68" s="33"/>
+      <c r="AJX68" s="33"/>
+      <c r="AJY68" s="33"/>
+      <c r="AJZ68" s="33"/>
+      <c r="AKA68" s="33"/>
+      <c r="AKB68" s="33"/>
+      <c r="AKC68" s="33"/>
+      <c r="AKD68" s="33"/>
+      <c r="AKE68" s="33"/>
+      <c r="AKF68" s="33"/>
+      <c r="AKG68" s="33"/>
+      <c r="AKH68" s="33"/>
+      <c r="AKI68" s="33"/>
+      <c r="AKJ68" s="33"/>
+      <c r="AKK68" s="33"/>
+      <c r="AKL68" s="33"/>
+      <c r="AKM68" s="33"/>
+      <c r="AKN68" s="33"/>
+      <c r="AKO68" s="33"/>
+      <c r="AKP68" s="33"/>
+      <c r="AKQ68" s="33"/>
+      <c r="AKR68" s="33"/>
+      <c r="AKS68" s="33"/>
+      <c r="AKT68" s="33"/>
+      <c r="AKU68" s="33"/>
+      <c r="AKV68" s="33"/>
+      <c r="AKW68" s="33"/>
+      <c r="AKX68" s="33"/>
+      <c r="AKY68" s="33"/>
+      <c r="AKZ68" s="33"/>
+      <c r="ALA68" s="33"/>
+      <c r="ALB68" s="33"/>
+      <c r="ALC68" s="33"/>
+      <c r="ALD68" s="33"/>
+      <c r="ALE68" s="33"/>
+      <c r="ALF68" s="33"/>
+      <c r="ALG68" s="33"/>
+      <c r="ALH68" s="33"/>
+      <c r="ALI68" s="33"/>
+      <c r="ALJ68" s="33"/>
+      <c r="ALK68" s="33"/>
+      <c r="ALL68" s="33"/>
+      <c r="ALM68" s="33"/>
+      <c r="ALN68" s="33"/>
+      <c r="ALO68" s="33"/>
+      <c r="ALP68" s="33"/>
+      <c r="ALQ68" s="33"/>
+      <c r="ALR68" s="33"/>
+      <c r="ALS68" s="33"/>
+      <c r="ALT68" s="33"/>
+      <c r="ALU68" s="33"/>
+      <c r="ALV68" s="33"/>
+      <c r="ALW68" s="33"/>
+      <c r="ALX68" s="33"/>
+      <c r="ALY68" s="33"/>
+      <c r="ALZ68" s="33"/>
+      <c r="AMA68" s="33"/>
+      <c r="AMB68" s="33"/>
+      <c r="AMC68" s="33"/>
+      <c r="AMD68" s="33"/>
+      <c r="AME68" s="33"/>
+      <c r="AMF68" s="33"/>
+      <c r="AMG68" s="33"/>
+      <c r="AMH68" s="33"/>
+      <c r="AMI68" s="33"/>
+      <c r="AMJ68" s="33"/>
+      <c r="AMK68" s="33"/>
+    </row>
+    <row r="69" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="33">
+        <v>8</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="33"/>
+      <c r="AI69" s="33"/>
+      <c r="AJ69" s="33"/>
+      <c r="AK69" s="33"/>
+      <c r="AL69" s="33"/>
+      <c r="AM69" s="33"/>
+      <c r="AN69" s="33"/>
+      <c r="AO69" s="33"/>
+      <c r="AP69" s="33"/>
+      <c r="AQ69" s="33"/>
+      <c r="AR69" s="33"/>
+      <c r="AS69" s="33"/>
+      <c r="AT69" s="33"/>
+      <c r="AU69" s="33"/>
+      <c r="AV69" s="33"/>
+      <c r="AW69" s="33"/>
+      <c r="AX69" s="33"/>
+      <c r="AY69" s="33"/>
+      <c r="AZ69" s="33"/>
+      <c r="BA69" s="33"/>
+      <c r="BB69" s="33"/>
+      <c r="BC69" s="33"/>
+      <c r="BD69" s="33"/>
+      <c r="BE69" s="33"/>
+      <c r="BF69" s="33"/>
+      <c r="BG69" s="33"/>
+      <c r="BH69" s="33"/>
+      <c r="BI69" s="33"/>
+      <c r="BJ69" s="33"/>
+      <c r="BK69" s="33"/>
+      <c r="BL69" s="33"/>
+      <c r="BM69" s="33"/>
+      <c r="BN69" s="33"/>
+      <c r="BO69" s="33"/>
+      <c r="BP69" s="33"/>
+      <c r="BQ69" s="33"/>
+      <c r="BR69" s="33"/>
+      <c r="BS69" s="33"/>
+      <c r="BT69" s="33"/>
+      <c r="BU69" s="33"/>
+      <c r="BV69" s="33"/>
+      <c r="BW69" s="33"/>
+      <c r="BX69" s="33"/>
+      <c r="BY69" s="33"/>
+      <c r="BZ69" s="33"/>
+      <c r="CA69" s="33"/>
+      <c r="CB69" s="33"/>
+      <c r="CC69" s="33"/>
+      <c r="CD69" s="33"/>
+      <c r="CE69" s="33"/>
+      <c r="CF69" s="33"/>
+      <c r="CG69" s="33"/>
+      <c r="CH69" s="33"/>
+      <c r="CI69" s="33"/>
+      <c r="CJ69" s="33"/>
+      <c r="CK69" s="33"/>
+      <c r="CL69" s="33"/>
+      <c r="CM69" s="33"/>
+      <c r="CN69" s="33"/>
+      <c r="CO69" s="33"/>
+      <c r="CP69" s="33"/>
+      <c r="CQ69" s="33"/>
+      <c r="CR69" s="33"/>
+      <c r="CS69" s="33"/>
+      <c r="CT69" s="33"/>
+      <c r="CU69" s="33"/>
+      <c r="CV69" s="33"/>
+      <c r="CW69" s="33"/>
+      <c r="CX69" s="33"/>
+      <c r="CY69" s="33"/>
+      <c r="CZ69" s="33"/>
+      <c r="DA69" s="33"/>
+      <c r="DB69" s="33"/>
+      <c r="DC69" s="33"/>
+      <c r="DD69" s="33"/>
+      <c r="DE69" s="33"/>
+      <c r="DF69" s="33"/>
+      <c r="DG69" s="33"/>
+      <c r="DH69" s="33"/>
+      <c r="DI69" s="33"/>
+      <c r="DJ69" s="33"/>
+      <c r="DK69" s="33"/>
+      <c r="DL69" s="33"/>
+      <c r="DM69" s="33"/>
+      <c r="DN69" s="33"/>
+      <c r="DO69" s="33"/>
+      <c r="DP69" s="33"/>
+      <c r="DQ69" s="33"/>
+      <c r="DR69" s="33"/>
+      <c r="DS69" s="33"/>
+      <c r="DT69" s="33"/>
+      <c r="DU69" s="33"/>
+      <c r="DV69" s="33"/>
+      <c r="DW69" s="33"/>
+      <c r="DX69" s="33"/>
+      <c r="DY69" s="33"/>
+      <c r="DZ69" s="33"/>
+      <c r="EA69" s="33"/>
+      <c r="EB69" s="33"/>
+      <c r="EC69" s="33"/>
+      <c r="ED69" s="33"/>
+      <c r="EE69" s="33"/>
+      <c r="EF69" s="33"/>
+      <c r="EG69" s="33"/>
+      <c r="EH69" s="33"/>
+      <c r="EI69" s="33"/>
+      <c r="EJ69" s="33"/>
+      <c r="EK69" s="33"/>
+      <c r="EL69" s="33"/>
+      <c r="EM69" s="33"/>
+      <c r="EN69" s="33"/>
+      <c r="EO69" s="33"/>
+      <c r="EP69" s="33"/>
+      <c r="EQ69" s="33"/>
+      <c r="ER69" s="33"/>
+      <c r="ES69" s="33"/>
+      <c r="ET69" s="33"/>
+      <c r="EU69" s="33"/>
+      <c r="EV69" s="33"/>
+      <c r="EW69" s="33"/>
+      <c r="EX69" s="33"/>
+      <c r="EY69" s="33"/>
+      <c r="EZ69" s="33"/>
+      <c r="FA69" s="33"/>
+      <c r="FB69" s="33"/>
+      <c r="FC69" s="33"/>
+      <c r="FD69" s="33"/>
+      <c r="FE69" s="33"/>
+      <c r="FF69" s="33"/>
+      <c r="FG69" s="33"/>
+      <c r="FH69" s="33"/>
+      <c r="FI69" s="33"/>
+      <c r="FJ69" s="33"/>
+      <c r="FK69" s="33"/>
+      <c r="FL69" s="33"/>
+      <c r="FM69" s="33"/>
+      <c r="FN69" s="33"/>
+      <c r="FO69" s="33"/>
+      <c r="FP69" s="33"/>
+      <c r="FQ69" s="33"/>
+      <c r="FR69" s="33"/>
+      <c r="FS69" s="33"/>
+      <c r="FT69" s="33"/>
+      <c r="FU69" s="33"/>
+      <c r="FV69" s="33"/>
+      <c r="FW69" s="33"/>
+      <c r="FX69" s="33"/>
+      <c r="FY69" s="33"/>
+      <c r="FZ69" s="33"/>
+      <c r="GA69" s="33"/>
+      <c r="GB69" s="33"/>
+      <c r="GC69" s="33"/>
+      <c r="GD69" s="33"/>
+      <c r="GE69" s="33"/>
+      <c r="GF69" s="33"/>
+      <c r="GG69" s="33"/>
+      <c r="GH69" s="33"/>
+      <c r="GI69" s="33"/>
+      <c r="GJ69" s="33"/>
+      <c r="GK69" s="33"/>
+      <c r="GL69" s="33"/>
+      <c r="GM69" s="33"/>
+      <c r="GN69" s="33"/>
+      <c r="GO69" s="33"/>
+      <c r="GP69" s="33"/>
+      <c r="GQ69" s="33"/>
+      <c r="GR69" s="33"/>
+      <c r="GS69" s="33"/>
+      <c r="GT69" s="33"/>
+      <c r="GU69" s="33"/>
+      <c r="GV69" s="33"/>
+      <c r="GW69" s="33"/>
+      <c r="GX69" s="33"/>
+      <c r="GY69" s="33"/>
+      <c r="GZ69" s="33"/>
+      <c r="HA69" s="33"/>
+      <c r="HB69" s="33"/>
+      <c r="HC69" s="33"/>
+      <c r="HD69" s="33"/>
+      <c r="HE69" s="33"/>
+      <c r="HF69" s="33"/>
+      <c r="HG69" s="33"/>
+      <c r="HH69" s="33"/>
+      <c r="HI69" s="33"/>
+      <c r="HJ69" s="33"/>
+      <c r="HK69" s="33"/>
+      <c r="HL69" s="33"/>
+      <c r="HM69" s="33"/>
+      <c r="HN69" s="33"/>
+      <c r="HO69" s="33"/>
+      <c r="HP69" s="33"/>
+      <c r="HQ69" s="33"/>
+      <c r="HR69" s="33"/>
+      <c r="HS69" s="33"/>
+      <c r="HT69" s="33"/>
+      <c r="HU69" s="33"/>
+      <c r="HV69" s="33"/>
+      <c r="HW69" s="33"/>
+      <c r="HX69" s="33"/>
+      <c r="HY69" s="33"/>
+      <c r="HZ69" s="33"/>
+      <c r="IA69" s="33"/>
+      <c r="IB69" s="33"/>
+      <c r="IC69" s="33"/>
+      <c r="ID69" s="33"/>
+      <c r="IE69" s="33"/>
+      <c r="IF69" s="33"/>
+      <c r="IG69" s="33"/>
+      <c r="IH69" s="33"/>
+      <c r="II69" s="33"/>
+      <c r="IJ69" s="33"/>
+      <c r="IK69" s="33"/>
+      <c r="IL69" s="33"/>
+      <c r="IM69" s="33"/>
+      <c r="IN69" s="33"/>
+      <c r="IO69" s="33"/>
+      <c r="IP69" s="33"/>
+      <c r="IQ69" s="33"/>
+      <c r="IR69" s="33"/>
+      <c r="IS69" s="33"/>
+      <c r="IT69" s="33"/>
+      <c r="IU69" s="33"/>
+      <c r="IV69" s="33"/>
+      <c r="IW69" s="33"/>
+      <c r="IX69" s="33"/>
+      <c r="IY69" s="33"/>
+      <c r="IZ69" s="33"/>
+      <c r="JA69" s="33"/>
+      <c r="JB69" s="33"/>
+      <c r="JC69" s="33"/>
+      <c r="JD69" s="33"/>
+      <c r="JE69" s="33"/>
+      <c r="JF69" s="33"/>
+      <c r="JG69" s="33"/>
+      <c r="JH69" s="33"/>
+      <c r="JI69" s="33"/>
+      <c r="JJ69" s="33"/>
+      <c r="JK69" s="33"/>
+      <c r="JL69" s="33"/>
+      <c r="JM69" s="33"/>
+      <c r="JN69" s="33"/>
+      <c r="JO69" s="33"/>
+      <c r="JP69" s="33"/>
+      <c r="JQ69" s="33"/>
+      <c r="JR69" s="33"/>
+      <c r="JS69" s="33"/>
+      <c r="JT69" s="33"/>
+      <c r="JU69" s="33"/>
+      <c r="JV69" s="33"/>
+      <c r="JW69" s="33"/>
+      <c r="JX69" s="33"/>
+      <c r="JY69" s="33"/>
+      <c r="JZ69" s="33"/>
+      <c r="KA69" s="33"/>
+      <c r="KB69" s="33"/>
+      <c r="KC69" s="33"/>
+      <c r="KD69" s="33"/>
+      <c r="KE69" s="33"/>
+      <c r="KF69" s="33"/>
+      <c r="KG69" s="33"/>
+      <c r="KH69" s="33"/>
+      <c r="KI69" s="33"/>
+      <c r="KJ69" s="33"/>
+      <c r="KK69" s="33"/>
+      <c r="KL69" s="33"/>
+      <c r="KM69" s="33"/>
+      <c r="KN69" s="33"/>
+      <c r="KO69" s="33"/>
+      <c r="KP69" s="33"/>
+      <c r="KQ69" s="33"/>
+      <c r="KR69" s="33"/>
+      <c r="KS69" s="33"/>
+      <c r="KT69" s="33"/>
+      <c r="KU69" s="33"/>
+      <c r="KV69" s="33"/>
+      <c r="KW69" s="33"/>
+      <c r="KX69" s="33"/>
+      <c r="KY69" s="33"/>
+      <c r="KZ69" s="33"/>
+      <c r="LA69" s="33"/>
+      <c r="LB69" s="33"/>
+      <c r="LC69" s="33"/>
+      <c r="LD69" s="33"/>
+      <c r="LE69" s="33"/>
+      <c r="LF69" s="33"/>
+      <c r="LG69" s="33"/>
+      <c r="LH69" s="33"/>
+      <c r="LI69" s="33"/>
+      <c r="LJ69" s="33"/>
+      <c r="LK69" s="33"/>
+      <c r="LL69" s="33"/>
+      <c r="LM69" s="33"/>
+      <c r="LN69" s="33"/>
+      <c r="LO69" s="33"/>
+      <c r="LP69" s="33"/>
+      <c r="LQ69" s="33"/>
+      <c r="LR69" s="33"/>
+      <c r="LS69" s="33"/>
+      <c r="LT69" s="33"/>
+      <c r="LU69" s="33"/>
+      <c r="LV69" s="33"/>
+      <c r="LW69" s="33"/>
+      <c r="LX69" s="33"/>
+      <c r="LY69" s="33"/>
+      <c r="LZ69" s="33"/>
+      <c r="MA69" s="33"/>
+      <c r="MB69" s="33"/>
+      <c r="MC69" s="33"/>
+      <c r="MD69" s="33"/>
+      <c r="ME69" s="33"/>
+      <c r="MF69" s="33"/>
+      <c r="MG69" s="33"/>
+      <c r="MH69" s="33"/>
+      <c r="MI69" s="33"/>
+      <c r="MJ69" s="33"/>
+      <c r="MK69" s="33"/>
+      <c r="ML69" s="33"/>
+      <c r="MM69" s="33"/>
+      <c r="MN69" s="33"/>
+      <c r="MO69" s="33"/>
+      <c r="MP69" s="33"/>
+      <c r="MQ69" s="33"/>
+      <c r="MR69" s="33"/>
+      <c r="MS69" s="33"/>
+      <c r="MT69" s="33"/>
+      <c r="MU69" s="33"/>
+      <c r="MV69" s="33"/>
+      <c r="MW69" s="33"/>
+      <c r="MX69" s="33"/>
+      <c r="MY69" s="33"/>
+      <c r="MZ69" s="33"/>
+      <c r="NA69" s="33"/>
+      <c r="NB69" s="33"/>
+      <c r="NC69" s="33"/>
+      <c r="ND69" s="33"/>
+      <c r="NE69" s="33"/>
+      <c r="NF69" s="33"/>
+      <c r="NG69" s="33"/>
+      <c r="NH69" s="33"/>
+      <c r="NI69" s="33"/>
+      <c r="NJ69" s="33"/>
+      <c r="NK69" s="33"/>
+      <c r="NL69" s="33"/>
+      <c r="NM69" s="33"/>
+      <c r="NN69" s="33"/>
+      <c r="NO69" s="33"/>
+      <c r="NP69" s="33"/>
+      <c r="NQ69" s="33"/>
+      <c r="NR69" s="33"/>
+      <c r="NS69" s="33"/>
+      <c r="NT69" s="33"/>
+      <c r="NU69" s="33"/>
+      <c r="NV69" s="33"/>
+      <c r="NW69" s="33"/>
+      <c r="NX69" s="33"/>
+      <c r="NY69" s="33"/>
+      <c r="NZ69" s="33"/>
+      <c r="OA69" s="33"/>
+      <c r="OB69" s="33"/>
+      <c r="OC69" s="33"/>
+      <c r="OD69" s="33"/>
+      <c r="OE69" s="33"/>
+      <c r="OF69" s="33"/>
+      <c r="OG69" s="33"/>
+      <c r="OH69" s="33"/>
+      <c r="OI69" s="33"/>
+      <c r="OJ69" s="33"/>
+      <c r="OK69" s="33"/>
+      <c r="OL69" s="33"/>
+      <c r="OM69" s="33"/>
+      <c r="ON69" s="33"/>
+      <c r="OO69" s="33"/>
+      <c r="OP69" s="33"/>
+      <c r="OQ69" s="33"/>
+      <c r="OR69" s="33"/>
+      <c r="OS69" s="33"/>
+      <c r="OT69" s="33"/>
+      <c r="OU69" s="33"/>
+      <c r="OV69" s="33"/>
+      <c r="OW69" s="33"/>
+      <c r="OX69" s="33"/>
+      <c r="OY69" s="33"/>
+      <c r="OZ69" s="33"/>
+      <c r="PA69" s="33"/>
+      <c r="PB69" s="33"/>
+      <c r="PC69" s="33"/>
+      <c r="PD69" s="33"/>
+      <c r="PE69" s="33"/>
+      <c r="PF69" s="33"/>
+      <c r="PG69" s="33"/>
+      <c r="PH69" s="33"/>
+      <c r="PI69" s="33"/>
+      <c r="PJ69" s="33"/>
+      <c r="PK69" s="33"/>
+      <c r="PL69" s="33"/>
+      <c r="PM69" s="33"/>
+      <c r="PN69" s="33"/>
+      <c r="PO69" s="33"/>
+      <c r="PP69" s="33"/>
+      <c r="PQ69" s="33"/>
+      <c r="PR69" s="33"/>
+      <c r="PS69" s="33"/>
+      <c r="PT69" s="33"/>
+      <c r="PU69" s="33"/>
+      <c r="PV69" s="33"/>
+      <c r="PW69" s="33"/>
+      <c r="PX69" s="33"/>
+      <c r="PY69" s="33"/>
+      <c r="PZ69" s="33"/>
+      <c r="QA69" s="33"/>
+      <c r="QB69" s="33"/>
+      <c r="QC69" s="33"/>
+      <c r="QD69" s="33"/>
+      <c r="QE69" s="33"/>
+      <c r="QF69" s="33"/>
+      <c r="QG69" s="33"/>
+      <c r="QH69" s="33"/>
+      <c r="QI69" s="33"/>
+      <c r="QJ69" s="33"/>
+      <c r="QK69" s="33"/>
+      <c r="QL69" s="33"/>
+      <c r="QM69" s="33"/>
+      <c r="QN69" s="33"/>
+      <c r="QO69" s="33"/>
+      <c r="QP69" s="33"/>
+      <c r="QQ69" s="33"/>
+      <c r="QR69" s="33"/>
+      <c r="QS69" s="33"/>
+      <c r="QT69" s="33"/>
+      <c r="QU69" s="33"/>
+      <c r="QV69" s="33"/>
+      <c r="QW69" s="33"/>
+      <c r="QX69" s="33"/>
+      <c r="QY69" s="33"/>
+      <c r="QZ69" s="33"/>
+      <c r="RA69" s="33"/>
+      <c r="RB69" s="33"/>
+      <c r="RC69" s="33"/>
+      <c r="RD69" s="33"/>
+      <c r="RE69" s="33"/>
+      <c r="RF69" s="33"/>
+      <c r="RG69" s="33"/>
+      <c r="RH69" s="33"/>
+      <c r="RI69" s="33"/>
+      <c r="RJ69" s="33"/>
+      <c r="RK69" s="33"/>
+      <c r="RL69" s="33"/>
+      <c r="RM69" s="33"/>
+      <c r="RN69" s="33"/>
+      <c r="RO69" s="33"/>
+      <c r="RP69" s="33"/>
+      <c r="RQ69" s="33"/>
+      <c r="RR69" s="33"/>
+      <c r="RS69" s="33"/>
+      <c r="RT69" s="33"/>
+      <c r="RU69" s="33"/>
+      <c r="RV69" s="33"/>
+      <c r="RW69" s="33"/>
+      <c r="RX69" s="33"/>
+      <c r="RY69" s="33"/>
+      <c r="RZ69" s="33"/>
+      <c r="SA69" s="33"/>
+      <c r="SB69" s="33"/>
+      <c r="SC69" s="33"/>
+      <c r="SD69" s="33"/>
+      <c r="SE69" s="33"/>
+      <c r="SF69" s="33"/>
+      <c r="SG69" s="33"/>
+      <c r="SH69" s="33"/>
+      <c r="SI69" s="33"/>
+      <c r="SJ69" s="33"/>
+      <c r="SK69" s="33"/>
+      <c r="SL69" s="33"/>
+      <c r="SM69" s="33"/>
+      <c r="SN69" s="33"/>
+      <c r="SO69" s="33"/>
+      <c r="SP69" s="33"/>
+      <c r="SQ69" s="33"/>
+      <c r="SR69" s="33"/>
+      <c r="SS69" s="33"/>
+      <c r="ST69" s="33"/>
+      <c r="SU69" s="33"/>
+      <c r="SV69" s="33"/>
+      <c r="SW69" s="33"/>
+      <c r="SX69" s="33"/>
+      <c r="SY69" s="33"/>
+      <c r="SZ69" s="33"/>
+      <c r="TA69" s="33"/>
+      <c r="TB69" s="33"/>
+      <c r="TC69" s="33"/>
+      <c r="TD69" s="33"/>
+      <c r="TE69" s="33"/>
+      <c r="TF69" s="33"/>
+      <c r="TG69" s="33"/>
+      <c r="TH69" s="33"/>
+      <c r="TI69" s="33"/>
+      <c r="TJ69" s="33"/>
+      <c r="TK69" s="33"/>
+      <c r="TL69" s="33"/>
+      <c r="TM69" s="33"/>
+      <c r="TN69" s="33"/>
+      <c r="TO69" s="33"/>
+      <c r="TP69" s="33"/>
+      <c r="TQ69" s="33"/>
+      <c r="TR69" s="33"/>
+      <c r="TS69" s="33"/>
+      <c r="TT69" s="33"/>
+      <c r="TU69" s="33"/>
+      <c r="TV69" s="33"/>
+      <c r="TW69" s="33"/>
+      <c r="TX69" s="33"/>
+      <c r="TY69" s="33"/>
+      <c r="TZ69" s="33"/>
+      <c r="UA69" s="33"/>
+      <c r="UB69" s="33"/>
+      <c r="UC69" s="33"/>
+      <c r="UD69" s="33"/>
+      <c r="UE69" s="33"/>
+      <c r="UF69" s="33"/>
+      <c r="UG69" s="33"/>
+      <c r="UH69" s="33"/>
+      <c r="UI69" s="33"/>
+      <c r="UJ69" s="33"/>
+      <c r="UK69" s="33"/>
+      <c r="UL69" s="33"/>
+      <c r="UM69" s="33"/>
+      <c r="UN69" s="33"/>
+      <c r="UO69" s="33"/>
+      <c r="UP69" s="33"/>
+      <c r="UQ69" s="33"/>
+      <c r="UR69" s="33"/>
+      <c r="US69" s="33"/>
+      <c r="UT69" s="33"/>
+      <c r="UU69" s="33"/>
+      <c r="UV69" s="33"/>
+      <c r="UW69" s="33"/>
+      <c r="UX69" s="33"/>
+      <c r="UY69" s="33"/>
+      <c r="UZ69" s="33"/>
+      <c r="VA69" s="33"/>
+      <c r="VB69" s="33"/>
+      <c r="VC69" s="33"/>
+      <c r="VD69" s="33"/>
+      <c r="VE69" s="33"/>
+      <c r="VF69" s="33"/>
+      <c r="VG69" s="33"/>
+      <c r="VH69" s="33"/>
+      <c r="VI69" s="33"/>
+      <c r="VJ69" s="33"/>
+      <c r="VK69" s="33"/>
+      <c r="VL69" s="33"/>
+      <c r="VM69" s="33"/>
+      <c r="VN69" s="33"/>
+      <c r="VO69" s="33"/>
+      <c r="VP69" s="33"/>
+      <c r="VQ69" s="33"/>
+      <c r="VR69" s="33"/>
+      <c r="VS69" s="33"/>
+      <c r="VT69" s="33"/>
+      <c r="VU69" s="33"/>
+      <c r="VV69" s="33"/>
+      <c r="VW69" s="33"/>
+      <c r="VX69" s="33"/>
+      <c r="VY69" s="33"/>
+      <c r="VZ69" s="33"/>
+      <c r="WA69" s="33"/>
+      <c r="WB69" s="33"/>
+      <c r="WC69" s="33"/>
+      <c r="WD69" s="33"/>
+      <c r="WE69" s="33"/>
+      <c r="WF69" s="33"/>
+      <c r="WG69" s="33"/>
+      <c r="WH69" s="33"/>
+      <c r="WI69" s="33"/>
+      <c r="WJ69" s="33"/>
+      <c r="WK69" s="33"/>
+      <c r="WL69" s="33"/>
+      <c r="WM69" s="33"/>
+      <c r="WN69" s="33"/>
+      <c r="WO69" s="33"/>
+      <c r="WP69" s="33"/>
+      <c r="WQ69" s="33"/>
+      <c r="WR69" s="33"/>
+      <c r="WS69" s="33"/>
+      <c r="WT69" s="33"/>
+      <c r="WU69" s="33"/>
+      <c r="WV69" s="33"/>
+      <c r="WW69" s="33"/>
+      <c r="WX69" s="33"/>
+      <c r="WY69" s="33"/>
+      <c r="WZ69" s="33"/>
+      <c r="XA69" s="33"/>
+      <c r="XB69" s="33"/>
+      <c r="XC69" s="33"/>
+      <c r="XD69" s="33"/>
+      <c r="XE69" s="33"/>
+      <c r="XF69" s="33"/>
+      <c r="XG69" s="33"/>
+      <c r="XH69" s="33"/>
+      <c r="XI69" s="33"/>
+      <c r="XJ69" s="33"/>
+      <c r="XK69" s="33"/>
+      <c r="XL69" s="33"/>
+      <c r="XM69" s="33"/>
+      <c r="XN69" s="33"/>
+      <c r="XO69" s="33"/>
+      <c r="XP69" s="33"/>
+      <c r="XQ69" s="33"/>
+      <c r="XR69" s="33"/>
+      <c r="XS69" s="33"/>
+      <c r="XT69" s="33"/>
+      <c r="XU69" s="33"/>
+      <c r="XV69" s="33"/>
+      <c r="XW69" s="33"/>
+      <c r="XX69" s="33"/>
+      <c r="XY69" s="33"/>
+      <c r="XZ69" s="33"/>
+      <c r="YA69" s="33"/>
+      <c r="YB69" s="33"/>
+      <c r="YC69" s="33"/>
+      <c r="YD69" s="33"/>
+      <c r="YE69" s="33"/>
+      <c r="YF69" s="33"/>
+      <c r="YG69" s="33"/>
+      <c r="YH69" s="33"/>
+      <c r="YI69" s="33"/>
+      <c r="YJ69" s="33"/>
+      <c r="YK69" s="33"/>
+      <c r="YL69" s="33"/>
+      <c r="YM69" s="33"/>
+      <c r="YN69" s="33"/>
+      <c r="YO69" s="33"/>
+      <c r="YP69" s="33"/>
+      <c r="YQ69" s="33"/>
+      <c r="YR69" s="33"/>
+      <c r="YS69" s="33"/>
+      <c r="YT69" s="33"/>
+      <c r="YU69" s="33"/>
+      <c r="YV69" s="33"/>
+      <c r="YW69" s="33"/>
+      <c r="YX69" s="33"/>
+      <c r="YY69" s="33"/>
+      <c r="YZ69" s="33"/>
+      <c r="ZA69" s="33"/>
+      <c r="ZB69" s="33"/>
+      <c r="ZC69" s="33"/>
+      <c r="ZD69" s="33"/>
+      <c r="ZE69" s="33"/>
+      <c r="ZF69" s="33"/>
+      <c r="ZG69" s="33"/>
+      <c r="ZH69" s="33"/>
+      <c r="ZI69" s="33"/>
+      <c r="ZJ69" s="33"/>
+      <c r="ZK69" s="33"/>
+      <c r="ZL69" s="33"/>
+      <c r="ZM69" s="33"/>
+      <c r="ZN69" s="33"/>
+      <c r="ZO69" s="33"/>
+      <c r="ZP69" s="33"/>
+      <c r="ZQ69" s="33"/>
+      <c r="ZR69" s="33"/>
+      <c r="ZS69" s="33"/>
+      <c r="ZT69" s="33"/>
+      <c r="ZU69" s="33"/>
+      <c r="ZV69" s="33"/>
+      <c r="ZW69" s="33"/>
+      <c r="ZX69" s="33"/>
+      <c r="ZY69" s="33"/>
+      <c r="ZZ69" s="33"/>
+      <c r="AAA69" s="33"/>
+      <c r="AAB69" s="33"/>
+      <c r="AAC69" s="33"/>
+      <c r="AAD69" s="33"/>
+      <c r="AAE69" s="33"/>
+      <c r="AAF69" s="33"/>
+      <c r="AAG69" s="33"/>
+      <c r="AAH69" s="33"/>
+      <c r="AAI69" s="33"/>
+      <c r="AAJ69" s="33"/>
+      <c r="AAK69" s="33"/>
+      <c r="AAL69" s="33"/>
+      <c r="AAM69" s="33"/>
+      <c r="AAN69" s="33"/>
+      <c r="AAO69" s="33"/>
+      <c r="AAP69" s="33"/>
+      <c r="AAQ69" s="33"/>
+      <c r="AAR69" s="33"/>
+      <c r="AAS69" s="33"/>
+      <c r="AAT69" s="33"/>
+      <c r="AAU69" s="33"/>
+      <c r="AAV69" s="33"/>
+      <c r="AAW69" s="33"/>
+      <c r="AAX69" s="33"/>
+      <c r="AAY69" s="33"/>
+      <c r="AAZ69" s="33"/>
+      <c r="ABA69" s="33"/>
+      <c r="ABB69" s="33"/>
+      <c r="ABC69" s="33"/>
+      <c r="ABD69" s="33"/>
+      <c r="ABE69" s="33"/>
+      <c r="ABF69" s="33"/>
+      <c r="ABG69" s="33"/>
+      <c r="ABH69" s="33"/>
+      <c r="ABI69" s="33"/>
+      <c r="ABJ69" s="33"/>
+      <c r="ABK69" s="33"/>
+      <c r="ABL69" s="33"/>
+      <c r="ABM69" s="33"/>
+      <c r="ABN69" s="33"/>
+      <c r="ABO69" s="33"/>
+      <c r="ABP69" s="33"/>
+      <c r="ABQ69" s="33"/>
+      <c r="ABR69" s="33"/>
+      <c r="ABS69" s="33"/>
+      <c r="ABT69" s="33"/>
+      <c r="ABU69" s="33"/>
+      <c r="ABV69" s="33"/>
+      <c r="ABW69" s="33"/>
+      <c r="ABX69" s="33"/>
+      <c r="ABY69" s="33"/>
+      <c r="ABZ69" s="33"/>
+      <c r="ACA69" s="33"/>
+      <c r="ACB69" s="33"/>
+      <c r="ACC69" s="33"/>
+      <c r="ACD69" s="33"/>
+      <c r="ACE69" s="33"/>
+      <c r="ACF69" s="33"/>
+      <c r="ACG69" s="33"/>
+      <c r="ACH69" s="33"/>
+      <c r="ACI69" s="33"/>
+      <c r="ACJ69" s="33"/>
+      <c r="ACK69" s="33"/>
+      <c r="ACL69" s="33"/>
+      <c r="ACM69" s="33"/>
+      <c r="ACN69" s="33"/>
+      <c r="ACO69" s="33"/>
+      <c r="ACP69" s="33"/>
+      <c r="ACQ69" s="33"/>
+      <c r="ACR69" s="33"/>
+      <c r="ACS69" s="33"/>
+      <c r="ACT69" s="33"/>
+      <c r="ACU69" s="33"/>
+      <c r="ACV69" s="33"/>
+      <c r="ACW69" s="33"/>
+      <c r="ACX69" s="33"/>
+      <c r="ACY69" s="33"/>
+      <c r="ACZ69" s="33"/>
+      <c r="ADA69" s="33"/>
+      <c r="ADB69" s="33"/>
+      <c r="ADC69" s="33"/>
+      <c r="ADD69" s="33"/>
+      <c r="ADE69" s="33"/>
+      <c r="ADF69" s="33"/>
+      <c r="ADG69" s="33"/>
+      <c r="ADH69" s="33"/>
+      <c r="ADI69" s="33"/>
+      <c r="ADJ69" s="33"/>
+      <c r="ADK69" s="33"/>
+      <c r="ADL69" s="33"/>
+      <c r="ADM69" s="33"/>
+      <c r="ADN69" s="33"/>
+      <c r="ADO69" s="33"/>
+      <c r="ADP69" s="33"/>
+      <c r="ADQ69" s="33"/>
+      <c r="ADR69" s="33"/>
+      <c r="ADS69" s="33"/>
+      <c r="ADT69" s="33"/>
+      <c r="ADU69" s="33"/>
+      <c r="ADV69" s="33"/>
+      <c r="ADW69" s="33"/>
+      <c r="ADX69" s="33"/>
+      <c r="ADY69" s="33"/>
+      <c r="ADZ69" s="33"/>
+      <c r="AEA69" s="33"/>
+      <c r="AEB69" s="33"/>
+      <c r="AEC69" s="33"/>
+      <c r="AED69" s="33"/>
+      <c r="AEE69" s="33"/>
+      <c r="AEF69" s="33"/>
+      <c r="AEG69" s="33"/>
+      <c r="AEH69" s="33"/>
+      <c r="AEI69" s="33"/>
+      <c r="AEJ69" s="33"/>
+      <c r="AEK69" s="33"/>
+      <c r="AEL69" s="33"/>
+      <c r="AEM69" s="33"/>
+      <c r="AEN69" s="33"/>
+      <c r="AEO69" s="33"/>
+      <c r="AEP69" s="33"/>
+      <c r="AEQ69" s="33"/>
+      <c r="AER69" s="33"/>
+      <c r="AES69" s="33"/>
+      <c r="AET69" s="33"/>
+      <c r="AEU69" s="33"/>
+      <c r="AEV69" s="33"/>
+      <c r="AEW69" s="33"/>
+      <c r="AEX69" s="33"/>
+      <c r="AEY69" s="33"/>
+      <c r="AEZ69" s="33"/>
+      <c r="AFA69" s="33"/>
+      <c r="AFB69" s="33"/>
+      <c r="AFC69" s="33"/>
+      <c r="AFD69" s="33"/>
+      <c r="AFE69" s="33"/>
+      <c r="AFF69" s="33"/>
+      <c r="AFG69" s="33"/>
+      <c r="AFH69" s="33"/>
+      <c r="AFI69" s="33"/>
+      <c r="AFJ69" s="33"/>
+      <c r="AFK69" s="33"/>
+      <c r="AFL69" s="33"/>
+      <c r="AFM69" s="33"/>
+      <c r="AFN69" s="33"/>
+      <c r="AFO69" s="33"/>
+      <c r="AFP69" s="33"/>
+      <c r="AFQ69" s="33"/>
+      <c r="AFR69" s="33"/>
+      <c r="AFS69" s="33"/>
+      <c r="AFT69" s="33"/>
+      <c r="AFU69" s="33"/>
+      <c r="AFV69" s="33"/>
+      <c r="AFW69" s="33"/>
+      <c r="AFX69" s="33"/>
+      <c r="AFY69" s="33"/>
+      <c r="AFZ69" s="33"/>
+      <c r="AGA69" s="33"/>
+      <c r="AGB69" s="33"/>
+      <c r="AGC69" s="33"/>
+      <c r="AGD69" s="33"/>
+      <c r="AGE69" s="33"/>
+      <c r="AGF69" s="33"/>
+      <c r="AGG69" s="33"/>
+      <c r="AGH69" s="33"/>
+      <c r="AGI69" s="33"/>
+      <c r="AGJ69" s="33"/>
+      <c r="AGK69" s="33"/>
+      <c r="AGL69" s="33"/>
+      <c r="AGM69" s="33"/>
+      <c r="AGN69" s="33"/>
+      <c r="AGO69" s="33"/>
+      <c r="AGP69" s="33"/>
+      <c r="AGQ69" s="33"/>
+      <c r="AGR69" s="33"/>
+      <c r="AGS69" s="33"/>
+      <c r="AGT69" s="33"/>
+      <c r="AGU69" s="33"/>
+      <c r="AGV69" s="33"/>
+      <c r="AGW69" s="33"/>
+      <c r="AGX69" s="33"/>
+      <c r="AGY69" s="33"/>
+      <c r="AGZ69" s="33"/>
+      <c r="AHA69" s="33"/>
+      <c r="AHB69" s="33"/>
+      <c r="AHC69" s="33"/>
+      <c r="AHD69" s="33"/>
+      <c r="AHE69" s="33"/>
+      <c r="AHF69" s="33"/>
+      <c r="AHG69" s="33"/>
+      <c r="AHH69" s="33"/>
+      <c r="AHI69" s="33"/>
+      <c r="AHJ69" s="33"/>
+      <c r="AHK69" s="33"/>
+      <c r="AHL69" s="33"/>
+      <c r="AHM69" s="33"/>
+      <c r="AHN69" s="33"/>
+      <c r="AHO69" s="33"/>
+      <c r="AHP69" s="33"/>
+      <c r="AHQ69" s="33"/>
+      <c r="AHR69" s="33"/>
+      <c r="AHS69" s="33"/>
+      <c r="AHT69" s="33"/>
+      <c r="AHU69" s="33"/>
+      <c r="AHV69" s="33"/>
+      <c r="AHW69" s="33"/>
+      <c r="AHX69" s="33"/>
+      <c r="AHY69" s="33"/>
+      <c r="AHZ69" s="33"/>
+      <c r="AIA69" s="33"/>
+      <c r="AIB69" s="33"/>
+      <c r="AIC69" s="33"/>
+      <c r="AID69" s="33"/>
+      <c r="AIE69" s="33"/>
+      <c r="AIF69" s="33"/>
+      <c r="AIG69" s="33"/>
+      <c r="AIH69" s="33"/>
+      <c r="AII69" s="33"/>
+      <c r="AIJ69" s="33"/>
+      <c r="AIK69" s="33"/>
+      <c r="AIL69" s="33"/>
+      <c r="AIM69" s="33"/>
+      <c r="AIN69" s="33"/>
+      <c r="AIO69" s="33"/>
+      <c r="AIP69" s="33"/>
+      <c r="AIQ69" s="33"/>
+      <c r="AIR69" s="33"/>
+      <c r="AIS69" s="33"/>
+      <c r="AIT69" s="33"/>
+      <c r="AIU69" s="33"/>
+      <c r="AIV69" s="33"/>
+      <c r="AIW69" s="33"/>
+      <c r="AIX69" s="33"/>
+      <c r="AIY69" s="33"/>
+      <c r="AIZ69" s="33"/>
+      <c r="AJA69" s="33"/>
+      <c r="AJB69" s="33"/>
+      <c r="AJC69" s="33"/>
+      <c r="AJD69" s="33"/>
+      <c r="AJE69" s="33"/>
+      <c r="AJF69" s="33"/>
+      <c r="AJG69" s="33"/>
+      <c r="AJH69" s="33"/>
+      <c r="AJI69" s="33"/>
+      <c r="AJJ69" s="33"/>
+      <c r="AJK69" s="33"/>
+      <c r="AJL69" s="33"/>
+      <c r="AJM69" s="33"/>
+      <c r="AJN69" s="33"/>
+      <c r="AJO69" s="33"/>
+      <c r="AJP69" s="33"/>
+      <c r="AJQ69" s="33"/>
+      <c r="AJR69" s="33"/>
+      <c r="AJS69" s="33"/>
+      <c r="AJT69" s="33"/>
+      <c r="AJU69" s="33"/>
+      <c r="AJV69" s="33"/>
+      <c r="AJW69" s="33"/>
+      <c r="AJX69" s="33"/>
+      <c r="AJY69" s="33"/>
+      <c r="AJZ69" s="33"/>
+      <c r="AKA69" s="33"/>
+      <c r="AKB69" s="33"/>
+      <c r="AKC69" s="33"/>
+      <c r="AKD69" s="33"/>
+      <c r="AKE69" s="33"/>
+      <c r="AKF69" s="33"/>
+      <c r="AKG69" s="33"/>
+      <c r="AKH69" s="33"/>
+      <c r="AKI69" s="33"/>
+      <c r="AKJ69" s="33"/>
+      <c r="AKK69" s="33"/>
+      <c r="AKL69" s="33"/>
+      <c r="AKM69" s="33"/>
+      <c r="AKN69" s="33"/>
+      <c r="AKO69" s="33"/>
+      <c r="AKP69" s="33"/>
+      <c r="AKQ69" s="33"/>
+      <c r="AKR69" s="33"/>
+      <c r="AKS69" s="33"/>
+      <c r="AKT69" s="33"/>
+      <c r="AKU69" s="33"/>
+      <c r="AKV69" s="33"/>
+      <c r="AKW69" s="33"/>
+      <c r="AKX69" s="33"/>
+      <c r="AKY69" s="33"/>
+      <c r="AKZ69" s="33"/>
+      <c r="ALA69" s="33"/>
+      <c r="ALB69" s="33"/>
+      <c r="ALC69" s="33"/>
+      <c r="ALD69" s="33"/>
+      <c r="ALE69" s="33"/>
+      <c r="ALF69" s="33"/>
+      <c r="ALG69" s="33"/>
+      <c r="ALH69" s="33"/>
+      <c r="ALI69" s="33"/>
+      <c r="ALJ69" s="33"/>
+      <c r="ALK69" s="33"/>
+      <c r="ALL69" s="33"/>
+      <c r="ALM69" s="33"/>
+      <c r="ALN69" s="33"/>
+      <c r="ALO69" s="33"/>
+      <c r="ALP69" s="33"/>
+      <c r="ALQ69" s="33"/>
+      <c r="ALR69" s="33"/>
+      <c r="ALS69" s="33"/>
+      <c r="ALT69" s="33"/>
+      <c r="ALU69" s="33"/>
+      <c r="ALV69" s="33"/>
+      <c r="ALW69" s="33"/>
+      <c r="ALX69" s="33"/>
+      <c r="ALY69" s="33"/>
+      <c r="ALZ69" s="33"/>
+      <c r="AMA69" s="33"/>
+      <c r="AMB69" s="33"/>
+      <c r="AMC69" s="33"/>
+      <c r="AMD69" s="33"/>
+      <c r="AME69" s="33"/>
+      <c r="AMF69" s="33"/>
+      <c r="AMG69" s="33"/>
+      <c r="AMH69" s="33"/>
+      <c r="AMI69" s="33"/>
+      <c r="AMJ69" s="33"/>
+      <c r="AMK69" s="33"/>
+    </row>
+    <row r="70" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="34"/>
+      <c r="B70" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="33">
+        <v>7</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="33"/>
+      <c r="AH70" s="33"/>
+      <c r="AI70" s="33"/>
+      <c r="AJ70" s="33"/>
+      <c r="AK70" s="33"/>
+      <c r="AL70" s="33"/>
+      <c r="AM70" s="33"/>
+      <c r="AN70" s="33"/>
+      <c r="AO70" s="33"/>
+      <c r="AP70" s="33"/>
+      <c r="AQ70" s="33"/>
+      <c r="AR70" s="33"/>
+      <c r="AS70" s="33"/>
+      <c r="AT70" s="33"/>
+      <c r="AU70" s="33"/>
+      <c r="AV70" s="33"/>
+      <c r="AW70" s="33"/>
+      <c r="AX70" s="33"/>
+      <c r="AY70" s="33"/>
+      <c r="AZ70" s="33"/>
+      <c r="BA70" s="33"/>
+      <c r="BB70" s="33"/>
+      <c r="BC70" s="33"/>
+      <c r="BD70" s="33"/>
+      <c r="BE70" s="33"/>
+      <c r="BF70" s="33"/>
+      <c r="BG70" s="33"/>
+      <c r="BH70" s="33"/>
+      <c r="BI70" s="33"/>
+      <c r="BJ70" s="33"/>
+      <c r="BK70" s="33"/>
+      <c r="BL70" s="33"/>
+      <c r="BM70" s="33"/>
+      <c r="BN70" s="33"/>
+      <c r="BO70" s="33"/>
+      <c r="BP70" s="33"/>
+      <c r="BQ70" s="33"/>
+      <c r="BR70" s="33"/>
+      <c r="BS70" s="33"/>
+      <c r="BT70" s="33"/>
+      <c r="BU70" s="33"/>
+      <c r="BV70" s="33"/>
+      <c r="BW70" s="33"/>
+      <c r="BX70" s="33"/>
+      <c r="BY70" s="33"/>
+      <c r="BZ70" s="33"/>
+      <c r="CA70" s="33"/>
+      <c r="CB70" s="33"/>
+      <c r="CC70" s="33"/>
+      <c r="CD70" s="33"/>
+      <c r="CE70" s="33"/>
+      <c r="CF70" s="33"/>
+      <c r="CG70" s="33"/>
+      <c r="CH70" s="33"/>
+      <c r="CI70" s="33"/>
+      <c r="CJ70" s="33"/>
+      <c r="CK70" s="33"/>
+      <c r="CL70" s="33"/>
+      <c r="CM70" s="33"/>
+      <c r="CN70" s="33"/>
+      <c r="CO70" s="33"/>
+      <c r="CP70" s="33"/>
+      <c r="CQ70" s="33"/>
+      <c r="CR70" s="33"/>
+      <c r="CS70" s="33"/>
+      <c r="CT70" s="33"/>
+      <c r="CU70" s="33"/>
+      <c r="CV70" s="33"/>
+      <c r="CW70" s="33"/>
+      <c r="CX70" s="33"/>
+      <c r="CY70" s="33"/>
+      <c r="CZ70" s="33"/>
+      <c r="DA70" s="33"/>
+      <c r="DB70" s="33"/>
+      <c r="DC70" s="33"/>
+      <c r="DD70" s="33"/>
+      <c r="DE70" s="33"/>
+      <c r="DF70" s="33"/>
+      <c r="DG70" s="33"/>
+      <c r="DH70" s="33"/>
+      <c r="DI70" s="33"/>
+      <c r="DJ70" s="33"/>
+      <c r="DK70" s="33"/>
+      <c r="DL70" s="33"/>
+      <c r="DM70" s="33"/>
+      <c r="DN70" s="33"/>
+      <c r="DO70" s="33"/>
+      <c r="DP70" s="33"/>
+      <c r="DQ70" s="33"/>
+      <c r="DR70" s="33"/>
+      <c r="DS70" s="33"/>
+      <c r="DT70" s="33"/>
+      <c r="DU70" s="33"/>
+      <c r="DV70" s="33"/>
+      <c r="DW70" s="33"/>
+      <c r="DX70" s="33"/>
+      <c r="DY70" s="33"/>
+      <c r="DZ70" s="33"/>
+      <c r="EA70" s="33"/>
+      <c r="EB70" s="33"/>
+      <c r="EC70" s="33"/>
+      <c r="ED70" s="33"/>
+      <c r="EE70" s="33"/>
+      <c r="EF70" s="33"/>
+      <c r="EG70" s="33"/>
+      <c r="EH70" s="33"/>
+      <c r="EI70" s="33"/>
+      <c r="EJ70" s="33"/>
+      <c r="EK70" s="33"/>
+      <c r="EL70" s="33"/>
+      <c r="EM70" s="33"/>
+      <c r="EN70" s="33"/>
+      <c r="EO70" s="33"/>
+      <c r="EP70" s="33"/>
+      <c r="EQ70" s="33"/>
+      <c r="ER70" s="33"/>
+      <c r="ES70" s="33"/>
+      <c r="ET70" s="33"/>
+      <c r="EU70" s="33"/>
+      <c r="EV70" s="33"/>
+      <c r="EW70" s="33"/>
+      <c r="EX70" s="33"/>
+      <c r="EY70" s="33"/>
+      <c r="EZ70" s="33"/>
+      <c r="FA70" s="33"/>
+      <c r="FB70" s="33"/>
+      <c r="FC70" s="33"/>
+      <c r="FD70" s="33"/>
+      <c r="FE70" s="33"/>
+      <c r="FF70" s="33"/>
+      <c r="FG70" s="33"/>
+      <c r="FH70" s="33"/>
+      <c r="FI70" s="33"/>
+      <c r="FJ70" s="33"/>
+      <c r="FK70" s="33"/>
+      <c r="FL70" s="33"/>
+      <c r="FM70" s="33"/>
+      <c r="FN70" s="33"/>
+      <c r="FO70" s="33"/>
+      <c r="FP70" s="33"/>
+      <c r="FQ70" s="33"/>
+      <c r="FR70" s="33"/>
+      <c r="FS70" s="33"/>
+      <c r="FT70" s="33"/>
+      <c r="FU70" s="33"/>
+      <c r="FV70" s="33"/>
+      <c r="FW70" s="33"/>
+      <c r="FX70" s="33"/>
+      <c r="FY70" s="33"/>
+      <c r="FZ70" s="33"/>
+      <c r="GA70" s="33"/>
+      <c r="GB70" s="33"/>
+      <c r="GC70" s="33"/>
+      <c r="GD70" s="33"/>
+      <c r="GE70" s="33"/>
+      <c r="GF70" s="33"/>
+      <c r="GG70" s="33"/>
+      <c r="GH70" s="33"/>
+      <c r="GI70" s="33"/>
+      <c r="GJ70" s="33"/>
+      <c r="GK70" s="33"/>
+      <c r="GL70" s="33"/>
+      <c r="GM70" s="33"/>
+      <c r="GN70" s="33"/>
+      <c r="GO70" s="33"/>
+      <c r="GP70" s="33"/>
+      <c r="GQ70" s="33"/>
+      <c r="GR70" s="33"/>
+      <c r="GS70" s="33"/>
+      <c r="GT70" s="33"/>
+      <c r="GU70" s="33"/>
+      <c r="GV70" s="33"/>
+      <c r="GW70" s="33"/>
+      <c r="GX70" s="33"/>
+      <c r="GY70" s="33"/>
+      <c r="GZ70" s="33"/>
+      <c r="HA70" s="33"/>
+      <c r="HB70" s="33"/>
+      <c r="HC70" s="33"/>
+      <c r="HD70" s="33"/>
+      <c r="HE70" s="33"/>
+      <c r="HF70" s="33"/>
+      <c r="HG70" s="33"/>
+      <c r="HH70" s="33"/>
+      <c r="HI70" s="33"/>
+      <c r="HJ70" s="33"/>
+      <c r="HK70" s="33"/>
+      <c r="HL70" s="33"/>
+      <c r="HM70" s="33"/>
+      <c r="HN70" s="33"/>
+      <c r="HO70" s="33"/>
+      <c r="HP70" s="33"/>
+      <c r="HQ70" s="33"/>
+      <c r="HR70" s="33"/>
+      <c r="HS70" s="33"/>
+      <c r="HT70" s="33"/>
+      <c r="HU70" s="33"/>
+      <c r="HV70" s="33"/>
+      <c r="HW70" s="33"/>
+      <c r="HX70" s="33"/>
+      <c r="HY70" s="33"/>
+      <c r="HZ70" s="33"/>
+      <c r="IA70" s="33"/>
+      <c r="IB70" s="33"/>
+      <c r="IC70" s="33"/>
+      <c r="ID70" s="33"/>
+      <c r="IE70" s="33"/>
+      <c r="IF70" s="33"/>
+      <c r="IG70" s="33"/>
+      <c r="IH70" s="33"/>
+      <c r="II70" s="33"/>
+      <c r="IJ70" s="33"/>
+      <c r="IK70" s="33"/>
+      <c r="IL70" s="33"/>
+      <c r="IM70" s="33"/>
+      <c r="IN70" s="33"/>
+      <c r="IO70" s="33"/>
+      <c r="IP70" s="33"/>
+      <c r="IQ70" s="33"/>
+      <c r="IR70" s="33"/>
+      <c r="IS70" s="33"/>
+      <c r="IT70" s="33"/>
+      <c r="IU70" s="33"/>
+      <c r="IV70" s="33"/>
+      <c r="IW70" s="33"/>
+      <c r="IX70" s="33"/>
+      <c r="IY70" s="33"/>
+      <c r="IZ70" s="33"/>
+      <c r="JA70" s="33"/>
+      <c r="JB70" s="33"/>
+      <c r="JC70" s="33"/>
+      <c r="JD70" s="33"/>
+      <c r="JE70" s="33"/>
+      <c r="JF70" s="33"/>
+      <c r="JG70" s="33"/>
+      <c r="JH70" s="33"/>
+      <c r="JI70" s="33"/>
+      <c r="JJ70" s="33"/>
+      <c r="JK70" s="33"/>
+      <c r="JL70" s="33"/>
+      <c r="JM70" s="33"/>
+      <c r="JN70" s="33"/>
+      <c r="JO70" s="33"/>
+      <c r="JP70" s="33"/>
+      <c r="JQ70" s="33"/>
+      <c r="JR70" s="33"/>
+      <c r="JS70" s="33"/>
+      <c r="JT70" s="33"/>
+      <c r="JU70" s="33"/>
+      <c r="JV70" s="33"/>
+      <c r="JW70" s="33"/>
+      <c r="JX70" s="33"/>
+      <c r="JY70" s="33"/>
+      <c r="JZ70" s="33"/>
+      <c r="KA70" s="33"/>
+      <c r="KB70" s="33"/>
+      <c r="KC70" s="33"/>
+      <c r="KD70" s="33"/>
+      <c r="KE70" s="33"/>
+      <c r="KF70" s="33"/>
+      <c r="KG70" s="33"/>
+      <c r="KH70" s="33"/>
+      <c r="KI70" s="33"/>
+      <c r="KJ70" s="33"/>
+      <c r="KK70" s="33"/>
+      <c r="KL70" s="33"/>
+      <c r="KM70" s="33"/>
+      <c r="KN70" s="33"/>
+      <c r="KO70" s="33"/>
+      <c r="KP70" s="33"/>
+      <c r="KQ70" s="33"/>
+      <c r="KR70" s="33"/>
+      <c r="KS70" s="33"/>
+      <c r="KT70" s="33"/>
+      <c r="KU70" s="33"/>
+      <c r="KV70" s="33"/>
+      <c r="KW70" s="33"/>
+      <c r="KX70" s="33"/>
+      <c r="KY70" s="33"/>
+      <c r="KZ70" s="33"/>
+      <c r="LA70" s="33"/>
+      <c r="LB70" s="33"/>
+      <c r="LC70" s="33"/>
+      <c r="LD70" s="33"/>
+      <c r="LE70" s="33"/>
+      <c r="LF70" s="33"/>
+      <c r="LG70" s="33"/>
+      <c r="LH70" s="33"/>
+      <c r="LI70" s="33"/>
+      <c r="LJ70" s="33"/>
+      <c r="LK70" s="33"/>
+      <c r="LL70" s="33"/>
+      <c r="LM70" s="33"/>
+      <c r="LN70" s="33"/>
+      <c r="LO70" s="33"/>
+      <c r="LP70" s="33"/>
+      <c r="LQ70" s="33"/>
+      <c r="LR70" s="33"/>
+      <c r="LS70" s="33"/>
+      <c r="LT70" s="33"/>
+      <c r="LU70" s="33"/>
+      <c r="LV70" s="33"/>
+      <c r="LW70" s="33"/>
+      <c r="LX70" s="33"/>
+      <c r="LY70" s="33"/>
+      <c r="LZ70" s="33"/>
+      <c r="MA70" s="33"/>
+      <c r="MB70" s="33"/>
+      <c r="MC70" s="33"/>
+      <c r="MD70" s="33"/>
+      <c r="ME70" s="33"/>
+      <c r="MF70" s="33"/>
+      <c r="MG70" s="33"/>
+      <c r="MH70" s="33"/>
+      <c r="MI70" s="33"/>
+      <c r="MJ70" s="33"/>
+      <c r="MK70" s="33"/>
+      <c r="ML70" s="33"/>
+      <c r="MM70" s="33"/>
+      <c r="MN70" s="33"/>
+      <c r="MO70" s="33"/>
+      <c r="MP70" s="33"/>
+      <c r="MQ70" s="33"/>
+      <c r="MR70" s="33"/>
+      <c r="MS70" s="33"/>
+      <c r="MT70" s="33"/>
+      <c r="MU70" s="33"/>
+      <c r="MV70" s="33"/>
+      <c r="MW70" s="33"/>
+      <c r="MX70" s="33"/>
+      <c r="MY70" s="33"/>
+      <c r="MZ70" s="33"/>
+      <c r="NA70" s="33"/>
+      <c r="NB70" s="33"/>
+      <c r="NC70" s="33"/>
+      <c r="ND70" s="33"/>
+      <c r="NE70" s="33"/>
+      <c r="NF70" s="33"/>
+      <c r="NG70" s="33"/>
+      <c r="NH70" s="33"/>
+      <c r="NI70" s="33"/>
+      <c r="NJ70" s="33"/>
+      <c r="NK70" s="33"/>
+      <c r="NL70" s="33"/>
+      <c r="NM70" s="33"/>
+      <c r="NN70" s="33"/>
+      <c r="NO70" s="33"/>
+      <c r="NP70" s="33"/>
+      <c r="NQ70" s="33"/>
+      <c r="NR70" s="33"/>
+      <c r="NS70" s="33"/>
+      <c r="NT70" s="33"/>
+      <c r="NU70" s="33"/>
+      <c r="NV70" s="33"/>
+      <c r="NW70" s="33"/>
+      <c r="NX70" s="33"/>
+      <c r="NY70" s="33"/>
+      <c r="NZ70" s="33"/>
+      <c r="OA70" s="33"/>
+      <c r="OB70" s="33"/>
+      <c r="OC70" s="33"/>
+      <c r="OD70" s="33"/>
+      <c r="OE70" s="33"/>
+      <c r="OF70" s="33"/>
+      <c r="OG70" s="33"/>
+      <c r="OH70" s="33"/>
+      <c r="OI70" s="33"/>
+      <c r="OJ70" s="33"/>
+      <c r="OK70" s="33"/>
+      <c r="OL70" s="33"/>
+      <c r="OM70" s="33"/>
+      <c r="ON70" s="33"/>
+      <c r="OO70" s="33"/>
+      <c r="OP70" s="33"/>
+      <c r="OQ70" s="33"/>
+      <c r="OR70" s="33"/>
+      <c r="OS70" s="33"/>
+      <c r="OT70" s="33"/>
+      <c r="OU70" s="33"/>
+      <c r="OV70" s="33"/>
+      <c r="OW70" s="33"/>
+      <c r="OX70" s="33"/>
+      <c r="OY70" s="33"/>
+      <c r="OZ70" s="33"/>
+      <c r="PA70" s="33"/>
+      <c r="PB70" s="33"/>
+      <c r="PC70" s="33"/>
+      <c r="PD70" s="33"/>
+      <c r="PE70" s="33"/>
+      <c r="PF70" s="33"/>
+      <c r="PG70" s="33"/>
+      <c r="PH70" s="33"/>
+      <c r="PI70" s="33"/>
+      <c r="PJ70" s="33"/>
+      <c r="PK70" s="33"/>
+      <c r="PL70" s="33"/>
+      <c r="PM70" s="33"/>
+      <c r="PN70" s="33"/>
+      <c r="PO70" s="33"/>
+      <c r="PP70" s="33"/>
+      <c r="PQ70" s="33"/>
+      <c r="PR70" s="33"/>
+      <c r="PS70" s="33"/>
+      <c r="PT70" s="33"/>
+      <c r="PU70" s="33"/>
+      <c r="PV70" s="33"/>
+      <c r="PW70" s="33"/>
+      <c r="PX70" s="33"/>
+      <c r="PY70" s="33"/>
+      <c r="PZ70" s="33"/>
+      <c r="QA70" s="33"/>
+      <c r="QB70" s="33"/>
+      <c r="QC70" s="33"/>
+      <c r="QD70" s="33"/>
+      <c r="QE70" s="33"/>
+      <c r="QF70" s="33"/>
+      <c r="QG70" s="33"/>
+      <c r="QH70" s="33"/>
+      <c r="QI70" s="33"/>
+      <c r="QJ70" s="33"/>
+      <c r="QK70" s="33"/>
+      <c r="QL70" s="33"/>
+      <c r="QM70" s="33"/>
+      <c r="QN70" s="33"/>
+      <c r="QO70" s="33"/>
+      <c r="QP70" s="33"/>
+      <c r="QQ70" s="33"/>
+      <c r="QR70" s="33"/>
+      <c r="QS70" s="33"/>
+      <c r="QT70" s="33"/>
+      <c r="QU70" s="33"/>
+      <c r="QV70" s="33"/>
+      <c r="QW70" s="33"/>
+      <c r="QX70" s="33"/>
+      <c r="QY70" s="33"/>
+      <c r="QZ70" s="33"/>
+      <c r="RA70" s="33"/>
+      <c r="RB70" s="33"/>
+      <c r="RC70" s="33"/>
+      <c r="RD70" s="33"/>
+      <c r="RE70" s="33"/>
+      <c r="RF70" s="33"/>
+      <c r="RG70" s="33"/>
+      <c r="RH70" s="33"/>
+      <c r="RI70" s="33"/>
+      <c r="RJ70" s="33"/>
+      <c r="RK70" s="33"/>
+      <c r="RL70" s="33"/>
+      <c r="RM70" s="33"/>
+      <c r="RN70" s="33"/>
+      <c r="RO70" s="33"/>
+      <c r="RP70" s="33"/>
+      <c r="RQ70" s="33"/>
+      <c r="RR70" s="33"/>
+      <c r="RS70" s="33"/>
+      <c r="RT70" s="33"/>
+      <c r="RU70" s="33"/>
+      <c r="RV70" s="33"/>
+      <c r="RW70" s="33"/>
+      <c r="RX70" s="33"/>
+      <c r="RY70" s="33"/>
+      <c r="RZ70" s="33"/>
+      <c r="SA70" s="33"/>
+      <c r="SB70" s="33"/>
+      <c r="SC70" s="33"/>
+      <c r="SD70" s="33"/>
+      <c r="SE70" s="33"/>
+      <c r="SF70" s="33"/>
+      <c r="SG70" s="33"/>
+      <c r="SH70" s="33"/>
+      <c r="SI70" s="33"/>
+      <c r="SJ70" s="33"/>
+      <c r="SK70" s="33"/>
+      <c r="SL70" s="33"/>
+      <c r="SM70" s="33"/>
+      <c r="SN70" s="33"/>
+      <c r="SO70" s="33"/>
+      <c r="SP70" s="33"/>
+      <c r="SQ70" s="33"/>
+      <c r="SR70" s="33"/>
+      <c r="SS70" s="33"/>
+      <c r="ST70" s="33"/>
+      <c r="SU70" s="33"/>
+      <c r="SV70" s="33"/>
+      <c r="SW70" s="33"/>
+      <c r="SX70" s="33"/>
+      <c r="SY70" s="33"/>
+      <c r="SZ70" s="33"/>
+      <c r="TA70" s="33"/>
+      <c r="TB70" s="33"/>
+      <c r="TC70" s="33"/>
+      <c r="TD70" s="33"/>
+      <c r="TE70" s="33"/>
+      <c r="TF70" s="33"/>
+      <c r="TG70" s="33"/>
+      <c r="TH70" s="33"/>
+      <c r="TI70" s="33"/>
+      <c r="TJ70" s="33"/>
+      <c r="TK70" s="33"/>
+      <c r="TL70" s="33"/>
+      <c r="TM70" s="33"/>
+      <c r="TN70" s="33"/>
+      <c r="TO70" s="33"/>
+      <c r="TP70" s="33"/>
+      <c r="TQ70" s="33"/>
+      <c r="TR70" s="33"/>
+      <c r="TS70" s="33"/>
+      <c r="TT70" s="33"/>
+      <c r="TU70" s="33"/>
+      <c r="TV70" s="33"/>
+      <c r="TW70" s="33"/>
+      <c r="TX70" s="33"/>
+      <c r="TY70" s="33"/>
+      <c r="TZ70" s="33"/>
+      <c r="UA70" s="33"/>
+      <c r="UB70" s="33"/>
+      <c r="UC70" s="33"/>
+      <c r="UD70" s="33"/>
+      <c r="UE70" s="33"/>
+      <c r="UF70" s="33"/>
+      <c r="UG70" s="33"/>
+      <c r="UH70" s="33"/>
+      <c r="UI70" s="33"/>
+      <c r="UJ70" s="33"/>
+      <c r="UK70" s="33"/>
+      <c r="UL70" s="33"/>
+      <c r="UM70" s="33"/>
+      <c r="UN70" s="33"/>
+      <c r="UO70" s="33"/>
+      <c r="UP70" s="33"/>
+      <c r="UQ70" s="33"/>
+      <c r="UR70" s="33"/>
+      <c r="US70" s="33"/>
+      <c r="UT70" s="33"/>
+      <c r="UU70" s="33"/>
+      <c r="UV70" s="33"/>
+      <c r="UW70" s="33"/>
+      <c r="UX70" s="33"/>
+      <c r="UY70" s="33"/>
+      <c r="UZ70" s="33"/>
+      <c r="VA70" s="33"/>
+      <c r="VB70" s="33"/>
+      <c r="VC70" s="33"/>
+      <c r="VD70" s="33"/>
+      <c r="VE70" s="33"/>
+      <c r="VF70" s="33"/>
+      <c r="VG70" s="33"/>
+      <c r="VH70" s="33"/>
+      <c r="VI70" s="33"/>
+      <c r="VJ70" s="33"/>
+      <c r="VK70" s="33"/>
+      <c r="VL70" s="33"/>
+      <c r="VM70" s="33"/>
+      <c r="VN70" s="33"/>
+      <c r="VO70" s="33"/>
+      <c r="VP70" s="33"/>
+      <c r="VQ70" s="33"/>
+      <c r="VR70" s="33"/>
+      <c r="VS70" s="33"/>
+      <c r="VT70" s="33"/>
+      <c r="VU70" s="33"/>
+      <c r="VV70" s="33"/>
+      <c r="VW70" s="33"/>
+      <c r="VX70" s="33"/>
+      <c r="VY70" s="33"/>
+      <c r="VZ70" s="33"/>
+      <c r="WA70" s="33"/>
+      <c r="WB70" s="33"/>
+      <c r="WC70" s="33"/>
+      <c r="WD70" s="33"/>
+      <c r="WE70" s="33"/>
+      <c r="WF70" s="33"/>
+      <c r="WG70" s="33"/>
+      <c r="WH70" s="33"/>
+      <c r="WI70" s="33"/>
+      <c r="WJ70" s="33"/>
+      <c r="WK70" s="33"/>
+      <c r="WL70" s="33"/>
+      <c r="WM70" s="33"/>
+      <c r="WN70" s="33"/>
+      <c r="WO70" s="33"/>
+      <c r="WP70" s="33"/>
+      <c r="WQ70" s="33"/>
+      <c r="WR70" s="33"/>
+      <c r="WS70" s="33"/>
+      <c r="WT70" s="33"/>
+      <c r="WU70" s="33"/>
+      <c r="WV70" s="33"/>
+      <c r="WW70" s="33"/>
+      <c r="WX70" s="33"/>
+      <c r="WY70" s="33"/>
+      <c r="WZ70" s="33"/>
+      <c r="XA70" s="33"/>
+      <c r="XB70" s="33"/>
+      <c r="XC70" s="33"/>
+      <c r="XD70" s="33"/>
+      <c r="XE70" s="33"/>
+      <c r="XF70" s="33"/>
+      <c r="XG70" s="33"/>
+      <c r="XH70" s="33"/>
+      <c r="XI70" s="33"/>
+      <c r="XJ70" s="33"/>
+      <c r="XK70" s="33"/>
+      <c r="XL70" s="33"/>
+      <c r="XM70" s="33"/>
+      <c r="XN70" s="33"/>
+      <c r="XO70" s="33"/>
+      <c r="XP70" s="33"/>
+      <c r="XQ70" s="33"/>
+      <c r="XR70" s="33"/>
+      <c r="XS70" s="33"/>
+      <c r="XT70" s="33"/>
+      <c r="XU70" s="33"/>
+      <c r="XV70" s="33"/>
+      <c r="XW70" s="33"/>
+      <c r="XX70" s="33"/>
+      <c r="XY70" s="33"/>
+      <c r="XZ70" s="33"/>
+      <c r="YA70" s="33"/>
+      <c r="YB70" s="33"/>
+      <c r="YC70" s="33"/>
+      <c r="YD70" s="33"/>
+      <c r="YE70" s="33"/>
+      <c r="YF70" s="33"/>
+      <c r="YG70" s="33"/>
+      <c r="YH70" s="33"/>
+      <c r="YI70" s="33"/>
+      <c r="YJ70" s="33"/>
+      <c r="YK70" s="33"/>
+      <c r="YL70" s="33"/>
+      <c r="YM70" s="33"/>
+      <c r="YN70" s="33"/>
+      <c r="YO70" s="33"/>
+      <c r="YP70" s="33"/>
+      <c r="YQ70" s="33"/>
+      <c r="YR70" s="33"/>
+      <c r="YS70" s="33"/>
+      <c r="YT70" s="33"/>
+      <c r="YU70" s="33"/>
+      <c r="YV70" s="33"/>
+      <c r="YW70" s="33"/>
+      <c r="YX70" s="33"/>
+      <c r="YY70" s="33"/>
+      <c r="YZ70" s="33"/>
+      <c r="ZA70" s="33"/>
+      <c r="ZB70" s="33"/>
+      <c r="ZC70" s="33"/>
+      <c r="ZD70" s="33"/>
+      <c r="ZE70" s="33"/>
+      <c r="ZF70" s="33"/>
+      <c r="ZG70" s="33"/>
+      <c r="ZH70" s="33"/>
+      <c r="ZI70" s="33"/>
+      <c r="ZJ70" s="33"/>
+      <c r="ZK70" s="33"/>
+      <c r="ZL70" s="33"/>
+      <c r="ZM70" s="33"/>
+      <c r="ZN70" s="33"/>
+      <c r="ZO70" s="33"/>
+      <c r="ZP70" s="33"/>
+      <c r="ZQ70" s="33"/>
+      <c r="ZR70" s="33"/>
+      <c r="ZS70" s="33"/>
+      <c r="ZT70" s="33"/>
+      <c r="ZU70" s="33"/>
+      <c r="ZV70" s="33"/>
+      <c r="ZW70" s="33"/>
+      <c r="ZX70" s="33"/>
+      <c r="ZY70" s="33"/>
+      <c r="ZZ70" s="33"/>
+      <c r="AAA70" s="33"/>
+      <c r="AAB70" s="33"/>
+      <c r="AAC70" s="33"/>
+      <c r="AAD70" s="33"/>
+      <c r="AAE70" s="33"/>
+      <c r="AAF70" s="33"/>
+      <c r="AAG70" s="33"/>
+      <c r="AAH70" s="33"/>
+      <c r="AAI70" s="33"/>
+      <c r="AAJ70" s="33"/>
+      <c r="AAK70" s="33"/>
+      <c r="AAL70" s="33"/>
+      <c r="AAM70" s="33"/>
+      <c r="AAN70" s="33"/>
+      <c r="AAO70" s="33"/>
+      <c r="AAP70" s="33"/>
+      <c r="AAQ70" s="33"/>
+      <c r="AAR70" s="33"/>
+      <c r="AAS70" s="33"/>
+      <c r="AAT70" s="33"/>
+      <c r="AAU70" s="33"/>
+      <c r="AAV70" s="33"/>
+      <c r="AAW70" s="33"/>
+      <c r="AAX70" s="33"/>
+      <c r="AAY70" s="33"/>
+      <c r="AAZ70" s="33"/>
+      <c r="ABA70" s="33"/>
+      <c r="ABB70" s="33"/>
+      <c r="ABC70" s="33"/>
+      <c r="ABD70" s="33"/>
+      <c r="ABE70" s="33"/>
+      <c r="ABF70" s="33"/>
+      <c r="ABG70" s="33"/>
+      <c r="ABH70" s="33"/>
+      <c r="ABI70" s="33"/>
+      <c r="ABJ70" s="33"/>
+      <c r="ABK70" s="33"/>
+      <c r="ABL70" s="33"/>
+      <c r="ABM70" s="33"/>
+      <c r="ABN70" s="33"/>
+      <c r="ABO70" s="33"/>
+      <c r="ABP70" s="33"/>
+      <c r="ABQ70" s="33"/>
+      <c r="ABR70" s="33"/>
+      <c r="ABS70" s="33"/>
+      <c r="ABT70" s="33"/>
+      <c r="ABU70" s="33"/>
+      <c r="ABV70" s="33"/>
+      <c r="ABW70" s="33"/>
+      <c r="ABX70" s="33"/>
+      <c r="ABY70" s="33"/>
+      <c r="ABZ70" s="33"/>
+      <c r="ACA70" s="33"/>
+      <c r="ACB70" s="33"/>
+      <c r="ACC70" s="33"/>
+      <c r="ACD70" s="33"/>
+      <c r="ACE70" s="33"/>
+      <c r="ACF70" s="33"/>
+      <c r="ACG70" s="33"/>
+      <c r="ACH70" s="33"/>
+      <c r="ACI70" s="33"/>
+      <c r="ACJ70" s="33"/>
+      <c r="ACK70" s="33"/>
+      <c r="ACL70" s="33"/>
+      <c r="ACM70" s="33"/>
+      <c r="ACN70" s="33"/>
+      <c r="ACO70" s="33"/>
+      <c r="ACP70" s="33"/>
+      <c r="ACQ70" s="33"/>
+      <c r="ACR70" s="33"/>
+      <c r="ACS70" s="33"/>
+      <c r="ACT70" s="33"/>
+      <c r="ACU70" s="33"/>
+      <c r="ACV70" s="33"/>
+      <c r="ACW70" s="33"/>
+      <c r="ACX70" s="33"/>
+      <c r="ACY70" s="33"/>
+      <c r="ACZ70" s="33"/>
+      <c r="ADA70" s="33"/>
+      <c r="ADB70" s="33"/>
+      <c r="ADC70" s="33"/>
+      <c r="ADD70" s="33"/>
+      <c r="ADE70" s="33"/>
+      <c r="ADF70" s="33"/>
+      <c r="ADG70" s="33"/>
+      <c r="ADH70" s="33"/>
+      <c r="ADI70" s="33"/>
+      <c r="ADJ70" s="33"/>
+      <c r="ADK70" s="33"/>
+      <c r="ADL70" s="33"/>
+      <c r="ADM70" s="33"/>
+      <c r="ADN70" s="33"/>
+      <c r="ADO70" s="33"/>
+      <c r="ADP70" s="33"/>
+      <c r="ADQ70" s="33"/>
+      <c r="ADR70" s="33"/>
+      <c r="ADS70" s="33"/>
+      <c r="ADT70" s="33"/>
+      <c r="ADU70" s="33"/>
+      <c r="ADV70" s="33"/>
+      <c r="ADW70" s="33"/>
+      <c r="ADX70" s="33"/>
+      <c r="ADY70" s="33"/>
+      <c r="ADZ70" s="33"/>
+      <c r="AEA70" s="33"/>
+      <c r="AEB70" s="33"/>
+      <c r="AEC70" s="33"/>
+      <c r="AED70" s="33"/>
+      <c r="AEE70" s="33"/>
+      <c r="AEF70" s="33"/>
+      <c r="AEG70" s="33"/>
+      <c r="AEH70" s="33"/>
+      <c r="AEI70" s="33"/>
+      <c r="AEJ70" s="33"/>
+      <c r="AEK70" s="33"/>
+      <c r="AEL70" s="33"/>
+      <c r="AEM70" s="33"/>
+      <c r="AEN70" s="33"/>
+      <c r="AEO70" s="33"/>
+      <c r="AEP70" s="33"/>
+      <c r="AEQ70" s="33"/>
+      <c r="AER70" s="33"/>
+      <c r="AES70" s="33"/>
+      <c r="AET70" s="33"/>
+      <c r="AEU70" s="33"/>
+      <c r="AEV70" s="33"/>
+      <c r="AEW70" s="33"/>
+      <c r="AEX70" s="33"/>
+      <c r="AEY70" s="33"/>
+      <c r="AEZ70" s="33"/>
+      <c r="AFA70" s="33"/>
+      <c r="AFB70" s="33"/>
+      <c r="AFC70" s="33"/>
+      <c r="AFD70" s="33"/>
+      <c r="AFE70" s="33"/>
+      <c r="AFF70" s="33"/>
+      <c r="AFG70" s="33"/>
+      <c r="AFH70" s="33"/>
+      <c r="AFI70" s="33"/>
+      <c r="AFJ70" s="33"/>
+      <c r="AFK70" s="33"/>
+      <c r="AFL70" s="33"/>
+      <c r="AFM70" s="33"/>
+      <c r="AFN70" s="33"/>
+      <c r="AFO70" s="33"/>
+      <c r="AFP70" s="33"/>
+      <c r="AFQ70" s="33"/>
+      <c r="AFR70" s="33"/>
+      <c r="AFS70" s="33"/>
+      <c r="AFT70" s="33"/>
+      <c r="AFU70" s="33"/>
+      <c r="AFV70" s="33"/>
+      <c r="AFW70" s="33"/>
+      <c r="AFX70" s="33"/>
+      <c r="AFY70" s="33"/>
+      <c r="AFZ70" s="33"/>
+      <c r="AGA70" s="33"/>
+      <c r="AGB70" s="33"/>
+      <c r="AGC70" s="33"/>
+      <c r="AGD70" s="33"/>
+      <c r="AGE70" s="33"/>
+      <c r="AGF70" s="33"/>
+      <c r="AGG70" s="33"/>
+      <c r="AGH70" s="33"/>
+      <c r="AGI70" s="33"/>
+      <c r="AGJ70" s="33"/>
+      <c r="AGK70" s="33"/>
+      <c r="AGL70" s="33"/>
+      <c r="AGM70" s="33"/>
+      <c r="AGN70" s="33"/>
+      <c r="AGO70" s="33"/>
+      <c r="AGP70" s="33"/>
+      <c r="AGQ70" s="33"/>
+      <c r="AGR70" s="33"/>
+      <c r="AGS70" s="33"/>
+      <c r="AGT70" s="33"/>
+      <c r="AGU70" s="33"/>
+      <c r="AGV70" s="33"/>
+      <c r="AGW70" s="33"/>
+      <c r="AGX70" s="33"/>
+      <c r="AGY70" s="33"/>
+      <c r="AGZ70" s="33"/>
+      <c r="AHA70" s="33"/>
+      <c r="AHB70" s="33"/>
+      <c r="AHC70" s="33"/>
+      <c r="AHD70" s="33"/>
+      <c r="AHE70" s="33"/>
+      <c r="AHF70" s="33"/>
+      <c r="AHG70" s="33"/>
+      <c r="AHH70" s="33"/>
+      <c r="AHI70" s="33"/>
+      <c r="AHJ70" s="33"/>
+      <c r="AHK70" s="33"/>
+      <c r="AHL70" s="33"/>
+      <c r="AHM70" s="33"/>
+      <c r="AHN70" s="33"/>
+      <c r="AHO70" s="33"/>
+      <c r="AHP70" s="33"/>
+      <c r="AHQ70" s="33"/>
+      <c r="AHR70" s="33"/>
+      <c r="AHS70" s="33"/>
+      <c r="AHT70" s="33"/>
+      <c r="AHU70" s="33"/>
+      <c r="AHV70" s="33"/>
+      <c r="AHW70" s="33"/>
+      <c r="AHX70" s="33"/>
+      <c r="AHY70" s="33"/>
+      <c r="AHZ70" s="33"/>
+      <c r="AIA70" s="33"/>
+      <c r="AIB70" s="33"/>
+      <c r="AIC70" s="33"/>
+      <c r="AID70" s="33"/>
+      <c r="AIE70" s="33"/>
+      <c r="AIF70" s="33"/>
+      <c r="AIG70" s="33"/>
+      <c r="AIH70" s="33"/>
+      <c r="AII70" s="33"/>
+      <c r="AIJ70" s="33"/>
+      <c r="AIK70" s="33"/>
+      <c r="AIL70" s="33"/>
+      <c r="AIM70" s="33"/>
+      <c r="AIN70" s="33"/>
+      <c r="AIO70" s="33"/>
+      <c r="AIP70" s="33"/>
+      <c r="AIQ70" s="33"/>
+      <c r="AIR70" s="33"/>
+      <c r="AIS70" s="33"/>
+      <c r="AIT70" s="33"/>
+      <c r="AIU70" s="33"/>
+      <c r="AIV70" s="33"/>
+      <c r="AIW70" s="33"/>
+      <c r="AIX70" s="33"/>
+      <c r="AIY70" s="33"/>
+      <c r="AIZ70" s="33"/>
+      <c r="AJA70" s="33"/>
+      <c r="AJB70" s="33"/>
+      <c r="AJC70" s="33"/>
+      <c r="AJD70" s="33"/>
+      <c r="AJE70" s="33"/>
+      <c r="AJF70" s="33"/>
+      <c r="AJG70" s="33"/>
+      <c r="AJH70" s="33"/>
+      <c r="AJI70" s="33"/>
+      <c r="AJJ70" s="33"/>
+      <c r="AJK70" s="33"/>
+      <c r="AJL70" s="33"/>
+      <c r="AJM70" s="33"/>
+      <c r="AJN70" s="33"/>
+      <c r="AJO70" s="33"/>
+      <c r="AJP70" s="33"/>
+      <c r="AJQ70" s="33"/>
+      <c r="AJR70" s="33"/>
+      <c r="AJS70" s="33"/>
+      <c r="AJT70" s="33"/>
+      <c r="AJU70" s="33"/>
+      <c r="AJV70" s="33"/>
+      <c r="AJW70" s="33"/>
+      <c r="AJX70" s="33"/>
+      <c r="AJY70" s="33"/>
+      <c r="AJZ70" s="33"/>
+      <c r="AKA70" s="33"/>
+      <c r="AKB70" s="33"/>
+      <c r="AKC70" s="33"/>
+      <c r="AKD70" s="33"/>
+      <c r="AKE70" s="33"/>
+      <c r="AKF70" s="33"/>
+      <c r="AKG70" s="33"/>
+      <c r="AKH70" s="33"/>
+      <c r="AKI70" s="33"/>
+      <c r="AKJ70" s="33"/>
+      <c r="AKK70" s="33"/>
+      <c r="AKL70" s="33"/>
+      <c r="AKM70" s="33"/>
+      <c r="AKN70" s="33"/>
+      <c r="AKO70" s="33"/>
+      <c r="AKP70" s="33"/>
+      <c r="AKQ70" s="33"/>
+      <c r="AKR70" s="33"/>
+      <c r="AKS70" s="33"/>
+      <c r="AKT70" s="33"/>
+      <c r="AKU70" s="33"/>
+      <c r="AKV70" s="33"/>
+      <c r="AKW70" s="33"/>
+      <c r="AKX70" s="33"/>
+      <c r="AKY70" s="33"/>
+      <c r="AKZ70" s="33"/>
+      <c r="ALA70" s="33"/>
+      <c r="ALB70" s="33"/>
+      <c r="ALC70" s="33"/>
+      <c r="ALD70" s="33"/>
+      <c r="ALE70" s="33"/>
+      <c r="ALF70" s="33"/>
+      <c r="ALG70" s="33"/>
+      <c r="ALH70" s="33"/>
+      <c r="ALI70" s="33"/>
+      <c r="ALJ70" s="33"/>
+      <c r="ALK70" s="33"/>
+      <c r="ALL70" s="33"/>
+      <c r="ALM70" s="33"/>
+      <c r="ALN70" s="33"/>
+      <c r="ALO70" s="33"/>
+      <c r="ALP70" s="33"/>
+      <c r="ALQ70" s="33"/>
+      <c r="ALR70" s="33"/>
+      <c r="ALS70" s="33"/>
+      <c r="ALT70" s="33"/>
+      <c r="ALU70" s="33"/>
+      <c r="ALV70" s="33"/>
+      <c r="ALW70" s="33"/>
+      <c r="ALX70" s="33"/>
+      <c r="ALY70" s="33"/>
+      <c r="ALZ70" s="33"/>
+      <c r="AMA70" s="33"/>
+      <c r="AMB70" s="33"/>
+      <c r="AMC70" s="33"/>
+      <c r="AMD70" s="33"/>
+      <c r="AME70" s="33"/>
+      <c r="AMF70" s="33"/>
+      <c r="AMG70" s="33"/>
+      <c r="AMH70" s="33"/>
+      <c r="AMI70" s="33"/>
+      <c r="AMJ70" s="33"/>
+      <c r="AMK70" s="33"/>
+    </row>
+    <row r="71" spans="1:1025" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="33">
+        <v>9</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="33"/>
+      <c r="AG71" s="33"/>
+      <c r="AH71" s="33"/>
+      <c r="AI71" s="33"/>
+      <c r="AJ71" s="33"/>
+      <c r="AK71" s="33"/>
+      <c r="AL71" s="33"/>
+      <c r="AM71" s="33"/>
+      <c r="AN71" s="33"/>
+      <c r="AO71" s="33"/>
+      <c r="AP71" s="33"/>
+      <c r="AQ71" s="33"/>
+      <c r="AR71" s="33"/>
+      <c r="AS71" s="33"/>
+      <c r="AT71" s="33"/>
+      <c r="AU71" s="33"/>
+      <c r="AV71" s="33"/>
+      <c r="AW71" s="33"/>
+      <c r="AX71" s="33"/>
+      <c r="AY71" s="33"/>
+      <c r="AZ71" s="33"/>
+      <c r="BA71" s="33"/>
+      <c r="BB71" s="33"/>
+      <c r="BC71" s="33"/>
+      <c r="BD71" s="33"/>
+      <c r="BE71" s="33"/>
+      <c r="BF71" s="33"/>
+      <c r="BG71" s="33"/>
+      <c r="BH71" s="33"/>
+      <c r="BI71" s="33"/>
+      <c r="BJ71" s="33"/>
+      <c r="BK71" s="33"/>
+      <c r="BL71" s="33"/>
+      <c r="BM71" s="33"/>
+      <c r="BN71" s="33"/>
+      <c r="BO71" s="33"/>
+      <c r="BP71" s="33"/>
+      <c r="BQ71" s="33"/>
+      <c r="BR71" s="33"/>
+      <c r="BS71" s="33"/>
+      <c r="BT71" s="33"/>
+      <c r="BU71" s="33"/>
+      <c r="BV71" s="33"/>
+      <c r="BW71" s="33"/>
+      <c r="BX71" s="33"/>
+      <c r="BY71" s="33"/>
+      <c r="BZ71" s="33"/>
+      <c r="CA71" s="33"/>
+      <c r="CB71" s="33"/>
+      <c r="CC71" s="33"/>
+      <c r="CD71" s="33"/>
+      <c r="CE71" s="33"/>
+      <c r="CF71" s="33"/>
+      <c r="CG71" s="33"/>
+      <c r="CH71" s="33"/>
+      <c r="CI71" s="33"/>
+      <c r="CJ71" s="33"/>
+      <c r="CK71" s="33"/>
+      <c r="CL71" s="33"/>
+      <c r="CM71" s="33"/>
+      <c r="CN71" s="33"/>
+      <c r="CO71" s="33"/>
+      <c r="CP71" s="33"/>
+      <c r="CQ71" s="33"/>
+      <c r="CR71" s="33"/>
+      <c r="CS71" s="33"/>
+      <c r="CT71" s="33"/>
+      <c r="CU71" s="33"/>
+      <c r="CV71" s="33"/>
+      <c r="CW71" s="33"/>
+      <c r="CX71" s="33"/>
+      <c r="CY71" s="33"/>
+      <c r="CZ71" s="33"/>
+      <c r="DA71" s="33"/>
+      <c r="DB71" s="33"/>
+      <c r="DC71" s="33"/>
+      <c r="DD71" s="33"/>
+      <c r="DE71" s="33"/>
+      <c r="DF71" s="33"/>
+      <c r="DG71" s="33"/>
+      <c r="DH71" s="33"/>
+      <c r="DI71" s="33"/>
+      <c r="DJ71" s="33"/>
+      <c r="DK71" s="33"/>
+      <c r="DL71" s="33"/>
+      <c r="DM71" s="33"/>
+      <c r="DN71" s="33"/>
+      <c r="DO71" s="33"/>
+      <c r="DP71" s="33"/>
+      <c r="DQ71" s="33"/>
+      <c r="DR71" s="33"/>
+      <c r="DS71" s="33"/>
+      <c r="DT71" s="33"/>
+      <c r="DU71" s="33"/>
+      <c r="DV71" s="33"/>
+      <c r="DW71" s="33"/>
+      <c r="DX71" s="33"/>
+      <c r="DY71" s="33"/>
+      <c r="DZ71" s="33"/>
+      <c r="EA71" s="33"/>
+      <c r="EB71" s="33"/>
+      <c r="EC71" s="33"/>
+      <c r="ED71" s="33"/>
+      <c r="EE71" s="33"/>
+      <c r="EF71" s="33"/>
+      <c r="EG71" s="33"/>
+      <c r="EH71" s="33"/>
+      <c r="EI71" s="33"/>
+      <c r="EJ71" s="33"/>
+      <c r="EK71" s="33"/>
+      <c r="EL71" s="33"/>
+      <c r="EM71" s="33"/>
+      <c r="EN71" s="33"/>
+      <c r="EO71" s="33"/>
+      <c r="EP71" s="33"/>
+      <c r="EQ71" s="33"/>
+      <c r="ER71" s="33"/>
+      <c r="ES71" s="33"/>
+      <c r="ET71" s="33"/>
+      <c r="EU71" s="33"/>
+      <c r="EV71" s="33"/>
+      <c r="EW71" s="33"/>
+      <c r="EX71" s="33"/>
+      <c r="EY71" s="33"/>
+      <c r="EZ71" s="33"/>
+      <c r="FA71" s="33"/>
+      <c r="FB71" s="33"/>
+      <c r="FC71" s="33"/>
+      <c r="FD71" s="33"/>
+      <c r="FE71" s="33"/>
+      <c r="FF71" s="33"/>
+      <c r="FG71" s="33"/>
+      <c r="FH71" s="33"/>
+      <c r="FI71" s="33"/>
+      <c r="FJ71" s="33"/>
+      <c r="FK71" s="33"/>
+      <c r="FL71" s="33"/>
+      <c r="FM71" s="33"/>
+      <c r="FN71" s="33"/>
+      <c r="FO71" s="33"/>
+      <c r="FP71" s="33"/>
+      <c r="FQ71" s="33"/>
+      <c r="FR71" s="33"/>
+      <c r="FS71" s="33"/>
+      <c r="FT71" s="33"/>
+      <c r="FU71" s="33"/>
+      <c r="FV71" s="33"/>
+      <c r="FW71" s="33"/>
+      <c r="FX71" s="33"/>
+      <c r="FY71" s="33"/>
+      <c r="FZ71" s="33"/>
+      <c r="GA71" s="33"/>
+      <c r="GB71" s="33"/>
+      <c r="GC71" s="33"/>
+      <c r="GD71" s="33"/>
+      <c r="GE71" s="33"/>
+      <c r="GF71" s="33"/>
+      <c r="GG71" s="33"/>
+      <c r="GH71" s="33"/>
+      <c r="GI71" s="33"/>
+      <c r="GJ71" s="33"/>
+      <c r="GK71" s="33"/>
+      <c r="GL71" s="33"/>
+      <c r="GM71" s="33"/>
+      <c r="GN71" s="33"/>
+      <c r="GO71" s="33"/>
+      <c r="GP71" s="33"/>
+      <c r="GQ71" s="33"/>
+      <c r="GR71" s="33"/>
+      <c r="GS71" s="33"/>
+      <c r="GT71" s="33"/>
+      <c r="GU71" s="33"/>
+      <c r="GV71" s="33"/>
+      <c r="GW71" s="33"/>
+      <c r="GX71" s="33"/>
+      <c r="GY71" s="33"/>
+      <c r="GZ71" s="33"/>
+      <c r="HA71" s="33"/>
+      <c r="HB71" s="33"/>
+      <c r="HC71" s="33"/>
+      <c r="HD71" s="33"/>
+      <c r="HE71" s="33"/>
+      <c r="HF71" s="33"/>
+      <c r="HG71" s="33"/>
+      <c r="HH71" s="33"/>
+      <c r="HI71" s="33"/>
+      <c r="HJ71" s="33"/>
+      <c r="HK71" s="33"/>
+      <c r="HL71" s="33"/>
+      <c r="HM71" s="33"/>
+      <c r="HN71" s="33"/>
+      <c r="HO71" s="33"/>
+      <c r="HP71" s="33"/>
+      <c r="HQ71" s="33"/>
+      <c r="HR71" s="33"/>
+      <c r="HS71" s="33"/>
+      <c r="HT71" s="33"/>
+      <c r="HU71" s="33"/>
+      <c r="HV71" s="33"/>
+      <c r="HW71" s="33"/>
+      <c r="HX71" s="33"/>
+      <c r="HY71" s="33"/>
+      <c r="HZ71" s="33"/>
+      <c r="IA71" s="33"/>
+      <c r="IB71" s="33"/>
+      <c r="IC71" s="33"/>
+      <c r="ID71" s="33"/>
+      <c r="IE71" s="33"/>
+      <c r="IF71" s="33"/>
+      <c r="IG71" s="33"/>
+      <c r="IH71" s="33"/>
+      <c r="II71" s="33"/>
+      <c r="IJ71" s="33"/>
+      <c r="IK71" s="33"/>
+      <c r="IL71" s="33"/>
+      <c r="IM71" s="33"/>
+      <c r="IN71" s="33"/>
+      <c r="IO71" s="33"/>
+      <c r="IP71" s="33"/>
+      <c r="IQ71" s="33"/>
+      <c r="IR71" s="33"/>
+      <c r="IS71" s="33"/>
+      <c r="IT71" s="33"/>
+      <c r="IU71" s="33"/>
+      <c r="IV71" s="33"/>
+      <c r="IW71" s="33"/>
+      <c r="IX71" s="33"/>
+      <c r="IY71" s="33"/>
+      <c r="IZ71" s="33"/>
+      <c r="JA71" s="33"/>
+      <c r="JB71" s="33"/>
+      <c r="JC71" s="33"/>
+      <c r="JD71" s="33"/>
+      <c r="JE71" s="33"/>
+      <c r="JF71" s="33"/>
+      <c r="JG71" s="33"/>
+      <c r="JH71" s="33"/>
+      <c r="JI71" s="33"/>
+      <c r="JJ71" s="33"/>
+      <c r="JK71" s="33"/>
+      <c r="JL71" s="33"/>
+      <c r="JM71" s="33"/>
+      <c r="JN71" s="33"/>
+      <c r="JO71" s="33"/>
+      <c r="JP71" s="33"/>
+      <c r="JQ71" s="33"/>
+      <c r="JR71" s="33"/>
+      <c r="JS71" s="33"/>
+      <c r="JT71" s="33"/>
+      <c r="JU71" s="33"/>
+      <c r="JV71" s="33"/>
+      <c r="JW71" s="33"/>
+      <c r="JX71" s="33"/>
+      <c r="JY71" s="33"/>
+      <c r="JZ71" s="33"/>
+      <c r="KA71" s="33"/>
+      <c r="KB71" s="33"/>
+      <c r="KC71" s="33"/>
+      <c r="KD71" s="33"/>
+      <c r="KE71" s="33"/>
+      <c r="KF71" s="33"/>
+      <c r="KG71" s="33"/>
+      <c r="KH71" s="33"/>
+      <c r="KI71" s="33"/>
+      <c r="KJ71" s="33"/>
+      <c r="KK71" s="33"/>
+      <c r="KL71" s="33"/>
+      <c r="KM71" s="33"/>
+      <c r="KN71" s="33"/>
+      <c r="KO71" s="33"/>
+      <c r="KP71" s="33"/>
+      <c r="KQ71" s="33"/>
+      <c r="KR71" s="33"/>
+      <c r="KS71" s="33"/>
+      <c r="KT71" s="33"/>
+      <c r="KU71" s="33"/>
+      <c r="KV71" s="33"/>
+      <c r="KW71" s="33"/>
+      <c r="KX71" s="33"/>
+      <c r="KY71" s="33"/>
+      <c r="KZ71" s="33"/>
+      <c r="LA71" s="33"/>
+      <c r="LB71" s="33"/>
+      <c r="LC71" s="33"/>
+      <c r="LD71" s="33"/>
+      <c r="LE71" s="33"/>
+      <c r="LF71" s="33"/>
+      <c r="LG71" s="33"/>
+      <c r="LH71" s="33"/>
+      <c r="LI71" s="33"/>
+      <c r="LJ71" s="33"/>
+      <c r="LK71" s="33"/>
+      <c r="LL71" s="33"/>
+      <c r="LM71" s="33"/>
+      <c r="LN71" s="33"/>
+      <c r="LO71" s="33"/>
+      <c r="LP71" s="33"/>
+      <c r="LQ71" s="33"/>
+      <c r="LR71" s="33"/>
+      <c r="LS71" s="33"/>
+      <c r="LT71" s="33"/>
+      <c r="LU71" s="33"/>
+      <c r="LV71" s="33"/>
+      <c r="LW71" s="33"/>
+      <c r="LX71" s="33"/>
+      <c r="LY71" s="33"/>
+      <c r="LZ71" s="33"/>
+      <c r="MA71" s="33"/>
+      <c r="MB71" s="33"/>
+      <c r="MC71" s="33"/>
+      <c r="MD71" s="33"/>
+      <c r="ME71" s="33"/>
+      <c r="MF71" s="33"/>
+      <c r="MG71" s="33"/>
+      <c r="MH71" s="33"/>
+      <c r="MI71" s="33"/>
+      <c r="MJ71" s="33"/>
+      <c r="MK71" s="33"/>
+      <c r="ML71" s="33"/>
+      <c r="MM71" s="33"/>
+      <c r="MN71" s="33"/>
+      <c r="MO71" s="33"/>
+      <c r="MP71" s="33"/>
+      <c r="MQ71" s="33"/>
+      <c r="MR71" s="33"/>
+      <c r="MS71" s="33"/>
+      <c r="MT71" s="33"/>
+      <c r="MU71" s="33"/>
+      <c r="MV71" s="33"/>
+      <c r="MW71" s="33"/>
+      <c r="MX71" s="33"/>
+      <c r="MY71" s="33"/>
+      <c r="MZ71" s="33"/>
+      <c r="NA71" s="33"/>
+      <c r="NB71" s="33"/>
+      <c r="NC71" s="33"/>
+      <c r="ND71" s="33"/>
+      <c r="NE71" s="33"/>
+      <c r="NF71" s="33"/>
+      <c r="NG71" s="33"/>
+      <c r="NH71" s="33"/>
+      <c r="NI71" s="33"/>
+      <c r="NJ71" s="33"/>
+      <c r="NK71" s="33"/>
+      <c r="NL71" s="33"/>
+      <c r="NM71" s="33"/>
+      <c r="NN71" s="33"/>
+      <c r="NO71" s="33"/>
+      <c r="NP71" s="33"/>
+      <c r="NQ71" s="33"/>
+      <c r="NR71" s="33"/>
+      <c r="NS71" s="33"/>
+      <c r="NT71" s="33"/>
+      <c r="NU71" s="33"/>
+      <c r="NV71" s="33"/>
+      <c r="NW71" s="33"/>
+      <c r="NX71" s="33"/>
+      <c r="NY71" s="33"/>
+      <c r="NZ71" s="33"/>
+      <c r="OA71" s="33"/>
+      <c r="OB71" s="33"/>
+      <c r="OC71" s="33"/>
+      <c r="OD71" s="33"/>
+      <c r="OE71" s="33"/>
+      <c r="OF71" s="33"/>
+      <c r="OG71" s="33"/>
+      <c r="OH71" s="33"/>
+      <c r="OI71" s="33"/>
+      <c r="OJ71" s="33"/>
+      <c r="OK71" s="33"/>
+      <c r="OL71" s="33"/>
+      <c r="OM71" s="33"/>
+      <c r="ON71" s="33"/>
+      <c r="OO71" s="33"/>
+      <c r="OP71" s="33"/>
+      <c r="OQ71" s="33"/>
+      <c r="OR71" s="33"/>
+      <c r="OS71" s="33"/>
+      <c r="OT71" s="33"/>
+      <c r="OU71" s="33"/>
+      <c r="OV71" s="33"/>
+      <c r="OW71" s="33"/>
+      <c r="OX71" s="33"/>
+      <c r="OY71" s="33"/>
+      <c r="OZ71" s="33"/>
+      <c r="PA71" s="33"/>
+      <c r="PB71" s="33"/>
+      <c r="PC71" s="33"/>
+      <c r="PD71" s="33"/>
+      <c r="PE71" s="33"/>
+      <c r="PF71" s="33"/>
+      <c r="PG71" s="33"/>
+      <c r="PH71" s="33"/>
+      <c r="PI71" s="33"/>
+      <c r="PJ71" s="33"/>
+      <c r="PK71" s="33"/>
+      <c r="PL71" s="33"/>
+      <c r="PM71" s="33"/>
+      <c r="PN71" s="33"/>
+      <c r="PO71" s="33"/>
+      <c r="PP71" s="33"/>
+      <c r="PQ71" s="33"/>
+      <c r="PR71" s="33"/>
+      <c r="PS71" s="33"/>
+      <c r="PT71" s="33"/>
+      <c r="PU71" s="33"/>
+      <c r="PV71" s="33"/>
+      <c r="PW71" s="33"/>
+      <c r="PX71" s="33"/>
+      <c r="PY71" s="33"/>
+      <c r="PZ71" s="33"/>
+      <c r="QA71" s="33"/>
+      <c r="QB71" s="33"/>
+      <c r="QC71" s="33"/>
+      <c r="QD71" s="33"/>
+      <c r="QE71" s="33"/>
+      <c r="QF71" s="33"/>
+      <c r="QG71" s="33"/>
+      <c r="QH71" s="33"/>
+      <c r="QI71" s="33"/>
+      <c r="QJ71" s="33"/>
+      <c r="QK71" s="33"/>
+      <c r="QL71" s="33"/>
+      <c r="QM71" s="33"/>
+      <c r="QN71" s="33"/>
+      <c r="QO71" s="33"/>
+      <c r="QP71" s="33"/>
+      <c r="QQ71" s="33"/>
+      <c r="QR71" s="33"/>
+      <c r="QS71" s="33"/>
+      <c r="QT71" s="33"/>
+      <c r="QU71" s="33"/>
+      <c r="QV71" s="33"/>
+      <c r="QW71" s="33"/>
+      <c r="QX71" s="33"/>
+      <c r="QY71" s="33"/>
+      <c r="QZ71" s="33"/>
+      <c r="RA71" s="33"/>
+      <c r="RB71" s="33"/>
+      <c r="RC71" s="33"/>
+      <c r="RD71" s="33"/>
+      <c r="RE71" s="33"/>
+      <c r="RF71" s="33"/>
+      <c r="RG71" s="33"/>
+      <c r="RH71" s="33"/>
+      <c r="RI71" s="33"/>
+      <c r="RJ71" s="33"/>
+      <c r="RK71" s="33"/>
+      <c r="RL71" s="33"/>
+      <c r="RM71" s="33"/>
+      <c r="RN71" s="33"/>
+      <c r="RO71" s="33"/>
+      <c r="RP71" s="33"/>
+      <c r="RQ71" s="33"/>
+      <c r="RR71" s="33"/>
+      <c r="RS71" s="33"/>
+      <c r="RT71" s="33"/>
+      <c r="RU71" s="33"/>
+      <c r="RV71" s="33"/>
+      <c r="RW71" s="33"/>
+      <c r="RX71" s="33"/>
+      <c r="RY71" s="33"/>
+      <c r="RZ71" s="33"/>
+      <c r="SA71" s="33"/>
+      <c r="SB71" s="33"/>
+      <c r="SC71" s="33"/>
+      <c r="SD71" s="33"/>
+      <c r="SE71" s="33"/>
+      <c r="SF71" s="33"/>
+      <c r="SG71" s="33"/>
+      <c r="SH71" s="33"/>
+      <c r="SI71" s="33"/>
+      <c r="SJ71" s="33"/>
+      <c r="SK71" s="33"/>
+      <c r="SL71" s="33"/>
+      <c r="SM71" s="33"/>
+      <c r="SN71" s="33"/>
+      <c r="SO71" s="33"/>
+      <c r="SP71" s="33"/>
+      <c r="SQ71" s="33"/>
+      <c r="SR71" s="33"/>
+      <c r="SS71" s="33"/>
+      <c r="ST71" s="33"/>
+      <c r="SU71" s="33"/>
+      <c r="SV71" s="33"/>
+      <c r="SW71" s="33"/>
+      <c r="SX71" s="33"/>
+      <c r="SY71" s="33"/>
+      <c r="SZ71" s="33"/>
+      <c r="TA71" s="33"/>
+      <c r="TB71" s="33"/>
+      <c r="TC71" s="33"/>
+      <c r="TD71" s="33"/>
+      <c r="TE71" s="33"/>
+      <c r="TF71" s="33"/>
+      <c r="TG71" s="33"/>
+      <c r="TH71" s="33"/>
+      <c r="TI71" s="33"/>
+      <c r="TJ71" s="33"/>
+      <c r="TK71" s="33"/>
+      <c r="TL71" s="33"/>
+      <c r="TM71" s="33"/>
+      <c r="TN71" s="33"/>
+      <c r="TO71" s="33"/>
+      <c r="TP71" s="33"/>
+      <c r="TQ71" s="33"/>
+      <c r="TR71" s="33"/>
+      <c r="TS71" s="33"/>
+      <c r="TT71" s="33"/>
+      <c r="TU71" s="33"/>
+      <c r="TV71" s="33"/>
+      <c r="TW71" s="33"/>
+      <c r="TX71" s="33"/>
+      <c r="TY71" s="33"/>
+      <c r="TZ71" s="33"/>
+      <c r="UA71" s="33"/>
+      <c r="UB71" s="33"/>
+      <c r="UC71" s="33"/>
+      <c r="UD71" s="33"/>
+      <c r="UE71" s="33"/>
+      <c r="UF71" s="33"/>
+      <c r="UG71" s="33"/>
+      <c r="UH71" s="33"/>
+      <c r="UI71" s="33"/>
+      <c r="UJ71" s="33"/>
+      <c r="UK71" s="33"/>
+      <c r="UL71" s="33"/>
+      <c r="UM71" s="33"/>
+      <c r="UN71" s="33"/>
+      <c r="UO71" s="33"/>
+      <c r="UP71" s="33"/>
+      <c r="UQ71" s="33"/>
+      <c r="UR71" s="33"/>
+      <c r="US71" s="33"/>
+      <c r="UT71" s="33"/>
+      <c r="UU71" s="33"/>
+      <c r="UV71" s="33"/>
+      <c r="UW71" s="33"/>
+      <c r="UX71" s="33"/>
+      <c r="UY71" s="33"/>
+      <c r="UZ71" s="33"/>
+      <c r="VA71" s="33"/>
+      <c r="VB71" s="33"/>
+      <c r="VC71" s="33"/>
+      <c r="VD71" s="33"/>
+      <c r="VE71" s="33"/>
+      <c r="VF71" s="33"/>
+      <c r="VG71" s="33"/>
+      <c r="VH71" s="33"/>
+      <c r="VI71" s="33"/>
+      <c r="VJ71" s="33"/>
+      <c r="VK71" s="33"/>
+      <c r="VL71" s="33"/>
+      <c r="VM71" s="33"/>
+      <c r="VN71" s="33"/>
+      <c r="VO71" s="33"/>
+      <c r="VP71" s="33"/>
+      <c r="VQ71" s="33"/>
+      <c r="VR71" s="33"/>
+      <c r="VS71" s="33"/>
+      <c r="VT71" s="33"/>
+      <c r="VU71" s="33"/>
+      <c r="VV71" s="33"/>
+      <c r="VW71" s="33"/>
+      <c r="VX71" s="33"/>
+      <c r="VY71" s="33"/>
+      <c r="VZ71" s="33"/>
+      <c r="WA71" s="33"/>
+      <c r="WB71" s="33"/>
+      <c r="WC71" s="33"/>
+      <c r="WD71" s="33"/>
+      <c r="WE71" s="33"/>
+      <c r="WF71" s="33"/>
+      <c r="WG71" s="33"/>
+      <c r="WH71" s="33"/>
+      <c r="WI71" s="33"/>
+      <c r="WJ71" s="33"/>
+      <c r="WK71" s="33"/>
+      <c r="WL71" s="33"/>
+      <c r="WM71" s="33"/>
+      <c r="WN71" s="33"/>
+      <c r="WO71" s="33"/>
+      <c r="WP71" s="33"/>
+      <c r="WQ71" s="33"/>
+      <c r="WR71" s="33"/>
+      <c r="WS71" s="33"/>
+      <c r="WT71" s="33"/>
+      <c r="WU71" s="33"/>
+      <c r="WV71" s="33"/>
+      <c r="WW71" s="33"/>
+      <c r="WX71" s="33"/>
+      <c r="WY71" s="33"/>
+      <c r="WZ71" s="33"/>
+      <c r="XA71" s="33"/>
+      <c r="XB71" s="33"/>
+      <c r="XC71" s="33"/>
+      <c r="XD71" s="33"/>
+      <c r="XE71" s="33"/>
+      <c r="XF71" s="33"/>
+      <c r="XG71" s="33"/>
+      <c r="XH71" s="33"/>
+      <c r="XI71" s="33"/>
+      <c r="XJ71" s="33"/>
+      <c r="XK71" s="33"/>
+      <c r="XL71" s="33"/>
+      <c r="XM71" s="33"/>
+      <c r="XN71" s="33"/>
+      <c r="XO71" s="33"/>
+      <c r="XP71" s="33"/>
+      <c r="XQ71" s="33"/>
+      <c r="XR71" s="33"/>
+      <c r="XS71" s="33"/>
+      <c r="XT71" s="33"/>
+      <c r="XU71" s="33"/>
+      <c r="XV71" s="33"/>
+      <c r="XW71" s="33"/>
+      <c r="XX71" s="33"/>
+      <c r="XY71" s="33"/>
+      <c r="XZ71" s="33"/>
+      <c r="YA71" s="33"/>
+      <c r="YB71" s="33"/>
+      <c r="YC71" s="33"/>
+      <c r="YD71" s="33"/>
+      <c r="YE71" s="33"/>
+      <c r="YF71" s="33"/>
+      <c r="YG71" s="33"/>
+      <c r="YH71" s="33"/>
+      <c r="YI71" s="33"/>
+      <c r="YJ71" s="33"/>
+      <c r="YK71" s="33"/>
+      <c r="YL71" s="33"/>
+      <c r="YM71" s="33"/>
+      <c r="YN71" s="33"/>
+      <c r="YO71" s="33"/>
+      <c r="YP71" s="33"/>
+      <c r="YQ71" s="33"/>
+      <c r="YR71" s="33"/>
+      <c r="YS71" s="33"/>
+      <c r="YT71" s="33"/>
+      <c r="YU71" s="33"/>
+      <c r="YV71" s="33"/>
+      <c r="YW71" s="33"/>
+      <c r="YX71" s="33"/>
+      <c r="YY71" s="33"/>
+      <c r="YZ71" s="33"/>
+      <c r="ZA71" s="33"/>
+      <c r="ZB71" s="33"/>
+      <c r="ZC71" s="33"/>
+      <c r="ZD71" s="33"/>
+      <c r="ZE71" s="33"/>
+      <c r="ZF71" s="33"/>
+      <c r="ZG71" s="33"/>
+      <c r="ZH71" s="33"/>
+      <c r="ZI71" s="33"/>
+      <c r="ZJ71" s="33"/>
+      <c r="ZK71" s="33"/>
+      <c r="ZL71" s="33"/>
+      <c r="ZM71" s="33"/>
+      <c r="ZN71" s="33"/>
+      <c r="ZO71" s="33"/>
+      <c r="ZP71" s="33"/>
+      <c r="ZQ71" s="33"/>
+      <c r="ZR71" s="33"/>
+      <c r="ZS71" s="33"/>
+      <c r="ZT71" s="33"/>
+      <c r="ZU71" s="33"/>
+      <c r="ZV71" s="33"/>
+      <c r="ZW71" s="33"/>
+      <c r="ZX71" s="33"/>
+      <c r="ZY71" s="33"/>
+      <c r="ZZ71" s="33"/>
+      <c r="AAA71" s="33"/>
+      <c r="AAB71" s="33"/>
+      <c r="AAC71" s="33"/>
+      <c r="AAD71" s="33"/>
+      <c r="AAE71" s="33"/>
+      <c r="AAF71" s="33"/>
+      <c r="AAG71" s="33"/>
+      <c r="AAH71" s="33"/>
+      <c r="AAI71" s="33"/>
+      <c r="AAJ71" s="33"/>
+      <c r="AAK71" s="33"/>
+      <c r="AAL71" s="33"/>
+      <c r="AAM71" s="33"/>
+      <c r="AAN71" s="33"/>
+      <c r="AAO71" s="33"/>
+      <c r="AAP71" s="33"/>
+      <c r="AAQ71" s="33"/>
+      <c r="AAR71" s="33"/>
+      <c r="AAS71" s="33"/>
+      <c r="AAT71" s="33"/>
+      <c r="AAU71" s="33"/>
+      <c r="AAV71" s="33"/>
+      <c r="AAW71" s="33"/>
+      <c r="AAX71" s="33"/>
+      <c r="AAY71" s="33"/>
+      <c r="AAZ71" s="33"/>
+      <c r="ABA71" s="33"/>
+      <c r="ABB71" s="33"/>
+      <c r="ABC71" s="33"/>
+      <c r="ABD71" s="33"/>
+      <c r="ABE71" s="33"/>
+      <c r="ABF71" s="33"/>
+      <c r="ABG71" s="33"/>
+      <c r="ABH71" s="33"/>
+      <c r="ABI71" s="33"/>
+      <c r="ABJ71" s="33"/>
+      <c r="ABK71" s="33"/>
+      <c r="ABL71" s="33"/>
+      <c r="ABM71" s="33"/>
+      <c r="ABN71" s="33"/>
+      <c r="ABO71" s="33"/>
+      <c r="ABP71" s="33"/>
+      <c r="ABQ71" s="33"/>
+      <c r="ABR71" s="33"/>
+      <c r="ABS71" s="33"/>
+      <c r="ABT71" s="33"/>
+      <c r="ABU71" s="33"/>
+      <c r="ABV71" s="33"/>
+      <c r="ABW71" s="33"/>
+      <c r="ABX71" s="33"/>
+      <c r="ABY71" s="33"/>
+      <c r="ABZ71" s="33"/>
+      <c r="ACA71" s="33"/>
+      <c r="ACB71" s="33"/>
+      <c r="ACC71" s="33"/>
+      <c r="ACD71" s="33"/>
+      <c r="ACE71" s="33"/>
+      <c r="ACF71" s="33"/>
+      <c r="ACG71" s="33"/>
+      <c r="ACH71" s="33"/>
+      <c r="ACI71" s="33"/>
+      <c r="ACJ71" s="33"/>
+      <c r="ACK71" s="33"/>
+      <c r="ACL71" s="33"/>
+      <c r="ACM71" s="33"/>
+      <c r="ACN71" s="33"/>
+      <c r="ACO71" s="33"/>
+      <c r="ACP71" s="33"/>
+      <c r="ACQ71" s="33"/>
+      <c r="ACR71" s="33"/>
+      <c r="ACS71" s="33"/>
+      <c r="ACT71" s="33"/>
+      <c r="ACU71" s="33"/>
+      <c r="ACV71" s="33"/>
+      <c r="ACW71" s="33"/>
+      <c r="ACX71" s="33"/>
+      <c r="ACY71" s="33"/>
+      <c r="ACZ71" s="33"/>
+      <c r="ADA71" s="33"/>
+      <c r="ADB71" s="33"/>
+      <c r="ADC71" s="33"/>
+      <c r="ADD71" s="33"/>
+      <c r="ADE71" s="33"/>
+      <c r="ADF71" s="33"/>
+      <c r="ADG71" s="33"/>
+      <c r="ADH71" s="33"/>
+      <c r="ADI71" s="33"/>
+      <c r="ADJ71" s="33"/>
+      <c r="ADK71" s="33"/>
+      <c r="ADL71" s="33"/>
+      <c r="ADM71" s="33"/>
+      <c r="ADN71" s="33"/>
+      <c r="ADO71" s="33"/>
+      <c r="ADP71" s="33"/>
+      <c r="ADQ71" s="33"/>
+      <c r="ADR71" s="33"/>
+      <c r="ADS71" s="33"/>
+      <c r="ADT71" s="33"/>
+      <c r="ADU71" s="33"/>
+      <c r="ADV71" s="33"/>
+      <c r="ADW71" s="33"/>
+      <c r="ADX71" s="33"/>
+      <c r="ADY71" s="33"/>
+      <c r="ADZ71" s="33"/>
+      <c r="AEA71" s="33"/>
+      <c r="AEB71" s="33"/>
+      <c r="AEC71" s="33"/>
+      <c r="AED71" s="33"/>
+      <c r="AEE71" s="33"/>
+      <c r="AEF71" s="33"/>
+      <c r="AEG71" s="33"/>
+      <c r="AEH71" s="33"/>
+      <c r="AEI71" s="33"/>
+      <c r="AEJ71" s="33"/>
+      <c r="AEK71" s="33"/>
+      <c r="AEL71" s="33"/>
+      <c r="AEM71" s="33"/>
+      <c r="AEN71" s="33"/>
+      <c r="AEO71" s="33"/>
+      <c r="AEP71" s="33"/>
+      <c r="AEQ71" s="33"/>
+      <c r="AER71" s="33"/>
+      <c r="AES71" s="33"/>
+      <c r="AET71" s="33"/>
+      <c r="AEU71" s="33"/>
+      <c r="AEV71" s="33"/>
+      <c r="AEW71" s="33"/>
+      <c r="AEX71" s="33"/>
+      <c r="AEY71" s="33"/>
+      <c r="AEZ71" s="33"/>
+      <c r="AFA71" s="33"/>
+      <c r="AFB71" s="33"/>
+      <c r="AFC71" s="33"/>
+      <c r="AFD71" s="33"/>
+      <c r="AFE71" s="33"/>
+      <c r="AFF71" s="33"/>
+      <c r="AFG71" s="33"/>
+      <c r="AFH71" s="33"/>
+      <c r="AFI71" s="33"/>
+      <c r="AFJ71" s="33"/>
+      <c r="AFK71" s="33"/>
+      <c r="AFL71" s="33"/>
+      <c r="AFM71" s="33"/>
+      <c r="AFN71" s="33"/>
+      <c r="AFO71" s="33"/>
+      <c r="AFP71" s="33"/>
+      <c r="AFQ71" s="33"/>
+      <c r="AFR71" s="33"/>
+      <c r="AFS71" s="33"/>
+      <c r="AFT71" s="33"/>
+      <c r="AFU71" s="33"/>
+      <c r="AFV71" s="33"/>
+      <c r="AFW71" s="33"/>
+      <c r="AFX71" s="33"/>
+      <c r="AFY71" s="33"/>
+      <c r="AFZ71" s="33"/>
+      <c r="AGA71" s="33"/>
+      <c r="AGB71" s="33"/>
+      <c r="AGC71" s="33"/>
+      <c r="AGD71" s="33"/>
+      <c r="AGE71" s="33"/>
+      <c r="AGF71" s="33"/>
+      <c r="AGG71" s="33"/>
+      <c r="AGH71" s="33"/>
+      <c r="AGI71" s="33"/>
+      <c r="AGJ71" s="33"/>
+      <c r="AGK71" s="33"/>
+      <c r="AGL71" s="33"/>
+      <c r="AGM71" s="33"/>
+      <c r="AGN71" s="33"/>
+      <c r="AGO71" s="33"/>
+      <c r="AGP71" s="33"/>
+      <c r="AGQ71" s="33"/>
+      <c r="AGR71" s="33"/>
+      <c r="AGS71" s="33"/>
+      <c r="AGT71" s="33"/>
+      <c r="AGU71" s="33"/>
+      <c r="AGV71" s="33"/>
+      <c r="AGW71" s="33"/>
+      <c r="AGX71" s="33"/>
+      <c r="AGY71" s="33"/>
+      <c r="AGZ71" s="33"/>
+      <c r="AHA71" s="33"/>
+      <c r="AHB71" s="33"/>
+      <c r="AHC71" s="33"/>
+      <c r="AHD71" s="33"/>
+      <c r="AHE71" s="33"/>
+      <c r="AHF71" s="33"/>
+      <c r="AHG71" s="33"/>
+      <c r="AHH71" s="33"/>
+      <c r="AHI71" s="33"/>
+      <c r="AHJ71" s="33"/>
+      <c r="AHK71" s="33"/>
+      <c r="AHL71" s="33"/>
+      <c r="AHM71" s="33"/>
+      <c r="AHN71" s="33"/>
+      <c r="AHO71" s="33"/>
+      <c r="AHP71" s="33"/>
+      <c r="AHQ71" s="33"/>
+      <c r="AHR71" s="33"/>
+      <c r="AHS71" s="33"/>
+      <c r="AHT71" s="33"/>
+      <c r="AHU71" s="33"/>
+      <c r="AHV71" s="33"/>
+      <c r="AHW71" s="33"/>
+      <c r="AHX71" s="33"/>
+      <c r="AHY71" s="33"/>
+      <c r="AHZ71" s="33"/>
+      <c r="AIA71" s="33"/>
+      <c r="AIB71" s="33"/>
+      <c r="AIC71" s="33"/>
+      <c r="AID71" s="33"/>
+      <c r="AIE71" s="33"/>
+      <c r="AIF71" s="33"/>
+      <c r="AIG71" s="33"/>
+      <c r="AIH71" s="33"/>
+      <c r="AII71" s="33"/>
+      <c r="AIJ71" s="33"/>
+      <c r="AIK71" s="33"/>
+      <c r="AIL71" s="33"/>
+      <c r="AIM71" s="33"/>
+      <c r="AIN71" s="33"/>
+      <c r="AIO71" s="33"/>
+      <c r="AIP71" s="33"/>
+      <c r="AIQ71" s="33"/>
+      <c r="AIR71" s="33"/>
+      <c r="AIS71" s="33"/>
+      <c r="AIT71" s="33"/>
+      <c r="AIU71" s="33"/>
+      <c r="AIV71" s="33"/>
+      <c r="AIW71" s="33"/>
+      <c r="AIX71" s="33"/>
+      <c r="AIY71" s="33"/>
+      <c r="AIZ71" s="33"/>
+      <c r="AJA71" s="33"/>
+      <c r="AJB71" s="33"/>
+      <c r="AJC71" s="33"/>
+      <c r="AJD71" s="33"/>
+      <c r="AJE71" s="33"/>
+      <c r="AJF71" s="33"/>
+      <c r="AJG71" s="33"/>
+      <c r="AJH71" s="33"/>
+      <c r="AJI71" s="33"/>
+      <c r="AJJ71" s="33"/>
+      <c r="AJK71" s="33"/>
+      <c r="AJL71" s="33"/>
+      <c r="AJM71" s="33"/>
+      <c r="AJN71" s="33"/>
+      <c r="AJO71" s="33"/>
+      <c r="AJP71" s="33"/>
+      <c r="AJQ71" s="33"/>
+      <c r="AJR71" s="33"/>
+      <c r="AJS71" s="33"/>
+      <c r="AJT71" s="33"/>
+      <c r="AJU71" s="33"/>
+      <c r="AJV71" s="33"/>
+      <c r="AJW71" s="33"/>
+      <c r="AJX71" s="33"/>
+      <c r="AJY71" s="33"/>
+      <c r="AJZ71" s="33"/>
+      <c r="AKA71" s="33"/>
+      <c r="AKB71" s="33"/>
+      <c r="AKC71" s="33"/>
+      <c r="AKD71" s="33"/>
+      <c r="AKE71" s="33"/>
+      <c r="AKF71" s="33"/>
+      <c r="AKG71" s="33"/>
+      <c r="AKH71" s="33"/>
+      <c r="AKI71" s="33"/>
+      <c r="AKJ71" s="33"/>
+      <c r="AKK71" s="33"/>
+      <c r="AKL71" s="33"/>
+      <c r="AKM71" s="33"/>
+      <c r="AKN71" s="33"/>
+      <c r="AKO71" s="33"/>
+      <c r="AKP71" s="33"/>
+      <c r="AKQ71" s="33"/>
+      <c r="AKR71" s="33"/>
+      <c r="AKS71" s="33"/>
+      <c r="AKT71" s="33"/>
+      <c r="AKU71" s="33"/>
+      <c r="AKV71" s="33"/>
+      <c r="AKW71" s="33"/>
+      <c r="AKX71" s="33"/>
+      <c r="AKY71" s="33"/>
+      <c r="AKZ71" s="33"/>
+      <c r="ALA71" s="33"/>
+      <c r="ALB71" s="33"/>
+      <c r="ALC71" s="33"/>
+      <c r="ALD71" s="33"/>
+      <c r="ALE71" s="33"/>
+      <c r="ALF71" s="33"/>
+      <c r="ALG71" s="33"/>
+      <c r="ALH71" s="33"/>
+      <c r="ALI71" s="33"/>
+      <c r="ALJ71" s="33"/>
+      <c r="ALK71" s="33"/>
+      <c r="ALL71" s="33"/>
+      <c r="ALM71" s="33"/>
+      <c r="ALN71" s="33"/>
+      <c r="ALO71" s="33"/>
+      <c r="ALP71" s="33"/>
+      <c r="ALQ71" s="33"/>
+      <c r="ALR71" s="33"/>
+      <c r="ALS71" s="33"/>
+      <c r="ALT71" s="33"/>
+      <c r="ALU71" s="33"/>
+      <c r="ALV71" s="33"/>
+      <c r="ALW71" s="33"/>
+      <c r="ALX71" s="33"/>
+      <c r="ALY71" s="33"/>
+      <c r="ALZ71" s="33"/>
+      <c r="AMA71" s="33"/>
+      <c r="AMB71" s="33"/>
+      <c r="AMC71" s="33"/>
+      <c r="AMD71" s="33"/>
+      <c r="AME71" s="33"/>
+      <c r="AMF71" s="33"/>
+      <c r="AMG71" s="33"/>
+      <c r="AMH71" s="33"/>
+      <c r="AMI71" s="33"/>
+      <c r="AMJ71" s="33"/>
+      <c r="AMK71" s="33"/>
+    </row>
+    <row r="72" spans="1:1025" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" spans="1:1025" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="B73" s="33"/>
     </row>
-    <row r="67" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="74" spans="1:1025" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="38">
+        <v>1</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1025" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>2</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1025" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>3</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1025" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>4</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1025" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>5</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1025" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>6</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1025" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>7</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>8</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>9</v>
+      </c>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>10</v>
+      </c>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="23">
+    <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="23">
         <v>1</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C86" s="24" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B87" s="23">
         <v>2</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C87" s="24" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
+    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="23">
         <v>3</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C88" s="24" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="23">
         <v>4</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C89" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="23">
         <v>5</v>
       </c>
-      <c r="C72" s="23"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
-        <v>6</v>
-      </c>
-      <c r="C73" s="23"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
-        <v>7</v>
-      </c>
-      <c r="C74" s="23"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
-        <v>8</v>
-      </c>
-      <c r="C75" s="23"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="23">
-        <v>9</v>
-      </c>
-      <c r="C76" s="23"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
-        <v>10</v>
-      </c>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-    </row>
-    <row r="79" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="25">
-        <v>1</v>
-      </c>
-      <c r="C80" s="25"/>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="25">
-        <v>2</v>
-      </c>
-      <c r="C81" s="25"/>
-    </row>
-    <row r="82" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="25">
-        <v>3</v>
-      </c>
-      <c r="C82" s="25"/>
-    </row>
-    <row r="83" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="25">
-        <v>4</v>
-      </c>
-      <c r="C83" s="25"/>
-    </row>
-    <row r="84" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="25">
-        <v>5</v>
-      </c>
-      <c r="C84" s="25"/>
+      <c r="C90" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
